--- a/informe General de pagos 2018.xlsx
+++ b/informe General de pagos 2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Diamante" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,11 @@
     <sheet name="Informe Totales Diamante " sheetId="5" r:id="rId5"/>
     <sheet name="Hoja1" sheetId="6" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Diamante!$A$2:$G$299</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Diamante!$A$2:$G$335</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="521">
   <si>
     <t xml:space="preserve">Tener en cuenta con eduar </t>
   </si>
@@ -170,9 +173,6 @@
     <t xml:space="preserve">Pago de predial </t>
   </si>
   <si>
-    <t>Pago de Agua se fue en nomina</t>
-  </si>
-  <si>
     <t>Costo de Escrituras</t>
   </si>
   <si>
@@ -332,21 +332,12 @@
     <t>Prestamo yelsid</t>
   </si>
   <si>
-    <t xml:space="preserve">Factura en maaga </t>
-  </si>
-  <si>
     <t>Compras amaga Gabriel abono techador y compras</t>
   </si>
   <si>
     <t xml:space="preserve">Pago a eduar </t>
   </si>
   <si>
-    <t>Gargolas y Mezcladores</t>
-  </si>
-  <si>
-    <t>vueltas de maga</t>
-  </si>
-  <si>
     <t xml:space="preserve">cerrajero y ceramica </t>
   </si>
   <si>
@@ -542,9 +533,6 @@
     <t>Nomina Yoel y otro s</t>
   </si>
   <si>
-    <t>Nomian</t>
-  </si>
-  <si>
     <t>Para alpinistas</t>
   </si>
   <si>
@@ -729,9 +717,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pago de nomina Amaga </t>
-  </si>
-  <si>
-    <t>Pago de eletricidad Amaga</t>
   </si>
   <si>
     <t>Prestamo a mi papa para ir amaga</t>
@@ -1268,12 +1253,6 @@
     <t xml:space="preserve">Lavadores para terminar escalas </t>
   </si>
   <si>
-    <t xml:space="preserve">Pago a deposito  Factura de agua y otro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pago de factura en deposito de agua y otros </t>
-  </si>
-  <si>
     <t xml:space="preserve">Gabriel de los 3 millones que le di se quedo con 100 </t>
   </si>
   <si>
@@ -1289,15 +1268,9 @@
     <t xml:space="preserve">Compra de certificaod camara </t>
   </si>
   <si>
-    <t>FALTA REGISTRAR</t>
-  </si>
-  <si>
     <t>Prestamo empleado contratista viejo</t>
   </si>
   <si>
-    <t xml:space="preserve">Compra de puertas puertas vidrieras </t>
-  </si>
-  <si>
     <t>Compra de ceramica para zona comun con pega</t>
   </si>
   <si>
@@ -1460,24 +1433,12 @@
     <t>compra de materiales ferreteria</t>
   </si>
   <si>
-    <t xml:space="preserve">Abono Ferreteria Gabriel </t>
-  </si>
-  <si>
     <t xml:space="preserve">Pago de certificaicon Retie abono </t>
   </si>
   <si>
     <t>compra medidores de agua</t>
   </si>
   <si>
-    <t>Abono Ferreteria Gabriel  para el carro en barrio triste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mano de obra nomina </t>
-  </si>
-  <si>
-    <t>Abono Ferreteria Gabriel  saco dela tarjeta</t>
-  </si>
-  <si>
     <t>Jhon Nomina</t>
   </si>
   <si>
@@ -1509,6 +1470,144 @@
   </si>
   <si>
     <t xml:space="preserve">Total Deudas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tranferencia pago a alvaro </t>
+  </si>
+  <si>
+    <t>tranferencia a alex revoador</t>
+  </si>
+  <si>
+    <t>Abono Gabriel 400 mil que retiro en castillas para ponchadora</t>
+  </si>
+  <si>
+    <t>Compra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gabriel  saco dela tarjeta</t>
+  </si>
+  <si>
+    <t>Pago a eduar trasnferencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retiro de 300 de la tarjeta para brayan </t>
+  </si>
+  <si>
+    <t>Abono Ferreteria Gabriel Abono a la deuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jhon Nomina mercado </t>
+  </si>
+  <si>
+    <t>Abono Ferreteria Gabriel  para el carro en barrio triste retiro 300 +50</t>
+  </si>
+  <si>
+    <t>Gabriel los ladas pago en los ladas</t>
+  </si>
+  <si>
+    <t>Efectivo Retiro parapago de  nomina de otros trananjadores</t>
+  </si>
+  <si>
+    <t>Compra cable cinta clavos</t>
+  </si>
+  <si>
+    <t>Descuento del 4</t>
+  </si>
+  <si>
+    <t>Descuento del 5</t>
+  </si>
+  <si>
+    <t>Descuento del 3</t>
+  </si>
+  <si>
+    <t>Descuento del 2</t>
+  </si>
+  <si>
+    <t>Maria Solead Carro</t>
+  </si>
+  <si>
+    <t>Retiro Abono 600+400 para prestar alex alvaro revocadores otros trabajadores</t>
+  </si>
+  <si>
+    <t>Retiro Abono  +600+600+600 para 300 deventanas y 1500 de ventanales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se los dia gabriel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compra de varios en deposito rodillos, pinura y otros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compra de varios en deposito </t>
+  </si>
+  <si>
+    <t>Compra de pintura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono Ventanero </t>
+  </si>
+  <si>
+    <t>Pago de eletricidad Amaga trabajos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono Gabriel Efectivo amaga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envio a Eduar para pagar descargues y compra de materiales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago de Nomina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factura en Amaga </t>
+  </si>
+  <si>
+    <t>Compra de materiales en amaga</t>
+  </si>
+  <si>
+    <t>Gargolas y Mezcladores y otros materiales</t>
+  </si>
+  <si>
+    <t>tranferencia alvaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retiro para pagar nomina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compra de en ferreteria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compra de ceramica baños y  lavamanos y sanitarios </t>
+  </si>
+  <si>
+    <t>Compra de ceramica baños y  lavamanos y sanitarios  transporte de esto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compra de varios materiaes el ferreteria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compra de puertas y puertas vidrieras </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago a  Factura de agua </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compra de certificados </t>
+  </si>
+  <si>
+    <t>Pago de puerta vidrieras quedamso en 0</t>
+  </si>
+  <si>
+    <t>Compra en deposito gasolina y gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compra de materiales </t>
+  </si>
+  <si>
+    <t>Abono Gabriel Efectivo amaga que retiro dela tarjeta 1400</t>
+  </si>
+  <si>
+    <t>Retiro para gabriel</t>
   </si>
 </sst>
 </file>
@@ -1788,7 +1887,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1990,8 +2089,14 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2011,7 +2116,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bueno" xfId="2" builtinId="26"/>
@@ -2034,6 +2138,31 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Gabriel informe"/>
+      <sheetName val="Anexo1"/>
+      <sheetName val="Anexo2"/>
+      <sheetName val="Anexo3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="91">
+          <cell r="B91">
+            <v>19244402</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2299,10 +2428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W306"/>
+  <dimension ref="A2:W342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="E335" sqref="E335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2335,7 +2464,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>24</v>
@@ -2365,34 +2494,34 @@
         <v>80000000</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="18" t="s">
         <v>39</v>
       </c>
       <c r="O3" s="91" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q3" s="24" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="S3" s="24" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="U3" s="24" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="W3" s="95" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -2411,11 +2540,11 @@
         <v>82000000</v>
       </c>
       <c r="F4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G4" s="19">
         <f>SUMIF(F:F,"Diamante",D:D)</f>
-        <v>5876463</v>
+        <v>5942463</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="21">
@@ -2425,12 +2554,12 @@
       <c r="J4" s="20"/>
       <c r="K4" s="22">
         <f>SUMIF(F:F,"Milagrosa",D:D)</f>
-        <v>67065473</v>
+        <v>71538198</v>
       </c>
       <c r="L4" s="20"/>
       <c r="M4" s="23">
         <f>SUMIF(F:F,"NominaJhon",D:D)</f>
-        <v>5068000</v>
+        <v>5568000</v>
       </c>
       <c r="O4" s="92">
         <f>SUMIF(F:F,"Karla",C:C)</f>
@@ -2446,17 +2575,17 @@
       </c>
       <c r="U4" s="25">
         <f>SUMIF(F:F,"Ultima Etapa ",D:D)+(SUMIF(F:F,"MO Utlima Etapa ",D:D))</f>
-        <v>38583141</v>
+        <v>53910961</v>
       </c>
       <c r="W4" s="96">
         <f>SUMIF(F:F,"Leidy",C:C)</f>
-        <v>10900000</v>
+        <v>11300000</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C5" s="5">
         <v>24000000</v>
@@ -2467,7 +2596,7 @@
         <v>106000000</v>
       </c>
       <c r="F5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="20"/>
@@ -2477,7 +2606,7 @@
       <c r="L5" s="20"/>
       <c r="M5" s="23"/>
       <c r="O5" s="92" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q5" s="25"/>
       <c r="S5" s="25">
@@ -2490,7 +2619,7 @@
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C6" s="5">
         <v>3000000</v>
@@ -2501,7 +2630,7 @@
         <v>109000000</v>
       </c>
       <c r="F6" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="20"/>
@@ -2519,7 +2648,7 @@
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C7" s="5">
         <v>2000000</v>
@@ -2530,7 +2659,7 @@
         <v>111000000</v>
       </c>
       <c r="F7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="20"/>
@@ -2550,7 +2679,7 @@
         <v>43295</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C8" s="5">
         <v>1000000</v>
@@ -2561,7 +2690,7 @@
         <v>112000000</v>
       </c>
       <c r="F8" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="20"/>
@@ -2581,7 +2710,7 @@
         <v>43295</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C9" s="5">
         <v>1000000</v>
@@ -2592,7 +2721,7 @@
         <v>113000000</v>
       </c>
       <c r="F9" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="20"/>
@@ -2623,7 +2752,7 @@
         <v>110000000</v>
       </c>
       <c r="F10" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -2642,13 +2771,13 @@
         <v>109965440</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
+        <v>62</v>
+      </c>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
@@ -2666,7 +2795,7 @@
         <v>109945940</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="36"/>
@@ -2690,7 +2819,7 @@
         <v>109933940</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="36"/>
@@ -2703,7 +2832,7 @@
         <v>43195</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5">
@@ -2714,7 +2843,7 @@
         <v>109880940</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="36"/>
@@ -2738,7 +2867,7 @@
         <v>109830940</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="36"/>
@@ -2762,7 +2891,7 @@
         <v>109730940</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="36"/>
@@ -2786,7 +2915,7 @@
         <v>109719940</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="34"/>
       <c r="H17" s="36"/>
@@ -2810,7 +2939,7 @@
         <v>109280940</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="78"/>
       <c r="H18" s="36"/>
@@ -2834,7 +2963,7 @@
         <v>105280940</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G19" s="34"/>
       <c r="H19" s="36"/>
@@ -2858,7 +2987,7 @@
         <v>103280940</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="36"/>
@@ -2882,7 +3011,7 @@
         <v>102380940</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K21" s="28"/>
     </row>
@@ -2902,7 +3031,7 @@
         <v>101380940</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K22" s="28"/>
     </row>
@@ -2922,7 +3051,7 @@
         <v>101170940</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -2945,7 +3074,7 @@
         <v>98644090</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K24" s="28"/>
     </row>
@@ -2954,7 +3083,7 @@
         <v>43203</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>12</v>
+        <v>502</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5">
@@ -2965,7 +3094,7 @@
         <v>98494090</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I25" s="26"/>
       <c r="K25" s="28"/>
@@ -2975,7 +3104,7 @@
         <v>43203</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5">
@@ -2986,7 +3115,7 @@
         <v>98169090</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K26" s="28"/>
     </row>
@@ -3006,7 +3135,7 @@
         <v>98145090</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" s="28"/>
     </row>
@@ -3026,7 +3155,7 @@
         <v>97970090</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K28" s="28"/>
     </row>
@@ -3046,7 +3175,7 @@
         <v>96970090</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K29" s="28"/>
     </row>
@@ -3066,7 +3195,7 @@
         <v>96790090</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K30" s="28"/>
     </row>
@@ -3086,7 +3215,7 @@
         <v>96620090</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K31" s="28"/>
     </row>
@@ -3106,7 +3235,7 @@
         <v>96560090</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
@@ -3132,7 +3261,7 @@
         <v>95060090</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -3158,7 +3287,7 @@
         <v>94060090</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -3184,7 +3313,7 @@
         <v>91752090</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
@@ -3210,7 +3339,7 @@
         <v>91652090</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -3236,7 +3365,7 @@
         <v>91635090</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
@@ -3262,7 +3391,7 @@
         <v>91455090</v>
       </c>
       <c r="F38" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
@@ -3288,7 +3417,7 @@
         <v>91275090</v>
       </c>
       <c r="F39" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
@@ -3303,7 +3432,7 @@
         <v>43203</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>47</v>
+        <v>503</v>
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="30">
@@ -3314,7 +3443,7 @@
         <v>91035090</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
@@ -3340,7 +3469,7 @@
         <v>90995090</v>
       </c>
       <c r="F41" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
@@ -3366,7 +3495,7 @@
         <v>88995090</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
@@ -3392,7 +3521,7 @@
         <v>88765090</v>
       </c>
       <c r="F43" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
@@ -3418,7 +3547,7 @@
         <v>87698090</v>
       </c>
       <c r="F44" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
@@ -3444,7 +3573,7 @@
         <v>87681090</v>
       </c>
       <c r="F45" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
@@ -3470,7 +3599,7 @@
         <v>87551090</v>
       </c>
       <c r="F46" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
@@ -3496,7 +3625,7 @@
         <v>87421090</v>
       </c>
       <c r="F47" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
@@ -3511,7 +3640,7 @@
         <v>43203</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="30"/>
       <c r="D48" s="30">
@@ -3522,7 +3651,7 @@
         <v>87193590</v>
       </c>
       <c r="F48" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
@@ -3537,7 +3666,7 @@
         <v>43203</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49" s="30"/>
       <c r="D49" s="30">
@@ -3548,7 +3677,7 @@
         <v>86846590</v>
       </c>
       <c r="F49" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
@@ -3563,7 +3692,7 @@
         <v>43203</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="30"/>
       <c r="D50" s="30">
@@ -3574,7 +3703,7 @@
         <v>86346590</v>
       </c>
       <c r="F50" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
@@ -3589,7 +3718,7 @@
         <v>43203</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" s="30"/>
       <c r="D51" s="30">
@@ -3600,7 +3729,7 @@
         <v>86296590</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
@@ -3615,7 +3744,7 @@
         <v>43203</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>171</v>
+        <v>503</v>
       </c>
       <c r="C52" s="30"/>
       <c r="D52" s="30">
@@ -3626,7 +3755,7 @@
         <v>86196590</v>
       </c>
       <c r="F52" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
@@ -3641,7 +3770,7 @@
         <v>43203</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="30">
@@ -3652,7 +3781,7 @@
         <v>86156590</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
@@ -3667,7 +3796,7 @@
         <v>43203</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="30"/>
       <c r="D54" s="30">
@@ -3678,7 +3807,7 @@
         <v>86134590</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
@@ -3704,7 +3833,7 @@
         <v>85134590</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
@@ -3719,7 +3848,7 @@
         <v>43203</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" s="30"/>
       <c r="D56" s="30">
@@ -3730,7 +3859,7 @@
         <v>84984590</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
@@ -3745,7 +3874,7 @@
         <v>43203</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57" s="30"/>
       <c r="D57" s="30">
@@ -3756,7 +3885,7 @@
         <v>84834590</v>
       </c>
       <c r="F57" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
@@ -3771,7 +3900,7 @@
         <v>43203</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58" s="30"/>
       <c r="D58" s="30">
@@ -3782,7 +3911,7 @@
         <v>83903190</v>
       </c>
       <c r="F58" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
@@ -3797,7 +3926,7 @@
         <v>43203</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="30">
@@ -3808,7 +3937,7 @@
         <v>83601190</v>
       </c>
       <c r="F59" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
@@ -3823,7 +3952,7 @@
         <v>43203</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="30"/>
       <c r="D60" s="30">
@@ -3834,7 +3963,7 @@
         <v>83576190</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
@@ -3849,7 +3978,7 @@
         <v>43203</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C61" s="30"/>
       <c r="D61" s="30">
@@ -3860,7 +3989,7 @@
         <v>79576190</v>
       </c>
       <c r="F61" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
@@ -3875,7 +4004,7 @@
         <v>43203</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C62" s="30"/>
       <c r="D62" s="30">
@@ -3886,7 +4015,7 @@
         <v>79396190</v>
       </c>
       <c r="F62" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
@@ -3901,7 +4030,7 @@
         <v>43203</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C63" s="30"/>
       <c r="D63" s="30">
@@ -3912,7 +4041,7 @@
         <v>78612190</v>
       </c>
       <c r="F63" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
@@ -3927,7 +4056,7 @@
         <v>43203</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C64" s="30"/>
       <c r="D64" s="30">
@@ -3938,7 +4067,7 @@
         <v>78066190</v>
       </c>
       <c r="F64" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
@@ -3953,7 +4082,7 @@
         <v>43203</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C65" s="30"/>
       <c r="D65" s="30">
@@ -3964,7 +4093,7 @@
         <v>77002190</v>
       </c>
       <c r="F65" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
@@ -3979,7 +4108,7 @@
         <v>43203</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C66" s="30"/>
       <c r="D66" s="30">
@@ -3990,7 +4119,7 @@
         <v>76948290</v>
       </c>
       <c r="F66" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
@@ -4005,7 +4134,7 @@
         <v>43203</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C67" s="30"/>
       <c r="D67" s="30">
@@ -4016,7 +4145,7 @@
         <v>76923290</v>
       </c>
       <c r="F67" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
@@ -4031,7 +4160,7 @@
         <v>43203</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68" s="30"/>
       <c r="D68" s="30">
@@ -4042,7 +4171,7 @@
         <v>76898290</v>
       </c>
       <c r="F68" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
@@ -4057,7 +4186,7 @@
         <v>43203</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="30"/>
       <c r="D69" s="30">
@@ -4068,7 +4197,7 @@
         <v>76848290</v>
       </c>
       <c r="F69" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
@@ -4083,7 +4212,7 @@
         <v>43232</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="30"/>
       <c r="D70" s="30">
@@ -4094,7 +4223,7 @@
         <v>74748290</v>
       </c>
       <c r="F70" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
@@ -4109,7 +4238,7 @@
         <v>43232</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="30"/>
       <c r="D71" s="30">
@@ -4120,7 +4249,7 @@
         <v>72748290</v>
       </c>
       <c r="F71" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
@@ -4135,7 +4264,7 @@
         <v>43237</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72" s="30"/>
       <c r="D72" s="30">
@@ -4146,7 +4275,7 @@
         <v>71248290</v>
       </c>
       <c r="F72" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G72" s="13"/>
       <c r="H72" s="13"/>
@@ -4161,7 +4290,7 @@
         <v>43237</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C73" s="30"/>
       <c r="D73" s="30">
@@ -4172,7 +4301,7 @@
         <v>70548290</v>
       </c>
       <c r="F73" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
@@ -4187,7 +4316,7 @@
         <v>43237</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C74" s="30"/>
       <c r="D74" s="30">
@@ -4198,7 +4327,7 @@
         <v>70532890</v>
       </c>
       <c r="F74" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
@@ -4213,7 +4342,7 @@
         <v>43237</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C75" s="30"/>
       <c r="D75" s="30">
@@ -4224,7 +4353,7 @@
         <v>70524090</v>
       </c>
       <c r="F75" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
@@ -4239,7 +4368,7 @@
         <v>43237</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C76" s="30"/>
       <c r="D76" s="30">
@@ -4250,7 +4379,7 @@
         <v>70489090</v>
       </c>
       <c r="F76" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
@@ -4265,7 +4394,7 @@
         <v>43239</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" s="30"/>
       <c r="D77" s="46">
@@ -4276,7 +4405,7 @@
         <v>66522090</v>
       </c>
       <c r="F77" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
@@ -4291,7 +4420,7 @@
         <v>43237</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" s="30"/>
       <c r="D78" s="46">
@@ -4302,7 +4431,7 @@
         <v>65392090</v>
       </c>
       <c r="F78" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
@@ -4317,7 +4446,7 @@
         <v>43237</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79" s="30"/>
       <c r="D79" s="46">
@@ -4328,7 +4457,7 @@
         <v>62392090</v>
       </c>
       <c r="F79" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
@@ -4343,7 +4472,7 @@
         <v>43237</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" s="30"/>
       <c r="D80" s="46">
@@ -4354,7 +4483,7 @@
         <v>61596090</v>
       </c>
       <c r="F80" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G80" s="13"/>
       <c r="H80" s="13"/>
@@ -4369,7 +4498,7 @@
         <v>43237</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81" s="30"/>
       <c r="D81" s="46">
@@ -4380,7 +4509,7 @@
         <v>60827090</v>
       </c>
       <c r="F81" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
@@ -4395,7 +4524,7 @@
         <v>43237</v>
       </c>
       <c r="B82" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" s="30"/>
       <c r="D82" s="46">
@@ -4406,7 +4535,7 @@
         <v>59668090</v>
       </c>
       <c r="F82" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
@@ -4421,7 +4550,7 @@
         <v>43237</v>
       </c>
       <c r="B83" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83" s="30"/>
       <c r="D83" s="46">
@@ -4432,7 +4561,7 @@
         <v>59468090</v>
       </c>
       <c r="F83" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
@@ -4447,7 +4576,7 @@
         <v>43237</v>
       </c>
       <c r="B84" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" s="30"/>
       <c r="D84" s="46">
@@ -4458,7 +4587,7 @@
         <v>59068090</v>
       </c>
       <c r="F84" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
@@ -4473,7 +4602,7 @@
         <v>43237</v>
       </c>
       <c r="B85" s="45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C85" s="30"/>
       <c r="D85" s="46">
@@ -4484,7 +4613,7 @@
         <v>58668090</v>
       </c>
       <c r="F85" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G85" s="13"/>
       <c r="H85" s="13"/>
@@ -4499,7 +4628,7 @@
         <v>43237</v>
       </c>
       <c r="B86" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C86" s="30"/>
       <c r="D86" s="46">
@@ -4510,7 +4639,7 @@
         <v>57318467</v>
       </c>
       <c r="F86" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
@@ -4525,7 +4654,7 @@
         <v>43237</v>
       </c>
       <c r="B87" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C87" s="30"/>
       <c r="D87" s="46">
@@ -4536,7 +4665,7 @@
         <v>56604467</v>
       </c>
       <c r="F87" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
@@ -4551,7 +4680,7 @@
         <v>43237</v>
       </c>
       <c r="B88" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C88" s="30"/>
       <c r="D88" s="46">
@@ -4562,7 +4691,7 @@
         <v>56179467</v>
       </c>
       <c r="F88" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
@@ -4588,7 +4717,7 @@
         <v>55999467</v>
       </c>
       <c r="F89" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
@@ -4603,7 +4732,7 @@
         <v>43237</v>
       </c>
       <c r="B90" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C90" s="30"/>
       <c r="D90" s="46">
@@ -4614,7 +4743,7 @@
         <v>50735467</v>
       </c>
       <c r="F90" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G90" s="13"/>
       <c r="H90" s="13"/>
@@ -4629,7 +4758,7 @@
         <v>43237</v>
       </c>
       <c r="B91" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C91" s="30"/>
       <c r="D91" s="46">
@@ -4640,7 +4769,7 @@
         <v>47735467</v>
       </c>
       <c r="F91" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
@@ -4655,7 +4784,7 @@
         <v>43246</v>
       </c>
       <c r="B92" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C92" s="30"/>
       <c r="D92" s="46">
@@ -4666,7 +4795,7 @@
         <v>45685467</v>
       </c>
       <c r="F92" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
@@ -4681,7 +4810,7 @@
         <v>43243</v>
       </c>
       <c r="B93" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C93" s="30"/>
       <c r="D93" s="46">
@@ -4692,7 +4821,7 @@
         <v>44685467</v>
       </c>
       <c r="F93" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
@@ -4707,7 +4836,7 @@
         <v>43248</v>
       </c>
       <c r="B94" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C94" s="30"/>
       <c r="D94" s="46">
@@ -4719,7 +4848,7 @@
         <v>42325467</v>
       </c>
       <c r="F94" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G94" s="13"/>
       <c r="H94" s="13"/>
@@ -4734,7 +4863,7 @@
         <v>43248</v>
       </c>
       <c r="B95" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C95" s="30"/>
       <c r="D95" s="46">
@@ -4745,7 +4874,7 @@
         <v>42275467</v>
       </c>
       <c r="F95" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G95" s="13"/>
       <c r="H95" s="13"/>
@@ -4760,7 +4889,7 @@
         <v>43248</v>
       </c>
       <c r="B96" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C96" s="30"/>
       <c r="D96" s="46">
@@ -4771,7 +4900,7 @@
         <v>42255467</v>
       </c>
       <c r="F96" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G96" s="13"/>
       <c r="H96" s="13"/>
@@ -4786,7 +4915,7 @@
         <v>43248</v>
       </c>
       <c r="B97" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C97" s="30"/>
       <c r="D97" s="46">
@@ -4797,7 +4926,7 @@
         <v>42075467</v>
       </c>
       <c r="F97" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G97" s="13"/>
       <c r="H97" s="13"/>
@@ -4812,7 +4941,7 @@
         <v>43248</v>
       </c>
       <c r="B98" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="30"/>
       <c r="D98" s="46">
@@ -4823,7 +4952,7 @@
         <v>41875467</v>
       </c>
       <c r="F98" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G98" s="13"/>
       <c r="H98" s="13"/>
@@ -4838,7 +4967,7 @@
         <v>43253</v>
       </c>
       <c r="B99" s="45" t="s">
-        <v>101</v>
+        <v>504</v>
       </c>
       <c r="C99" s="30"/>
       <c r="D99" s="46">
@@ -4849,7 +4978,7 @@
         <v>41575467</v>
       </c>
       <c r="F99" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G99" s="13"/>
       <c r="H99" s="13"/>
@@ -4864,7 +4993,7 @@
         <v>43253</v>
       </c>
       <c r="B100" s="45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C100" s="30"/>
       <c r="D100" s="46">
@@ -4875,7 +5004,7 @@
         <v>40975467</v>
       </c>
       <c r="F100" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G100" s="13"/>
       <c r="H100" s="13"/>
@@ -4890,7 +5019,7 @@
         <v>43253</v>
       </c>
       <c r="B101" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101" s="30"/>
       <c r="D101" s="46">
@@ -4901,7 +5030,7 @@
         <v>40795467</v>
       </c>
       <c r="F101" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G101" s="13"/>
       <c r="H101" s="13"/>
@@ -4916,7 +5045,7 @@
         <v>43253</v>
       </c>
       <c r="B102" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C102" s="30"/>
       <c r="D102" s="46">
@@ -4927,7 +5056,7 @@
         <v>39795467</v>
       </c>
       <c r="F102" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G102" s="13"/>
       <c r="H102" s="13"/>
@@ -4942,7 +5071,7 @@
         <v>43253</v>
       </c>
       <c r="B103" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C103" s="30"/>
       <c r="D103" s="46">
@@ -4953,7 +5082,7 @@
         <v>36995467</v>
       </c>
       <c r="F103" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G103" s="13"/>
       <c r="H103" s="13"/>
@@ -4968,7 +5097,7 @@
         <v>43253</v>
       </c>
       <c r="B104" s="45" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C104" s="30"/>
       <c r="D104" s="46">
@@ -4979,7 +5108,7 @@
         <v>36315467</v>
       </c>
       <c r="F104" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G104" s="13"/>
       <c r="H104" s="13"/>
@@ -4994,7 +5123,7 @@
         <v>43253</v>
       </c>
       <c r="B105" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C105" s="30"/>
       <c r="D105" s="46">
@@ -5005,7 +5134,7 @@
         <v>35815467</v>
       </c>
       <c r="F105" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G105" s="13"/>
       <c r="H105" s="13"/>
@@ -5020,7 +5149,7 @@
         <v>43253</v>
       </c>
       <c r="B106" s="45" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C106" s="30"/>
       <c r="D106" s="46">
@@ -5031,7 +5160,7 @@
         <v>35065467</v>
       </c>
       <c r="F106" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G106" s="13"/>
       <c r="H106" s="13"/>
@@ -5046,7 +5175,7 @@
         <v>43253</v>
       </c>
       <c r="B107" s="45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C107" s="30"/>
       <c r="D107" s="46">
@@ -5057,7 +5186,7 @@
         <v>33665467</v>
       </c>
       <c r="F107" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G107" s="13"/>
       <c r="H107" s="13"/>
@@ -5072,7 +5201,7 @@
         <v>43253</v>
       </c>
       <c r="B108" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C108" s="30"/>
       <c r="D108" s="46">
@@ -5083,7 +5212,7 @@
         <v>33595467</v>
       </c>
       <c r="F108" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G108" s="13"/>
       <c r="H108" s="13"/>
@@ -5098,7 +5227,7 @@
         <v>43248</v>
       </c>
       <c r="B109" s="45" t="s">
-        <v>104</v>
+        <v>506</v>
       </c>
       <c r="C109" s="30"/>
       <c r="D109" s="46">
@@ -5109,7 +5238,7 @@
         <v>32795467</v>
       </c>
       <c r="F109" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G109" s="13"/>
       <c r="H109" s="13"/>
@@ -5124,7 +5253,7 @@
         <v>43248</v>
       </c>
       <c r="B110" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C110" s="30"/>
       <c r="D110" s="46">
@@ -5135,7 +5264,7 @@
         <v>32195467</v>
       </c>
       <c r="F110" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G110" s="13"/>
       <c r="H110" s="13"/>
@@ -5150,7 +5279,7 @@
         <v>43248</v>
       </c>
       <c r="B111" s="45" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C111" s="30"/>
       <c r="D111" s="46">
@@ -5161,7 +5290,7 @@
         <v>31095467</v>
       </c>
       <c r="F111" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G111" s="13"/>
       <c r="H111" s="13"/>
@@ -5175,8 +5304,8 @@
       <c r="A112" s="44">
         <v>43248</v>
       </c>
-      <c r="B112" s="45" t="s">
-        <v>109</v>
+      <c r="B112" s="102" t="s">
+        <v>105</v>
       </c>
       <c r="C112" s="30"/>
       <c r="D112" s="46">
@@ -5187,7 +5316,7 @@
         <v>30865467</v>
       </c>
       <c r="F112" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G112" s="13"/>
       <c r="H112" s="13"/>
@@ -5202,7 +5331,7 @@
         <v>43248</v>
       </c>
       <c r="B113" s="45" t="s">
-        <v>105</v>
+        <v>505</v>
       </c>
       <c r="C113" s="30"/>
       <c r="D113" s="46">
@@ -5213,7 +5342,7 @@
         <v>30665467</v>
       </c>
       <c r="F113" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G113" s="13"/>
       <c r="H113" s="13"/>
@@ -5228,7 +5357,7 @@
         <v>43248</v>
       </c>
       <c r="B114" s="45" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C114" s="30"/>
       <c r="D114" s="46">
@@ -5239,7 +5368,7 @@
         <v>29465467</v>
       </c>
       <c r="F114" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G114" s="13"/>
       <c r="H114" s="13"/>
@@ -5254,7 +5383,7 @@
         <v>43248</v>
       </c>
       <c r="B115" s="45" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C115" s="30"/>
       <c r="D115" s="46">
@@ -5265,7 +5394,7 @@
         <v>27465467</v>
       </c>
       <c r="F115" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G115" s="13"/>
       <c r="H115" s="13"/>
@@ -5280,7 +5409,7 @@
         <v>43259</v>
       </c>
       <c r="B116" s="45" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C116" s="30"/>
       <c r="D116" s="46">
@@ -5291,7 +5420,7 @@
         <v>26065467</v>
       </c>
       <c r="F116" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G116" s="13"/>
       <c r="H116" s="13"/>
@@ -5306,7 +5435,7 @@
         <v>43259</v>
       </c>
       <c r="B117" s="45" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C117" s="30"/>
       <c r="D117" s="46">
@@ -5317,7 +5446,7 @@
         <v>23065467</v>
       </c>
       <c r="F117" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G117" s="13"/>
       <c r="H117" s="13"/>
@@ -5332,7 +5461,7 @@
         <v>43260</v>
       </c>
       <c r="B118" s="45" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C118" s="30"/>
       <c r="D118" s="46">
@@ -5343,7 +5472,7 @@
         <v>21965467</v>
       </c>
       <c r="F118" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G118" s="13"/>
       <c r="H118" s="13"/>
@@ -5358,7 +5487,7 @@
         <v>43260</v>
       </c>
       <c r="B119" s="45" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C119" s="30"/>
       <c r="D119" s="46">
@@ -5369,7 +5498,7 @@
         <v>21265467</v>
       </c>
       <c r="F119" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G119" s="13"/>
       <c r="H119" s="13"/>
@@ -5384,7 +5513,7 @@
         <v>43260</v>
       </c>
       <c r="B120" s="45" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C120" s="30"/>
       <c r="D120" s="46">
@@ -5395,7 +5524,7 @@
         <v>20665467</v>
       </c>
       <c r="F120" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G120" s="13"/>
       <c r="H120" s="13"/>
@@ -5410,7 +5539,7 @@
         <v>43260</v>
       </c>
       <c r="B121" s="45" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C121" s="30"/>
       <c r="D121" s="46">
@@ -5421,7 +5550,7 @@
         <v>20265467</v>
       </c>
       <c r="F121" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G121" s="13"/>
       <c r="H121" s="13"/>
@@ -5436,7 +5565,7 @@
         <v>43260</v>
       </c>
       <c r="B122" s="45" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C122" s="30"/>
       <c r="D122" s="46">
@@ -5447,7 +5576,7 @@
         <v>19965467</v>
       </c>
       <c r="F122" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G122" s="13"/>
       <c r="H122" s="13"/>
@@ -5462,7 +5591,7 @@
         <v>43260</v>
       </c>
       <c r="B123" s="45" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C123" s="30"/>
       <c r="D123" s="46">
@@ -5473,7 +5602,7 @@
         <v>19765467</v>
       </c>
       <c r="F123" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G123" s="13"/>
       <c r="H123" s="13"/>
@@ -5487,8 +5616,8 @@
       <c r="A124" s="44">
         <v>43260</v>
       </c>
-      <c r="B124" s="45" t="s">
-        <v>115</v>
+      <c r="B124" s="102" t="s">
+        <v>111</v>
       </c>
       <c r="C124" s="30"/>
       <c r="D124" s="46">
@@ -5499,7 +5628,7 @@
         <v>18365467</v>
       </c>
       <c r="F124" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G124" s="13"/>
       <c r="H124" s="13"/>
@@ -5514,7 +5643,7 @@
         <v>43265</v>
       </c>
       <c r="B125" s="45" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C125" s="30"/>
       <c r="D125" s="46">
@@ -5525,7 +5654,7 @@
         <v>17365467</v>
       </c>
       <c r="F125" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G125" s="13"/>
       <c r="H125" s="13"/>
@@ -5540,7 +5669,7 @@
         <v>43265</v>
       </c>
       <c r="B126" s="45" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C126" s="30"/>
       <c r="D126" s="46">
@@ -5551,7 +5680,7 @@
         <v>17051467</v>
       </c>
       <c r="F126" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G126" s="13"/>
       <c r="H126" s="13"/>
@@ -5566,7 +5695,7 @@
         <v>43265</v>
       </c>
       <c r="B127" s="45" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C127" s="30"/>
       <c r="D127" s="46">
@@ -5578,7 +5707,7 @@
         <v>16585467</v>
       </c>
       <c r="F127" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G127" s="13"/>
       <c r="H127" s="13"/>
@@ -5593,7 +5722,7 @@
         <v>43265</v>
       </c>
       <c r="B128" s="45" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C128" s="30"/>
       <c r="D128" s="46">
@@ -5604,7 +5733,7 @@
         <v>15885467</v>
       </c>
       <c r="F128" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G128" s="13"/>
       <c r="H128" s="13"/>
@@ -5619,7 +5748,7 @@
         <v>43265</v>
       </c>
       <c r="B129" s="45" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C129" s="30"/>
       <c r="D129" s="46">
@@ -5630,7 +5759,7 @@
         <v>15685467</v>
       </c>
       <c r="F129" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G129" s="13"/>
       <c r="H129" s="13"/>
@@ -5645,7 +5774,7 @@
         <v>43267</v>
       </c>
       <c r="B130" s="45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C130" s="30"/>
       <c r="D130" s="46">
@@ -5656,7 +5785,7 @@
         <v>15670467</v>
       </c>
       <c r="F130" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G130" s="13"/>
       <c r="H130" s="13"/>
@@ -5671,7 +5800,7 @@
         <v>43267</v>
       </c>
       <c r="B131" s="45" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C131" s="30"/>
       <c r="D131" s="46">
@@ -5682,7 +5811,7 @@
         <v>15650467</v>
       </c>
       <c r="F131" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G131" s="13"/>
       <c r="H131" s="13"/>
@@ -5697,7 +5826,7 @@
         <v>43267</v>
       </c>
       <c r="B132" s="45" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C132" s="30"/>
       <c r="D132" s="46">
@@ -5708,7 +5837,7 @@
         <v>15250467</v>
       </c>
       <c r="F132" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G132" s="13"/>
       <c r="H132" s="13"/>
@@ -5723,7 +5852,7 @@
         <v>43267</v>
       </c>
       <c r="B133" s="45" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C133" s="30"/>
       <c r="D133" s="46">
@@ -5734,7 +5863,7 @@
         <v>14750467</v>
       </c>
       <c r="F133" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G133" s="13"/>
       <c r="H133" s="13"/>
@@ -5749,7 +5878,7 @@
         <v>43267</v>
       </c>
       <c r="B134" s="45" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C134" s="30"/>
       <c r="D134" s="46">
@@ -5760,7 +5889,7 @@
         <v>14720467</v>
       </c>
       <c r="F134" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G134" s="13"/>
       <c r="H134" s="13"/>
@@ -5775,7 +5904,7 @@
         <v>43267</v>
       </c>
       <c r="B135" s="45" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C135" s="30"/>
       <c r="D135" s="46">
@@ -5786,7 +5915,7 @@
         <v>14570467</v>
       </c>
       <c r="F135" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G135" s="13"/>
       <c r="H135" s="13"/>
@@ -5801,7 +5930,7 @@
         <v>43274</v>
       </c>
       <c r="B136" s="45" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C136" s="30"/>
       <c r="D136" s="46">
@@ -5812,7 +5941,7 @@
         <v>12770467</v>
       </c>
       <c r="F136" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G136" s="13"/>
       <c r="H136" s="13"/>
@@ -5827,7 +5956,7 @@
         <v>43275</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="33">
@@ -5838,7 +5967,7 @@
         <v>11470467</v>
       </c>
       <c r="F137" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -5846,7 +5975,7 @@
         <v>43276</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="33">
@@ -5857,7 +5986,7 @@
         <v>10970467</v>
       </c>
       <c r="F138" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -5865,7 +5994,7 @@
         <v>43276</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="33">
@@ -5876,7 +6005,7 @@
         <v>10470467</v>
       </c>
       <c r="F139" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -5884,7 +6013,7 @@
         <v>43276</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="33">
@@ -5895,7 +6024,7 @@
         <v>9770467</v>
       </c>
       <c r="F140" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -5903,7 +6032,7 @@
         <v>43281</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="33">
@@ -5914,7 +6043,7 @@
         <v>9154467</v>
       </c>
       <c r="F141" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -5922,7 +6051,7 @@
         <v>43281</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="33">
@@ -5933,15 +6062,15 @@
         <v>8724467</v>
       </c>
       <c r="F142" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="11">
         <v>43281</v>
       </c>
       <c r="B143" s="41" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="33">
@@ -5952,15 +6081,15 @@
         <v>8564467</v>
       </c>
       <c r="F143" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="11">
         <v>43281</v>
       </c>
-      <c r="B144" s="41" t="s">
-        <v>148</v>
+      <c r="B144" s="103" t="s">
+        <v>144</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="33">
@@ -5971,7 +6100,7 @@
         <v>8484467</v>
       </c>
       <c r="F144" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -5979,7 +6108,7 @@
         <v>43288</v>
       </c>
       <c r="B145" s="41" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="33">
@@ -5990,7 +6119,7 @@
         <v>8384467</v>
       </c>
       <c r="F145" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -5998,7 +6127,7 @@
         <v>43288</v>
       </c>
       <c r="B146" s="41" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="33">
@@ -6009,7 +6138,7 @@
         <v>5884467</v>
       </c>
       <c r="F146" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -6017,7 +6146,7 @@
         <v>43288</v>
       </c>
       <c r="B147" s="41" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="33">
@@ -6028,7 +6157,7 @@
         <v>5484467</v>
       </c>
       <c r="F147" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -6036,7 +6165,7 @@
         <v>43288</v>
       </c>
       <c r="B148" s="41" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="33">
@@ -6047,7 +6176,7 @@
         <v>5334467</v>
       </c>
       <c r="F148" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -6055,7 +6184,7 @@
         <v>43288</v>
       </c>
       <c r="B149" s="41" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="69">
@@ -6066,15 +6195,15 @@
         <v>5234467</v>
       </c>
       <c r="F149" s="32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="11">
         <v>43288</v>
       </c>
       <c r="B150" s="41" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="69">
@@ -6085,7 +6214,7 @@
         <v>5184467</v>
       </c>
       <c r="F150" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -6093,7 +6222,7 @@
         <v>43295</v>
       </c>
       <c r="B151" s="41" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="69">
@@ -6104,7 +6233,7 @@
         <v>4926467</v>
       </c>
       <c r="F151" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -6112,7 +6241,7 @@
         <v>43295</v>
       </c>
       <c r="B152" s="41" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="69">
@@ -6123,7 +6252,7 @@
         <v>4726467</v>
       </c>
       <c r="F152" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -6131,7 +6260,7 @@
         <v>43295</v>
       </c>
       <c r="B153" s="41" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="33">
@@ -6142,7 +6271,7 @@
         <v>4586467</v>
       </c>
       <c r="F153" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -6150,7 +6279,7 @@
         <v>43295</v>
       </c>
       <c r="B154" s="41" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="69">
@@ -6161,7 +6290,7 @@
         <v>4486467</v>
       </c>
       <c r="F154" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -6169,7 +6298,7 @@
         <v>43295</v>
       </c>
       <c r="B155" s="41" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="33">
@@ -6180,7 +6309,7 @@
         <v>4346467</v>
       </c>
       <c r="F155" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -6188,7 +6317,7 @@
         <v>43295</v>
       </c>
       <c r="B156" s="41" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="33">
@@ -6199,7 +6328,7 @@
         <v>4226467</v>
       </c>
       <c r="F156" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -6207,7 +6336,7 @@
         <v>43295</v>
       </c>
       <c r="B157" s="41" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="33">
@@ -6218,7 +6347,7 @@
         <v>4126467</v>
       </c>
       <c r="F157" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -6226,7 +6355,7 @@
         <v>43300</v>
       </c>
       <c r="B158" s="41" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="33">
@@ -6237,7 +6366,7 @@
         <v>4076467</v>
       </c>
       <c r="F158" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -6245,7 +6374,7 @@
         <v>43300</v>
       </c>
       <c r="B159" s="41" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="33">
@@ -6256,7 +6385,7 @@
         <v>4026467</v>
       </c>
       <c r="F159" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -6264,7 +6393,7 @@
         <v>43300</v>
       </c>
       <c r="B160" s="41" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="33">
@@ -6275,7 +6404,7 @@
         <v>3926467</v>
       </c>
       <c r="F160" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -6283,7 +6412,7 @@
         <v>43300</v>
       </c>
       <c r="B161" s="41" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="33">
@@ -6294,7 +6423,7 @@
         <v>3766467</v>
       </c>
       <c r="F161" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -6302,7 +6431,7 @@
         <v>43300</v>
       </c>
       <c r="B162" s="41" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="33">
@@ -6313,7 +6442,7 @@
         <v>3516467</v>
       </c>
       <c r="F162" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -6321,7 +6450,7 @@
         <v>43300</v>
       </c>
       <c r="B163" s="41" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="33">
@@ -6332,7 +6461,7 @@
         <v>3216467</v>
       </c>
       <c r="F163" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -6340,7 +6469,7 @@
         <v>43300</v>
       </c>
       <c r="B164" s="41" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="33">
@@ -6351,7 +6480,7 @@
         <v>3116467</v>
       </c>
       <c r="F164" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -6359,7 +6488,7 @@
         <v>43300</v>
       </c>
       <c r="B165" s="41" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="33">
@@ -6370,7 +6499,7 @@
         <v>2286467</v>
       </c>
       <c r="F165" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -6378,7 +6507,7 @@
         <v>43300</v>
       </c>
       <c r="B166" s="41" t="s">
-        <v>234</v>
+        <v>500</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="33">
@@ -6389,7 +6518,7 @@
         <v>2086467</v>
       </c>
       <c r="F166" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -6397,7 +6526,7 @@
         <v>43300</v>
       </c>
       <c r="B167" s="41" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="33">
@@ -6408,7 +6537,7 @@
         <v>1946467</v>
       </c>
       <c r="F167" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -6416,7 +6545,7 @@
         <v>43300</v>
       </c>
       <c r="B168" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="33">
@@ -6427,7 +6556,7 @@
         <v>1826467</v>
       </c>
       <c r="F168" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -6435,7 +6564,7 @@
         <v>43300</v>
       </c>
       <c r="B169" s="41" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="33">
@@ -6446,7 +6575,7 @@
         <v>1751467</v>
       </c>
       <c r="F169" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -6454,7 +6583,7 @@
         <v>43300</v>
       </c>
       <c r="B170" s="41" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="33">
@@ -6465,7 +6594,7 @@
         <v>1651467</v>
       </c>
       <c r="F170" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -6473,7 +6602,7 @@
         <v>43300</v>
       </c>
       <c r="B171" s="41" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="33">
@@ -6484,7 +6613,7 @@
         <v>1001467</v>
       </c>
       <c r="F171" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -6492,7 +6621,7 @@
         <v>43300</v>
       </c>
       <c r="B172" s="41" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="33">
@@ -6503,7 +6632,7 @@
         <v>941467</v>
       </c>
       <c r="F172" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -6511,7 +6640,7 @@
         <v>43300</v>
       </c>
       <c r="B173" s="41" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="33">
@@ -6522,7 +6651,7 @@
         <v>-58533</v>
       </c>
       <c r="F173" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -6530,7 +6659,7 @@
         <v>43333</v>
       </c>
       <c r="B174" s="41" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="33">
@@ -6541,7 +6670,7 @@
         <v>-658533</v>
       </c>
       <c r="F174" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -6549,7 +6678,7 @@
         <v>43333</v>
       </c>
       <c r="B175" s="41" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C175" s="5">
         <v>1300000</v>
@@ -6562,7 +6691,7 @@
         <v>641467</v>
       </c>
       <c r="F175" s="32" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -6570,7 +6699,7 @@
         <v>43333</v>
       </c>
       <c r="B176" s="41" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="33">
@@ -6581,7 +6710,7 @@
         <v>-358533</v>
       </c>
       <c r="F176" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6589,7 +6718,7 @@
         <v>43349</v>
       </c>
       <c r="B177" s="41" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="33">
@@ -6600,7 +6729,7 @@
         <v>-446521</v>
       </c>
       <c r="F177" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="178" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6608,7 +6737,7 @@
         <v>43349</v>
       </c>
       <c r="B178" s="41" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C178" s="5"/>
       <c r="D178" s="33">
@@ -6619,7 +6748,7 @@
         <v>-455996</v>
       </c>
       <c r="F178" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="179" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6627,7 +6756,7 @@
         <v>43349</v>
       </c>
       <c r="B179" s="41" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="33">
@@ -6638,7 +6767,7 @@
         <v>-479996</v>
       </c>
       <c r="F179" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6646,7 +6775,7 @@
         <v>43349</v>
       </c>
       <c r="B180" s="41" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="33">
@@ -6657,7 +6786,7 @@
         <v>-559996</v>
       </c>
       <c r="F180" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G180" s="84"/>
       <c r="I180" s="84"/>
@@ -6669,7 +6798,7 @@
         <v>43357</v>
       </c>
       <c r="B181" s="41" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C181" s="5"/>
       <c r="D181" s="33">
@@ -6680,7 +6809,7 @@
         <v>-689996</v>
       </c>
       <c r="F181" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G181" s="84"/>
       <c r="I181" s="84"/>
@@ -6692,7 +6821,7 @@
         <v>43357</v>
       </c>
       <c r="B182" s="87" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="33">
@@ -6703,7 +6832,7 @@
         <v>-1239996</v>
       </c>
       <c r="F182" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G182" s="84"/>
       <c r="I182" s="84"/>
@@ -6715,7 +6844,7 @@
         <v>43357</v>
       </c>
       <c r="B183" s="41" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C183" s="5"/>
       <c r="D183" s="33">
@@ -6726,7 +6855,7 @@
         <v>-1489996</v>
       </c>
       <c r="F183" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G183" s="85"/>
       <c r="I183" s="85"/>
@@ -6738,7 +6867,7 @@
         <v>43357</v>
       </c>
       <c r="B184" s="41" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C184" s="5"/>
       <c r="D184" s="33">
@@ -6749,7 +6878,7 @@
         <v>-1559996</v>
       </c>
       <c r="F184" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G184" s="85"/>
       <c r="I184" s="85"/>
@@ -6761,7 +6890,7 @@
         <v>43369</v>
       </c>
       <c r="B185" s="41" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C185" s="5"/>
       <c r="D185" s="33">
@@ -6772,7 +6901,7 @@
         <v>-1565496</v>
       </c>
       <c r="F185" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6780,7 +6909,7 @@
         <v>43373</v>
       </c>
       <c r="B186" s="41" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C186" s="5"/>
       <c r="D186" s="33">
@@ -6791,7 +6920,7 @@
         <v>-2565496</v>
       </c>
       <c r="F186" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G186" s="85"/>
       <c r="I186" s="85"/>
@@ -6803,7 +6932,7 @@
         <v>43373</v>
       </c>
       <c r="B187" s="41" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C187" s="5"/>
       <c r="D187" s="33">
@@ -6814,7 +6943,7 @@
         <v>-3015496</v>
       </c>
       <c r="F187" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G187" s="85"/>
       <c r="I187" s="85"/>
@@ -6826,7 +6955,7 @@
         <v>43373</v>
       </c>
       <c r="B188" s="41" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="33">
@@ -6837,7 +6966,7 @@
         <v>-3515496</v>
       </c>
       <c r="F188" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G188" s="85"/>
       <c r="I188" s="85"/>
@@ -6849,7 +6978,7 @@
         <v>43373</v>
       </c>
       <c r="B189" s="41" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C189" s="5"/>
       <c r="D189" s="33">
@@ -6860,7 +6989,7 @@
         <v>-3715496</v>
       </c>
       <c r="F189" s="32" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G189" s="85"/>
       <c r="I189" s="85"/>
@@ -6872,7 +7001,7 @@
         <v>43373</v>
       </c>
       <c r="B190" s="41" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="33">
@@ -6883,7 +7012,7 @@
         <v>-3815496</v>
       </c>
       <c r="F190" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G190" s="85"/>
       <c r="I190" s="85"/>
@@ -6895,7 +7024,7 @@
         <v>43373</v>
       </c>
       <c r="B191" s="41" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C191" s="5"/>
       <c r="D191" s="33">
@@ -6906,7 +7035,7 @@
         <v>-3931496</v>
       </c>
       <c r="F191" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G191" s="85"/>
       <c r="I191" s="85"/>
@@ -6918,7 +7047,7 @@
         <v>43373</v>
       </c>
       <c r="B192" s="41" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C192" s="5"/>
       <c r="D192" s="33">
@@ -6929,7 +7058,7 @@
         <v>-3951496</v>
       </c>
       <c r="F192" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G192" s="85"/>
       <c r="I192" s="85"/>
@@ -6941,7 +7070,7 @@
         <v>43373</v>
       </c>
       <c r="B193" s="41" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C193" s="5">
         <v>3000000</v>
@@ -6954,7 +7083,7 @@
         <v>-951496</v>
       </c>
       <c r="F193" s="32" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G193" s="85"/>
       <c r="I193" s="85"/>
@@ -6966,7 +7095,7 @@
         <v>43373</v>
       </c>
       <c r="B194" s="41" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C194" s="5">
         <v>1300000</v>
@@ -6979,7 +7108,7 @@
         <v>348504</v>
       </c>
       <c r="F194" s="32" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G194" s="85"/>
       <c r="I194" s="85"/>
@@ -6991,7 +7120,7 @@
         <v>43374</v>
       </c>
       <c r="B195" s="41" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C195" s="5">
         <v>9000000</v>
@@ -7004,7 +7133,7 @@
         <v>9348504</v>
       </c>
       <c r="F195" s="32" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G195" s="85"/>
       <c r="I195" s="85"/>
@@ -7016,7 +7145,7 @@
         <v>43374</v>
       </c>
       <c r="B196" s="41" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C196" s="5"/>
       <c r="D196" s="33">
@@ -7027,7 +7156,7 @@
         <v>9130504</v>
       </c>
       <c r="F196" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G196" s="85"/>
       <c r="K196" s="85"/>
@@ -7038,7 +7167,7 @@
         <v>43374</v>
       </c>
       <c r="B197" s="41" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C197" s="5"/>
       <c r="D197" s="33">
@@ -7049,7 +7178,7 @@
         <v>8528504</v>
       </c>
       <c r="F197" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G197" s="85"/>
       <c r="I197" s="85"/>
@@ -7061,7 +7190,7 @@
         <v>43374</v>
       </c>
       <c r="B198" s="41" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C198" s="5"/>
       <c r="D198" s="33">
@@ -7072,7 +7201,7 @@
         <v>8478504</v>
       </c>
       <c r="F198" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G198" s="85"/>
       <c r="I198" s="85"/>
@@ -7084,7 +7213,7 @@
         <v>43374</v>
       </c>
       <c r="B199" s="41" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C199" s="5"/>
       <c r="D199" s="33">
@@ -7095,7 +7224,7 @@
         <v>8206104</v>
       </c>
       <c r="F199" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G199" s="85"/>
       <c r="I199" s="85"/>
@@ -7107,7 +7236,7 @@
         <v>43374</v>
       </c>
       <c r="B200" s="41" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C200" s="5"/>
       <c r="D200" s="33">
@@ -7118,7 +7247,7 @@
         <v>7989104</v>
       </c>
       <c r="F200" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G200" s="85"/>
       <c r="I200" s="85"/>
@@ -7130,7 +7259,7 @@
         <v>43374</v>
       </c>
       <c r="B201" s="41" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C201" s="5"/>
       <c r="D201" s="33">
@@ -7141,7 +7270,7 @@
         <v>7978104</v>
       </c>
       <c r="F201" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G201" s="85"/>
       <c r="I201" s="85"/>
@@ -7153,7 +7282,7 @@
         <v>43375</v>
       </c>
       <c r="B202" s="41" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C202" s="5"/>
       <c r="D202" s="33">
@@ -7164,7 +7293,7 @@
         <v>7760104</v>
       </c>
       <c r="F202" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G202" s="85"/>
       <c r="I202" s="85"/>
@@ -7176,7 +7305,7 @@
         <v>43375</v>
       </c>
       <c r="B203" s="41" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="33">
@@ -7187,7 +7316,7 @@
         <v>7688104</v>
       </c>
       <c r="F203" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G203" s="85"/>
       <c r="I203" s="85"/>
@@ -7199,7 +7328,7 @@
         <v>43376</v>
       </c>
       <c r="B204" s="87" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C204" s="5"/>
       <c r="D204" s="33">
@@ -7210,7 +7339,7 @@
         <v>6265104</v>
       </c>
       <c r="F204" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G204" s="85"/>
       <c r="I204" s="85"/>
@@ -7222,7 +7351,7 @@
         <v>43376</v>
       </c>
       <c r="B205" s="87" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="33">
@@ -7233,7 +7362,7 @@
         <v>5688104</v>
       </c>
       <c r="F205" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G205" s="85"/>
       <c r="I205" s="85"/>
@@ -7245,7 +7374,7 @@
         <v>43376</v>
       </c>
       <c r="B206" s="87" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="33">
@@ -7256,7 +7385,7 @@
         <v>5653104</v>
       </c>
       <c r="F206" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G206" s="85"/>
       <c r="I206" s="85"/>
@@ -7268,7 +7397,7 @@
         <v>43376</v>
       </c>
       <c r="B207" s="87" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C207" s="5"/>
       <c r="D207" s="33">
@@ -7279,7 +7408,7 @@
         <v>5403104</v>
       </c>
       <c r="F207" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G207" s="85"/>
       <c r="I207" s="85"/>
@@ -7291,7 +7420,7 @@
         <v>43376</v>
       </c>
       <c r="B208" s="87" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C208" s="5"/>
       <c r="D208" s="33">
@@ -7302,7 +7431,7 @@
         <v>4903104</v>
       </c>
       <c r="F208" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G208" s="85"/>
       <c r="I208" s="85"/>
@@ -7314,7 +7443,7 @@
         <v>43376</v>
       </c>
       <c r="B209" s="87" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C209" s="5"/>
       <c r="D209" s="33">
@@ -7325,7 +7454,7 @@
         <v>4803104</v>
       </c>
       <c r="F209" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G209" s="85"/>
       <c r="I209" s="85"/>
@@ -7337,7 +7466,7 @@
         <v>43376</v>
       </c>
       <c r="B210" s="87" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C210" s="5"/>
       <c r="D210" s="33">
@@ -7348,7 +7477,7 @@
         <v>4663104</v>
       </c>
       <c r="F210" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G210" s="85"/>
       <c r="I210" s="85"/>
@@ -7360,7 +7489,7 @@
         <v>43376</v>
       </c>
       <c r="B211" s="87" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C211" s="5"/>
       <c r="D211" s="33">
@@ -7371,7 +7500,7 @@
         <v>4163104</v>
       </c>
       <c r="F211" s="32" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G211" s="85"/>
       <c r="I211" s="85"/>
@@ -7383,7 +7512,7 @@
         <v>43376</v>
       </c>
       <c r="B212" s="87" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C212" s="5"/>
       <c r="D212" s="33">
@@ -7394,7 +7523,7 @@
         <v>4103104</v>
       </c>
       <c r="F212" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G212" s="85"/>
       <c r="I212" s="85"/>
@@ -7406,7 +7535,7 @@
         <v>43376</v>
       </c>
       <c r="B213" s="87" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C213" s="5"/>
       <c r="D213" s="33">
@@ -7417,7 +7546,7 @@
         <v>4068104</v>
       </c>
       <c r="F213" s="32" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G213" s="85"/>
       <c r="I213" s="85"/>
@@ -7429,7 +7558,7 @@
         <v>43376</v>
       </c>
       <c r="B214" s="87" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="33">
@@ -7440,7 +7569,7 @@
         <v>4018104</v>
       </c>
       <c r="F214" s="32" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G214" s="85"/>
       <c r="I214" s="85"/>
@@ -7451,8 +7580,8 @@
       <c r="A215" s="11">
         <v>43379</v>
       </c>
-      <c r="B215" s="110" t="s">
-        <v>486</v>
+      <c r="B215" s="101" t="s">
+        <v>472</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="33">
@@ -7463,7 +7592,7 @@
         <v>3618104</v>
       </c>
       <c r="F215" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G215" s="85"/>
       <c r="I215" s="85"/>
@@ -7474,8 +7603,8 @@
       <c r="A216" s="11">
         <v>43379</v>
       </c>
-      <c r="B216" s="97" t="s">
-        <v>430</v>
+      <c r="B216" s="101" t="s">
+        <v>420</v>
       </c>
       <c r="C216" s="5"/>
       <c r="D216" s="33">
@@ -7486,7 +7615,7 @@
         <v>3418104</v>
       </c>
       <c r="F216" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G216" s="85"/>
       <c r="I216" s="85"/>
@@ -7498,7 +7627,7 @@
         <v>43379</v>
       </c>
       <c r="B217" s="87" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C217" s="5"/>
       <c r="D217" s="33">
@@ -7509,7 +7638,7 @@
         <v>2968104</v>
       </c>
       <c r="F217" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G217" s="85"/>
       <c r="I217" s="85"/>
@@ -7520,8 +7649,8 @@
       <c r="A218" s="11">
         <v>43379</v>
       </c>
-      <c r="B218" s="110" t="s">
-        <v>385</v>
+      <c r="B218" s="101" t="s">
+        <v>379</v>
       </c>
       <c r="C218" s="5"/>
       <c r="D218" s="33">
@@ -7532,7 +7661,7 @@
         <v>2868104</v>
       </c>
       <c r="F218" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G218" s="85"/>
       <c r="I218" s="85"/>
@@ -7544,7 +7673,7 @@
         <v>43379</v>
       </c>
       <c r="B219" s="87" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="33">
@@ -7555,7 +7684,7 @@
         <v>2748104</v>
       </c>
       <c r="F219" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G219" s="85"/>
       <c r="I219" s="85"/>
@@ -7567,7 +7696,7 @@
         <v>43379</v>
       </c>
       <c r="B220" s="87" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C220" s="5"/>
       <c r="D220" s="33">
@@ -7578,7 +7707,7 @@
         <v>2048104</v>
       </c>
       <c r="F220" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G220" s="85"/>
       <c r="I220" s="85"/>
@@ -7590,7 +7719,7 @@
         <v>43379</v>
       </c>
       <c r="B221" s="87" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="33">
@@ -7601,7 +7730,7 @@
         <v>1992104</v>
       </c>
       <c r="F221" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G221" s="85"/>
       <c r="I221" s="85"/>
@@ -7613,7 +7742,7 @@
         <v>43379</v>
       </c>
       <c r="B222" s="87" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="33">
@@ -7624,7 +7753,7 @@
         <v>1812104</v>
       </c>
       <c r="F222" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G222" s="85"/>
       <c r="I222" s="85"/>
@@ -7636,7 +7765,7 @@
         <v>43379</v>
       </c>
       <c r="B223" s="87" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="33">
@@ -7647,7 +7776,7 @@
         <v>1743554</v>
       </c>
       <c r="F223" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G223" s="85"/>
       <c r="I223" s="85"/>
@@ -7659,7 +7788,7 @@
         <v>43379</v>
       </c>
       <c r="B224" s="87" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C224" s="5"/>
       <c r="D224" s="33">
@@ -7670,7 +7799,7 @@
         <v>1406622</v>
       </c>
       <c r="F224" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G224" s="85"/>
       <c r="I224" s="85"/>
@@ -7682,7 +7811,7 @@
         <v>43379</v>
       </c>
       <c r="B225" s="87" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="33">
@@ -7693,7 +7822,7 @@
         <v>1102318</v>
       </c>
       <c r="F225" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G225" s="85"/>
       <c r="I225" s="85"/>
@@ -7705,7 +7834,7 @@
         <v>43379</v>
       </c>
       <c r="B226" s="87" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="33">
@@ -7716,7 +7845,7 @@
         <v>-380682</v>
       </c>
       <c r="F226" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G226" s="85"/>
       <c r="I226" s="85"/>
@@ -7728,7 +7857,7 @@
         <v>43386</v>
       </c>
       <c r="B227" s="87" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="33">
@@ -7739,7 +7868,7 @@
         <v>-780682</v>
       </c>
       <c r="F227" s="32" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G227" s="85"/>
       <c r="I227" s="85"/>
@@ -7751,7 +7880,7 @@
         <v>43386</v>
       </c>
       <c r="B228" s="87" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="33">
@@ -7762,7 +7891,7 @@
         <v>-1820682</v>
       </c>
       <c r="F228" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G228" s="85"/>
       <c r="I228" s="85"/>
@@ -7774,7 +7903,7 @@
         <v>43386</v>
       </c>
       <c r="B229" s="87" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C229" s="5">
         <v>20000000</v>
@@ -7787,7 +7916,7 @@
         <v>18179318</v>
       </c>
       <c r="F229" s="32" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G229" s="85"/>
       <c r="I229" s="85"/>
@@ -7799,7 +7928,7 @@
         <v>43386</v>
       </c>
       <c r="B230" s="87" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C230" s="5"/>
       <c r="D230" s="33">
@@ -7820,7 +7949,7 @@
         <v>43386</v>
       </c>
       <c r="B231" s="87" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="33">
@@ -7831,7 +7960,7 @@
         <v>14079318</v>
       </c>
       <c r="F231" s="32" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G231" s="85"/>
       <c r="I231" s="85"/>
@@ -7843,7 +7972,7 @@
         <v>43386</v>
       </c>
       <c r="B232" s="87" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="33">
@@ -7854,7 +7983,7 @@
         <v>13779318</v>
       </c>
       <c r="F232" s="32" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G232" s="85"/>
       <c r="I232" s="85"/>
@@ -7865,11 +7994,11 @@
       <c r="A233" s="11">
         <v>43393</v>
       </c>
-      <c r="B233" s="87" t="s">
-        <v>410</v>
-      </c>
-      <c r="C233" s="5"/>
-      <c r="D233" s="33">
+      <c r="B233" s="101" t="s">
+        <v>402</v>
+      </c>
+      <c r="C233" s="30"/>
+      <c r="D233" s="46">
         <v>100000</v>
       </c>
       <c r="E233" s="5">
@@ -7877,7 +8006,7 @@
         <v>13679318</v>
       </c>
       <c r="F233" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G233" s="85"/>
       <c r="I233" s="85"/>
@@ -7888,11 +8017,11 @@
       <c r="A234" s="11">
         <v>43393</v>
       </c>
-      <c r="B234" s="87" t="s">
-        <v>409</v>
-      </c>
-      <c r="C234" s="5"/>
-      <c r="D234" s="33">
+      <c r="B234" s="101" t="s">
+        <v>518</v>
+      </c>
+      <c r="C234" s="30"/>
+      <c r="D234" s="46">
         <v>2900000</v>
       </c>
       <c r="E234" s="5">
@@ -7900,7 +8029,7 @@
         <v>10779318</v>
       </c>
       <c r="F234" s="32" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="G234" s="85"/>
       <c r="I234" s="85"/>
@@ -7912,7 +8041,7 @@
         <v>43393</v>
       </c>
       <c r="B235" s="87" t="s">
-        <v>408</v>
+        <v>514</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="33">
@@ -7923,7 +8052,7 @@
         <v>10376318</v>
       </c>
       <c r="F235" s="32" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="G235" s="85"/>
       <c r="I235" s="85"/>
@@ -7935,7 +8064,7 @@
         <v>43393</v>
       </c>
       <c r="B236" s="87" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="C236" s="5"/>
       <c r="D236" s="33">
@@ -7946,7 +8075,7 @@
         <v>9676318</v>
       </c>
       <c r="F236" s="32" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G236" s="85"/>
       <c r="I236" s="85"/>
@@ -7958,7 +8087,7 @@
         <v>43393</v>
       </c>
       <c r="B237" s="87" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="33">
@@ -7969,7 +8098,7 @@
         <v>8476318</v>
       </c>
       <c r="F237" s="32" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G237" s="85"/>
       <c r="I237" s="85"/>
@@ -7981,7 +8110,7 @@
         <v>43393</v>
       </c>
       <c r="B238" s="87" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C238" s="5"/>
       <c r="D238" s="33">
@@ -7992,7 +8121,7 @@
         <v>6376318</v>
       </c>
       <c r="F238" s="32" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G238" s="85"/>
       <c r="I238" s="85"/>
@@ -8004,7 +8133,7 @@
         <v>43393</v>
       </c>
       <c r="B239" s="87" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C239" s="5"/>
       <c r="D239" s="33">
@@ -8015,7 +8144,7 @@
         <v>6276318</v>
       </c>
       <c r="F239" s="32" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G239" s="85"/>
       <c r="I239" s="85"/>
@@ -8027,7 +8156,7 @@
         <v>43393</v>
       </c>
       <c r="B240" s="87" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C240" s="5"/>
       <c r="D240" s="33">
@@ -8038,7 +8167,7 @@
         <v>5976318</v>
       </c>
       <c r="F240" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G240" s="85"/>
       <c r="I240" s="85"/>
@@ -8050,7 +8179,7 @@
         <v>43393</v>
       </c>
       <c r="B241" s="87" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C241" s="5"/>
       <c r="D241" s="33">
@@ -8061,7 +8190,7 @@
         <v>5576318</v>
       </c>
       <c r="F241" s="32" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G241" s="85"/>
       <c r="I241" s="85"/>
@@ -8073,7 +8202,7 @@
         <v>43393</v>
       </c>
       <c r="B242" s="87" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C242" s="5"/>
       <c r="D242" s="33">
@@ -8084,7 +8213,7 @@
         <v>5376318</v>
       </c>
       <c r="F242" s="32" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G242" s="85"/>
       <c r="I242" s="85"/>
@@ -8096,7 +8225,7 @@
         <v>43393</v>
       </c>
       <c r="B243" s="87" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C243" s="5"/>
       <c r="D243" s="33">
@@ -8107,7 +8236,7 @@
         <v>5371318</v>
       </c>
       <c r="F243" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G243" s="85"/>
       <c r="I243" s="85"/>
@@ -8119,7 +8248,7 @@
         <v>43393</v>
       </c>
       <c r="B244" s="87" t="s">
-        <v>415</v>
+        <v>495</v>
       </c>
       <c r="C244" s="5"/>
       <c r="D244" s="33">
@@ -8130,7 +8259,7 @@
         <v>4871318</v>
       </c>
       <c r="F244" s="32" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G244" s="85"/>
       <c r="I244" s="85"/>
@@ -8142,7 +8271,7 @@
         <v>43393</v>
       </c>
       <c r="B245" s="87" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="C245" s="5">
         <v>1500000</v>
@@ -8153,7 +8282,7 @@
         <v>6371318</v>
       </c>
       <c r="F245" s="32" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G245" s="85"/>
       <c r="I245" s="85"/>
@@ -8165,7 +8294,7 @@
         <v>43400</v>
       </c>
       <c r="B246" s="87" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C246" s="5"/>
       <c r="D246" s="33">
@@ -8176,7 +8305,7 @@
         <v>6321318</v>
       </c>
       <c r="F246" s="32" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G246" s="85"/>
       <c r="I246" s="85"/>
@@ -8188,7 +8317,7 @@
         <v>43400</v>
       </c>
       <c r="B247" s="87" t="s">
-        <v>417</v>
+        <v>513</v>
       </c>
       <c r="C247" s="5"/>
       <c r="D247" s="33">
@@ -8199,7 +8328,7 @@
         <v>4501318</v>
       </c>
       <c r="F247" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G247" s="85"/>
       <c r="I247" s="85"/>
@@ -8211,7 +8340,7 @@
         <v>43400</v>
       </c>
       <c r="B248" s="87" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C248" s="5"/>
       <c r="D248" s="33">
@@ -8222,7 +8351,7 @@
         <v>4371318</v>
       </c>
       <c r="F248" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G248" s="85"/>
       <c r="I248" s="85"/>
@@ -8234,7 +8363,7 @@
         <v>43400</v>
       </c>
       <c r="B249" s="87" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C249" s="5"/>
       <c r="D249" s="33">
@@ -8245,7 +8374,7 @@
         <v>3471318</v>
       </c>
       <c r="F249" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G249" s="85"/>
       <c r="I249" s="85"/>
@@ -8257,7 +8386,7 @@
         <v>43400</v>
       </c>
       <c r="B250" s="87" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C250" s="5"/>
       <c r="D250" s="33">
@@ -8268,7 +8397,7 @@
         <v>2772818</v>
       </c>
       <c r="F250" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G250" s="85"/>
       <c r="I250" s="85"/>
@@ -8280,7 +8409,7 @@
         <v>43400</v>
       </c>
       <c r="B251" s="87" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C251" s="5"/>
       <c r="D251" s="33">
@@ -8291,7 +8420,7 @@
         <v>2702818</v>
       </c>
       <c r="F251" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G251" s="85"/>
       <c r="I251" s="85"/>
@@ -8303,7 +8432,7 @@
         <v>43400</v>
       </c>
       <c r="B252" s="87" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="C252" s="5"/>
       <c r="D252" s="33">
@@ -8314,7 +8443,7 @@
         <v>2614778</v>
       </c>
       <c r="F252" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G252" s="85"/>
       <c r="I252" s="85"/>
@@ -8326,7 +8455,7 @@
         <v>43400</v>
       </c>
       <c r="B253" s="87" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C253" s="5"/>
       <c r="D253" s="33">
@@ -8337,7 +8466,7 @@
         <v>2117778</v>
       </c>
       <c r="F253" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G253" s="85"/>
       <c r="I253" s="85"/>
@@ -8349,7 +8478,7 @@
         <v>43400</v>
       </c>
       <c r="B254" s="87" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C254" s="5"/>
       <c r="D254" s="33">
@@ -8361,7 +8490,7 @@
         <v>245778</v>
       </c>
       <c r="F254" s="32" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G254" s="85"/>
       <c r="I254" s="85"/>
@@ -8373,7 +8502,7 @@
         <v>43400</v>
       </c>
       <c r="B255" s="87" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C255" s="5"/>
       <c r="D255" s="33">
@@ -8385,7 +8514,7 @@
         <v>117778</v>
       </c>
       <c r="F255" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G255" s="85"/>
       <c r="I255" s="85"/>
@@ -8397,7 +8526,7 @@
         <v>43400</v>
       </c>
       <c r="B256" s="87" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C256" s="5"/>
       <c r="D256" s="33">
@@ -8408,7 +8537,7 @@
         <v>-162222</v>
       </c>
       <c r="F256" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G256" s="85"/>
       <c r="I256" s="85"/>
@@ -8420,7 +8549,7 @@
         <v>43400</v>
       </c>
       <c r="B257" s="87" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="C257" s="5"/>
       <c r="D257" s="33">
@@ -8431,7 +8560,7 @@
         <v>-362222</v>
       </c>
       <c r="F257" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G257" s="85"/>
       <c r="I257" s="85"/>
@@ -8443,7 +8572,7 @@
         <v>43400</v>
       </c>
       <c r="B258" s="87" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C258" s="5"/>
       <c r="D258" s="33">
@@ -8454,7 +8583,7 @@
         <v>-562222</v>
       </c>
       <c r="F258" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G258" s="85"/>
       <c r="I258" s="85"/>
@@ -8466,7 +8595,7 @@
         <v>43400</v>
       </c>
       <c r="B259" s="87" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C259" s="5"/>
       <c r="D259" s="33">
@@ -8477,7 +8606,7 @@
         <v>-1012222</v>
       </c>
       <c r="F259" s="32" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G259" s="85"/>
       <c r="I259" s="85"/>
@@ -8489,7 +8618,7 @@
         <v>43400</v>
       </c>
       <c r="B260" s="87" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="C260" s="5"/>
       <c r="D260" s="33">
@@ -8500,7 +8629,7 @@
         <v>-1112222</v>
       </c>
       <c r="F260" s="32" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G260" s="85"/>
       <c r="I260" s="85"/>
@@ -8512,18 +8641,18 @@
         <v>43400</v>
       </c>
       <c r="B261" s="87" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C261" s="5"/>
       <c r="D261" s="33">
         <v>220000</v>
       </c>
       <c r="E261" s="5">
-        <f t="shared" ref="E261:E299" si="4">+E260+C261-D261</f>
+        <f t="shared" ref="E261:E324" si="4">+E260+C261-D261</f>
         <v>-1332222</v>
       </c>
       <c r="F261" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G261" s="85"/>
       <c r="I261" s="85"/>
@@ -8535,7 +8664,7 @@
         <v>43403</v>
       </c>
       <c r="B262" s="41" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C262" s="5">
         <v>1300000</v>
@@ -8548,7 +8677,7 @@
         <v>-32222</v>
       </c>
       <c r="F262" s="32" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G262" s="85"/>
       <c r="I262" s="85"/>
@@ -8560,7 +8689,7 @@
         <v>43403</v>
       </c>
       <c r="B263" s="41" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C263" s="5">
         <v>8000000</v>
@@ -8573,7 +8702,7 @@
         <v>7967778</v>
       </c>
       <c r="F263" s="32" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="G263" s="85"/>
       <c r="I263" s="85"/>
@@ -8585,7 +8714,7 @@
         <v>43420</v>
       </c>
       <c r="B264" s="87" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="C264" s="5">
         <v>0</v>
@@ -8598,7 +8727,7 @@
         <v>7367778</v>
       </c>
       <c r="F264" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G264" s="85"/>
       <c r="I264" s="85"/>
@@ -8610,7 +8739,7 @@
         <v>43420</v>
       </c>
       <c r="B265" s="87" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C265" s="5">
         <v>0</v>
@@ -8623,7 +8752,7 @@
         <v>7117778</v>
       </c>
       <c r="F265" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G265" s="85"/>
       <c r="I265" s="85"/>
@@ -8635,7 +8764,7 @@
         <v>43420</v>
       </c>
       <c r="B266" s="87" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="C266" s="5">
         <v>0</v>
@@ -8648,7 +8777,7 @@
         <v>6117778</v>
       </c>
       <c r="F266" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G266" s="85"/>
       <c r="I266" s="85"/>
@@ -8660,7 +8789,7 @@
         <v>43420</v>
       </c>
       <c r="B267" s="87" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="C267" s="5">
         <v>0</v>
@@ -8673,7 +8802,7 @@
         <v>6097778</v>
       </c>
       <c r="F267" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G267" s="85"/>
       <c r="I267" s="85"/>
@@ -8685,7 +8814,7 @@
         <v>43420</v>
       </c>
       <c r="B268" s="87" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C268" s="5">
         <v>0</v>
@@ -8698,7 +8827,7 @@
         <v>6085778</v>
       </c>
       <c r="F268" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G268" s="85"/>
       <c r="I268" s="85"/>
@@ -8710,7 +8839,7 @@
         <v>43420</v>
       </c>
       <c r="B269" s="87" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C269" s="5">
         <v>0</v>
@@ -8723,7 +8852,7 @@
         <v>4885778</v>
       </c>
       <c r="F269" s="32" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G269" s="85"/>
       <c r="I269" s="85"/>
@@ -8735,7 +8864,7 @@
         <v>43420</v>
       </c>
       <c r="B270" s="87" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="C270" s="5">
         <v>0</v>
@@ -8748,7 +8877,7 @@
         <v>3385778</v>
       </c>
       <c r="F270" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G270" s="85"/>
       <c r="I270" s="85"/>
@@ -8760,7 +8889,7 @@
         <v>43420</v>
       </c>
       <c r="B271" s="87" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C271" s="5">
         <v>0</v>
@@ -8773,7 +8902,7 @@
         <v>-6614222</v>
       </c>
       <c r="F271" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G271" s="85"/>
       <c r="I271" s="85"/>
@@ -8785,7 +8914,7 @@
         <v>43420</v>
       </c>
       <c r="B272" s="87" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C272" s="5">
         <v>0</v>
@@ -8798,7 +8927,7 @@
         <v>-7066222</v>
       </c>
       <c r="F272" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G272" s="85"/>
       <c r="I272" s="85"/>
@@ -8810,20 +8939,20 @@
         <v>43420</v>
       </c>
       <c r="B273" s="87" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C273" s="5">
         <v>0</v>
       </c>
       <c r="D273" s="33">
-        <v>1006740</v>
+        <v>300000</v>
       </c>
       <c r="E273" s="5">
         <f t="shared" si="4"/>
-        <v>-8072962</v>
+        <v>-7366222</v>
       </c>
       <c r="F273" s="32" t="s">
-        <v>357</v>
+        <v>62</v>
       </c>
       <c r="G273" s="85"/>
       <c r="I273" s="85"/>
@@ -8835,20 +8964,20 @@
         <v>43420</v>
       </c>
       <c r="B274" s="87" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C274" s="5">
         <v>0</v>
       </c>
       <c r="D274" s="33">
-        <v>300000</v>
+        <v>20000</v>
       </c>
       <c r="E274" s="5">
         <f t="shared" si="4"/>
-        <v>-8372962</v>
+        <v>-7386222</v>
       </c>
       <c r="F274" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G274" s="85"/>
       <c r="I274" s="85"/>
@@ -8860,20 +8989,20 @@
         <v>43420</v>
       </c>
       <c r="B275" s="87" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C275" s="5">
         <v>0</v>
       </c>
       <c r="D275" s="33">
-        <v>20000</v>
+        <v>500000</v>
       </c>
       <c r="E275" s="5">
         <f t="shared" si="4"/>
-        <v>-8392962</v>
+        <v>-7886222</v>
       </c>
       <c r="F275" s="32" t="s">
-        <v>63</v>
+        <v>351</v>
       </c>
       <c r="G275" s="85"/>
       <c r="I275" s="85"/>
@@ -8885,70 +9014,70 @@
         <v>43420</v>
       </c>
       <c r="B276" s="87" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C276" s="5">
         <v>0</v>
       </c>
       <c r="D276" s="33">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="E276" s="5">
         <f t="shared" si="4"/>
-        <v>-8892962</v>
-      </c>
-      <c r="F276" s="32" t="s">
-        <v>357</v>
+        <v>-8286222</v>
+      </c>
+      <c r="F276" t="s">
+        <v>63</v>
       </c>
       <c r="G276" s="85"/>
       <c r="I276" s="85"/>
       <c r="K276" s="85"/>
       <c r="M276" s="85"/>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="11">
         <v>43420</v>
       </c>
-      <c r="B277" s="87" t="s">
-        <v>466</v>
+      <c r="B277" s="41" t="s">
+        <v>432</v>
       </c>
       <c r="C277" s="5">
+        <v>40000000</v>
+      </c>
+      <c r="D277" s="33">
         <v>0</v>
-      </c>
-      <c r="D277" s="33">
-        <v>400000</v>
       </c>
       <c r="E277" s="5">
         <f t="shared" si="4"/>
-        <v>-9292962</v>
-      </c>
-      <c r="F277" t="s">
-        <v>64</v>
+        <v>31713778</v>
+      </c>
+      <c r="F277" s="32" t="s">
+        <v>431</v>
       </c>
       <c r="G277" s="85"/>
       <c r="I277" s="85"/>
       <c r="K277" s="85"/>
       <c r="M277" s="85"/>
     </row>
-    <row r="278" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="11">
         <v>43420</v>
       </c>
-      <c r="B278" s="41" t="s">
-        <v>442</v>
+      <c r="B278" s="87" t="s">
+        <v>462</v>
       </c>
       <c r="C278" s="5">
-        <v>40000000</v>
+        <v>0</v>
       </c>
       <c r="D278" s="33">
-        <v>0</v>
+        <v>904400</v>
       </c>
       <c r="E278" s="5">
         <f t="shared" si="4"/>
-        <v>30707038</v>
+        <v>30809378</v>
       </c>
       <c r="F278" s="32" t="s">
-        <v>441</v>
+        <v>351</v>
       </c>
       <c r="G278" s="85"/>
       <c r="I278" s="85"/>
@@ -8957,98 +9086,98 @@
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" s="11">
-        <v>43428</v>
+        <v>43420</v>
       </c>
       <c r="B279" s="87" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C279" s="5">
         <v>0</v>
       </c>
       <c r="D279" s="33">
-        <v>283570</v>
+        <v>295000</v>
       </c>
       <c r="E279" s="5">
         <f t="shared" si="4"/>
-        <v>30423468</v>
-      </c>
-      <c r="F279" s="32" t="s">
-        <v>357</v>
+        <v>30514378</v>
+      </c>
+      <c r="F279" t="s">
+        <v>63</v>
       </c>
       <c r="G279" s="85"/>
       <c r="I279" s="85"/>
       <c r="K279" s="85"/>
       <c r="M279" s="85"/>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="11">
-        <v>43428</v>
-      </c>
-      <c r="B280" s="87" t="s">
-        <v>470</v>
+        <v>43420</v>
+      </c>
+      <c r="B280" s="41" t="s">
+        <v>355</v>
       </c>
       <c r="C280" s="5">
+        <v>1300000</v>
+      </c>
+      <c r="D280" s="33">
         <v>0</v>
-      </c>
-      <c r="D280" s="33">
-        <v>85900</v>
       </c>
       <c r="E280" s="5">
         <f t="shared" si="4"/>
-        <v>30337568</v>
+        <v>31814378</v>
       </c>
       <c r="F280" s="32" t="s">
-        <v>357</v>
+        <v>294</v>
       </c>
       <c r="G280" s="85"/>
       <c r="I280" s="85"/>
       <c r="K280" s="85"/>
       <c r="M280" s="85"/>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="11">
-        <v>43428</v>
-      </c>
-      <c r="B281" s="87" t="s">
-        <v>470</v>
+        <v>43420</v>
+      </c>
+      <c r="B281" s="41" t="s">
+        <v>370</v>
       </c>
       <c r="C281" s="5">
+        <v>400000</v>
+      </c>
+      <c r="D281" s="33">
         <v>0</v>
-      </c>
-      <c r="D281" s="33">
-        <v>516318</v>
       </c>
       <c r="E281" s="5">
         <f t="shared" si="4"/>
-        <v>29821250</v>
+        <v>32214378</v>
       </c>
       <c r="F281" s="32" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="G281" s="85"/>
       <c r="I281" s="85"/>
       <c r="K281" s="85"/>
       <c r="M281" s="85"/>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="11">
-        <v>43428</v>
-      </c>
-      <c r="B282" s="87" t="s">
-        <v>463</v>
+        <v>43420</v>
+      </c>
+      <c r="B282" s="41" t="s">
+        <v>370</v>
       </c>
       <c r="C282" s="5">
+        <v>400000</v>
+      </c>
+      <c r="D282" s="33">
         <v>0</v>
-      </c>
-      <c r="D282" s="33">
-        <v>1006740</v>
       </c>
       <c r="E282" s="5">
         <f t="shared" si="4"/>
-        <v>28814510</v>
+        <v>32614378</v>
       </c>
       <c r="F282" s="32" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="G282" s="85"/>
       <c r="I282" s="85"/>
@@ -9057,23 +9186,23 @@
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" s="11">
-        <v>43428</v>
+        <v>43423</v>
       </c>
       <c r="B283" s="87" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="C283" s="5">
         <v>0</v>
       </c>
       <c r="D283" s="33">
-        <v>1330000</v>
+        <v>1006740</v>
       </c>
       <c r="E283" s="5">
         <f t="shared" si="4"/>
-        <v>27484510</v>
+        <v>31607638</v>
       </c>
       <c r="F283" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G283" s="85"/>
       <c r="I283" s="85"/>
@@ -9085,20 +9214,20 @@
         <v>43428</v>
       </c>
       <c r="B284" s="87" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C284" s="5">
         <v>0</v>
       </c>
       <c r="D284" s="33">
-        <v>1327941</v>
+        <v>423000</v>
       </c>
       <c r="E284" s="5">
         <f t="shared" si="4"/>
-        <v>26156569</v>
+        <v>31184638</v>
       </c>
       <c r="F284" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G284" s="85"/>
       <c r="I284" s="85"/>
@@ -9110,20 +9239,20 @@
         <v>43428</v>
       </c>
       <c r="B285" s="87" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="C285" s="5">
         <v>0</v>
       </c>
       <c r="D285" s="33">
-        <v>1000000</v>
+        <v>85900</v>
       </c>
       <c r="E285" s="5">
         <f t="shared" si="4"/>
-        <v>25156569</v>
+        <v>31098738</v>
       </c>
       <c r="F285" s="32" t="s">
-        <v>65</v>
+        <v>351</v>
       </c>
       <c r="G285" s="85"/>
       <c r="I285" s="85"/>
@@ -9135,20 +9264,20 @@
         <v>43428</v>
       </c>
       <c r="B286" s="87" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="C286" s="5">
         <v>0</v>
       </c>
       <c r="D286" s="33">
-        <v>350000</v>
+        <v>283570</v>
       </c>
       <c r="E286" s="5">
         <f t="shared" si="4"/>
-        <v>24806569</v>
+        <v>30815168</v>
       </c>
       <c r="F286" s="32" t="s">
-        <v>65</v>
+        <v>351</v>
       </c>
       <c r="G286" s="85"/>
       <c r="I286" s="85"/>
@@ -9157,23 +9286,23 @@
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="11">
-        <v>43420</v>
+        <v>43428</v>
       </c>
       <c r="B287" s="87" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="C287" s="5">
         <v>0</v>
       </c>
       <c r="D287" s="33">
-        <v>880000</v>
+        <v>1330000</v>
       </c>
       <c r="E287" s="5">
         <f t="shared" si="4"/>
-        <v>23926569</v>
+        <v>29485168</v>
       </c>
       <c r="F287" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G287" s="85"/>
       <c r="I287" s="85"/>
@@ -9182,23 +9311,23 @@
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="11">
-        <v>43420</v>
+        <v>43428</v>
       </c>
       <c r="B288" s="87" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="C288" s="5">
         <v>0</v>
       </c>
       <c r="D288" s="33">
-        <v>1916806</v>
+        <v>1000000</v>
       </c>
       <c r="E288" s="5">
         <f t="shared" si="4"/>
-        <v>22009763</v>
+        <v>28485168</v>
       </c>
       <c r="F288" s="32" t="s">
-        <v>357</v>
+        <v>64</v>
       </c>
       <c r="G288" s="85"/>
       <c r="I288" s="85"/>
@@ -9207,23 +9336,23 @@
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="11">
-        <v>43420</v>
+        <v>43430</v>
       </c>
       <c r="B289" s="87" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C289" s="5">
         <v>0</v>
       </c>
       <c r="D289" s="33">
-        <v>48000</v>
+        <v>1916806</v>
       </c>
       <c r="E289" s="5">
         <f t="shared" si="4"/>
-        <v>21961763</v>
+        <v>26568362</v>
       </c>
       <c r="F289" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G289" s="85"/>
       <c r="I289" s="85"/>
@@ -9232,23 +9361,23 @@
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="11">
-        <v>43420</v>
+        <v>43430</v>
       </c>
       <c r="B290" s="87" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="C290" s="5">
         <v>0</v>
       </c>
       <c r="D290" s="33">
-        <v>904400</v>
+        <v>289000</v>
       </c>
       <c r="E290" s="5">
         <f t="shared" si="4"/>
-        <v>21057363</v>
-      </c>
-      <c r="F290" s="32" t="s">
-        <v>357</v>
+        <v>26279362</v>
+      </c>
+      <c r="F290" t="s">
+        <v>63</v>
       </c>
       <c r="G290" s="85"/>
       <c r="I290" s="85"/>
@@ -9257,23 +9386,23 @@
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" s="11">
-        <v>43420</v>
+        <v>43430</v>
       </c>
       <c r="B291" s="87" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="C291" s="5">
         <v>0</v>
       </c>
       <c r="D291" s="33">
-        <v>295000</v>
+        <v>1327941</v>
       </c>
       <c r="E291" s="5">
         <f t="shared" si="4"/>
-        <v>20762363</v>
-      </c>
-      <c r="F291" t="s">
-        <v>64</v>
+        <v>24951421</v>
+      </c>
+      <c r="F291" s="32" t="s">
+        <v>351</v>
       </c>
       <c r="G291" s="85"/>
       <c r="I291" s="85"/>
@@ -9282,23 +9411,23 @@
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="11">
-        <v>43420</v>
+        <v>43432</v>
       </c>
       <c r="B292" s="87" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="C292" s="5">
         <v>0</v>
       </c>
       <c r="D292" s="33">
-        <v>289000</v>
+        <v>48000</v>
       </c>
       <c r="E292" s="5">
         <f t="shared" si="4"/>
-        <v>20473363</v>
-      </c>
-      <c r="F292" t="s">
-        <v>64</v>
+        <v>24903421</v>
+      </c>
+      <c r="F292" s="32" t="s">
+        <v>351</v>
       </c>
       <c r="G292" s="85"/>
       <c r="I292" s="85"/>
@@ -9307,24 +9436,23 @@
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" s="11">
-        <v>43420</v>
+        <v>43432</v>
       </c>
       <c r="B293" s="87" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="C293" s="5">
         <v>0</v>
       </c>
       <c r="D293" s="33">
-        <f>1668000-300000</f>
-        <v>1368000</v>
+        <v>880000</v>
       </c>
       <c r="E293" s="5">
         <f t="shared" si="4"/>
-        <v>19105363</v>
+        <v>24023421</v>
       </c>
       <c r="F293" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G293" s="85"/>
       <c r="I293" s="85"/>
@@ -9333,23 +9461,23 @@
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="11">
-        <v>43428</v>
+        <v>43433</v>
       </c>
       <c r="B294" s="87" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="C294" s="5">
         <v>0</v>
       </c>
       <c r="D294" s="33">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="E294" s="5">
         <f t="shared" si="4"/>
-        <v>18805363</v>
+        <v>23673421</v>
       </c>
       <c r="F294" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G294" s="85"/>
       <c r="I294" s="85"/>
@@ -9358,23 +9486,23 @@
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" s="11">
-        <v>43420</v>
+        <v>43434</v>
       </c>
       <c r="B295" s="87" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="C295" s="5">
         <v>0</v>
       </c>
       <c r="D295" s="33">
-        <v>423000</v>
+        <v>500000</v>
       </c>
       <c r="E295" s="5">
         <f t="shared" si="4"/>
-        <v>18382363</v>
+        <v>23173421</v>
       </c>
       <c r="F295" s="32" t="s">
-        <v>357</v>
+        <v>63</v>
       </c>
       <c r="G295" s="85"/>
       <c r="I295" s="85"/>
@@ -9383,73 +9511,73 @@
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="11">
-        <v>43420</v>
+        <v>43434</v>
       </c>
       <c r="B296" s="87" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="C296" s="5">
         <v>0</v>
       </c>
       <c r="D296" s="33">
-        <v>2500000</v>
+        <v>516318</v>
       </c>
       <c r="E296" s="5">
         <f t="shared" si="4"/>
-        <v>15882363</v>
+        <v>22657103</v>
       </c>
       <c r="F296" s="32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G296" s="85"/>
       <c r="I296" s="85"/>
       <c r="K296" s="85"/>
       <c r="M296" s="85"/>
     </row>
-    <row r="297" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="11">
-        <v>43420</v>
-      </c>
-      <c r="B297" s="41" t="s">
-        <v>361</v>
+        <v>43435</v>
+      </c>
+      <c r="B297" s="87" t="s">
+        <v>479</v>
       </c>
       <c r="C297" s="5">
-        <v>1300000</v>
+        <v>0</v>
       </c>
       <c r="D297" s="33">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="E297" s="5">
         <f t="shared" si="4"/>
-        <v>17182363</v>
+        <v>22357103</v>
       </c>
       <c r="F297" s="32" t="s">
-        <v>300</v>
+        <v>64</v>
       </c>
       <c r="G297" s="85"/>
       <c r="I297" s="85"/>
       <c r="K297" s="85"/>
       <c r="M297" s="85"/>
     </row>
-    <row r="298" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" s="11">
-        <v>43420</v>
-      </c>
-      <c r="B298" s="41" t="s">
-        <v>376</v>
+        <v>43435</v>
+      </c>
+      <c r="B298" s="87" t="s">
+        <v>481</v>
       </c>
       <c r="C298" s="5">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="D298" s="33">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="E298" s="5">
         <f t="shared" si="4"/>
-        <v>17582363</v>
+        <v>22057103</v>
       </c>
       <c r="F298" s="32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G298" s="85"/>
       <c r="I298" s="85"/>
@@ -9458,7 +9586,7 @@
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" s="11">
-        <v>43436</v>
+        <v>43435</v>
       </c>
       <c r="B299" s="87" t="s">
         <v>480</v>
@@ -9467,55 +9595,955 @@
         <v>0</v>
       </c>
       <c r="D299" s="33">
-        <v>113840</v>
+        <v>1068000</v>
       </c>
       <c r="E299" s="5">
         <f t="shared" si="4"/>
-        <v>17468523</v>
+        <v>20989103</v>
       </c>
       <c r="F299" s="32" t="s">
-        <v>63</v>
+        <v>373</v>
       </c>
       <c r="G299" s="85"/>
       <c r="I299" s="85"/>
       <c r="K299" s="85"/>
       <c r="M299" s="85"/>
     </row>
-    <row r="300" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B300" s="98"/>
-      <c r="C300" s="99"/>
-      <c r="D300" s="99"/>
-      <c r="E300" s="99"/>
-      <c r="G300" s="100"/>
-      <c r="H300" s="100"/>
-      <c r="I300" s="100"/>
-      <c r="J300" s="100"/>
-      <c r="K300" s="100"/>
-      <c r="L300" s="100"/>
-      <c r="M300" s="100"/>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A300" s="11">
+        <v>43436</v>
+      </c>
+      <c r="B300" s="87" t="s">
+        <v>466</v>
+      </c>
+      <c r="C300" s="5">
+        <v>0</v>
+      </c>
+      <c r="D300" s="33">
+        <v>113840</v>
+      </c>
+      <c r="E300" s="5">
+        <f t="shared" si="4"/>
+        <v>20875263</v>
+      </c>
+      <c r="F300" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G300" s="85"/>
+      <c r="I300" s="85"/>
+      <c r="K300" s="85"/>
+      <c r="M300" s="85"/>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B301" s="8"/>
-      <c r="C301" s="5"/>
-      <c r="D301" s="5"/>
-      <c r="E301" s="5"/>
+      <c r="A301" s="11">
+        <v>43437</v>
+      </c>
+      <c r="B301" s="97" t="s">
+        <v>478</v>
+      </c>
+      <c r="C301" s="5">
+        <v>0</v>
+      </c>
+      <c r="D301" s="33">
+        <v>155600</v>
+      </c>
+      <c r="E301" s="5">
+        <f t="shared" si="4"/>
+        <v>20719663</v>
+      </c>
+      <c r="F301" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G301" s="85"/>
+      <c r="I301" s="85"/>
+      <c r="K301" s="85"/>
+      <c r="M301" s="85"/>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B302" s="9" t="s">
+      <c r="A302" s="11">
+        <v>43437</v>
+      </c>
+      <c r="B302" s="97" t="s">
+        <v>478</v>
+      </c>
+      <c r="C302" s="5">
+        <v>0</v>
+      </c>
+      <c r="D302" s="33">
+        <v>180000</v>
+      </c>
+      <c r="E302" s="5">
+        <f t="shared" si="4"/>
+        <v>20539663</v>
+      </c>
+      <c r="F302" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G302" s="85"/>
+      <c r="I302" s="85"/>
+      <c r="K302" s="85"/>
+      <c r="M302" s="85"/>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A303" s="11">
+        <v>43438</v>
+      </c>
+      <c r="B303" s="101" t="s">
+        <v>487</v>
+      </c>
+      <c r="C303" s="5">
+        <v>0</v>
+      </c>
+      <c r="D303" s="33">
+        <v>181780</v>
+      </c>
+      <c r="E303" s="5">
+        <f t="shared" si="4"/>
+        <v>20357883</v>
+      </c>
+      <c r="F303" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G303" s="85"/>
+      <c r="I303" s="85"/>
+      <c r="K303" s="85"/>
+      <c r="M303" s="85"/>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A304" s="11">
+        <v>43438</v>
+      </c>
+      <c r="B304" s="97" t="s">
+        <v>478</v>
+      </c>
+      <c r="C304" s="5">
+        <v>0</v>
+      </c>
+      <c r="D304" s="33">
+        <v>780300</v>
+      </c>
+      <c r="E304" s="5">
+        <f t="shared" si="4"/>
+        <v>19577583</v>
+      </c>
+      <c r="F304" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G304" s="85"/>
+      <c r="I304" s="85"/>
+      <c r="K304" s="85"/>
+      <c r="M304" s="85"/>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A305" s="11">
+        <v>43438</v>
+      </c>
+      <c r="B305" s="101" t="s">
+        <v>494</v>
+      </c>
+      <c r="C305" s="5">
+        <v>0</v>
+      </c>
+      <c r="D305" s="33">
+        <v>1800000</v>
+      </c>
+      <c r="E305" s="5">
+        <f t="shared" si="4"/>
+        <v>17777583</v>
+      </c>
+      <c r="F305" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G305" s="85"/>
+      <c r="I305" s="85"/>
+      <c r="K305" s="85"/>
+      <c r="M305" s="85"/>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A306" s="11">
+        <v>43439</v>
+      </c>
+      <c r="B306" s="97" t="s">
+        <v>478</v>
+      </c>
+      <c r="C306" s="5">
+        <v>0</v>
+      </c>
+      <c r="D306" s="33">
+        <v>909000</v>
+      </c>
+      <c r="E306" s="5">
+        <f t="shared" si="4"/>
+        <v>16868583</v>
+      </c>
+      <c r="F306" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G306" s="85"/>
+      <c r="I306" s="85"/>
+      <c r="K306" s="85"/>
+      <c r="M306" s="85"/>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A307" s="11">
+        <v>43439</v>
+      </c>
+      <c r="B307" s="97" t="s">
+        <v>478</v>
+      </c>
+      <c r="C307" s="5">
+        <v>0</v>
+      </c>
+      <c r="D307" s="33">
+        <v>62000</v>
+      </c>
+      <c r="E307" s="5">
+        <f t="shared" si="4"/>
+        <v>16806583</v>
+      </c>
+      <c r="F307" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G307" s="85"/>
+      <c r="I307" s="85"/>
+      <c r="K307" s="85"/>
+      <c r="M307" s="85"/>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A308" s="11">
+        <v>43439</v>
+      </c>
+      <c r="B308" s="97" t="s">
+        <v>478</v>
+      </c>
+      <c r="C308" s="5">
+        <v>0</v>
+      </c>
+      <c r="D308" s="33">
+        <v>58500</v>
+      </c>
+      <c r="E308" s="5">
+        <f t="shared" si="4"/>
+        <v>16748083</v>
+      </c>
+      <c r="F308" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G308" s="85"/>
+      <c r="I308" s="85"/>
+      <c r="K308" s="85"/>
+      <c r="M308" s="85"/>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A309" s="11">
+        <v>43440</v>
+      </c>
+      <c r="B309" s="87" t="s">
+        <v>485</v>
+      </c>
+      <c r="C309" s="5">
+        <v>0</v>
+      </c>
+      <c r="D309" s="33">
+        <v>248000</v>
+      </c>
+      <c r="E309" s="5">
+        <f t="shared" si="4"/>
+        <v>16500083</v>
+      </c>
+      <c r="F309" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G309" s="85"/>
+      <c r="I309" s="85"/>
+      <c r="K309" s="85"/>
+      <c r="M309" s="85"/>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A310" s="11">
+        <v>43440</v>
+      </c>
+      <c r="B310" s="101" t="s">
+        <v>493</v>
+      </c>
+      <c r="C310" s="5">
+        <v>0</v>
+      </c>
+      <c r="D310" s="33">
+        <v>1000000</v>
+      </c>
+      <c r="E310" s="5">
+        <f t="shared" si="4"/>
+        <v>15500083</v>
+      </c>
+      <c r="F310" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="G310" s="85"/>
+      <c r="I310" s="85"/>
+      <c r="K310" s="85"/>
+      <c r="M310" s="85"/>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A311" s="11">
+        <v>43440</v>
+      </c>
+      <c r="B311" s="101" t="s">
+        <v>512</v>
+      </c>
+      <c r="C311" s="5">
+        <v>0</v>
+      </c>
+      <c r="D311" s="33">
+        <v>1197800</v>
+      </c>
+      <c r="E311" s="5">
+        <f t="shared" si="4"/>
+        <v>14302283</v>
+      </c>
+      <c r="F311" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G311" s="85"/>
+      <c r="I311" s="85"/>
+      <c r="K311" s="85"/>
+      <c r="M311" s="85"/>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A312" s="11">
+        <v>43441</v>
+      </c>
+      <c r="B312" s="101" t="s">
+        <v>477</v>
+      </c>
+      <c r="C312" s="5">
+        <v>0</v>
+      </c>
+      <c r="D312" s="33">
+        <v>400000</v>
+      </c>
+      <c r="E312" s="5">
+        <f t="shared" si="4"/>
+        <v>13902283</v>
+      </c>
+      <c r="F312" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G312" s="85"/>
+      <c r="I312" s="85"/>
+      <c r="K312" s="85"/>
+      <c r="M312" s="85"/>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A313" s="11">
+        <v>43441</v>
+      </c>
+      <c r="B313" s="101" t="s">
+        <v>496</v>
+      </c>
+      <c r="C313" s="5">
+        <v>0</v>
+      </c>
+      <c r="D313" s="33">
+        <v>184400</v>
+      </c>
+      <c r="E313" s="5">
+        <f t="shared" si="4"/>
+        <v>13717883</v>
+      </c>
+      <c r="F313" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G313" s="85"/>
+      <c r="I313" s="85"/>
+      <c r="K313" s="85"/>
+      <c r="M313" s="85"/>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A314" s="11">
+        <v>43442</v>
+      </c>
+      <c r="B314" s="87" t="s">
+        <v>475</v>
+      </c>
+      <c r="C314" s="5">
+        <v>0</v>
+      </c>
+      <c r="D314" s="33">
+        <v>1800000</v>
+      </c>
+      <c r="E314" s="5">
+        <f t="shared" si="4"/>
+        <v>11917883</v>
+      </c>
+      <c r="F314" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="G314" s="85"/>
+      <c r="I314" s="85"/>
+      <c r="K314" s="85"/>
+      <c r="M314" s="85"/>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A315" s="11">
+        <v>43442</v>
+      </c>
+      <c r="B315" s="87" t="s">
+        <v>476</v>
+      </c>
+      <c r="C315" s="5">
+        <v>0</v>
+      </c>
+      <c r="D315" s="33">
+        <v>880000</v>
+      </c>
+      <c r="E315" s="5">
+        <f t="shared" si="4"/>
+        <v>11037883</v>
+      </c>
+      <c r="F315" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="G315" s="85"/>
+      <c r="I315" s="85"/>
+      <c r="K315" s="85"/>
+      <c r="M315" s="85"/>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A316" s="11">
+        <v>43442</v>
+      </c>
+      <c r="B316" s="87" t="s">
+        <v>486</v>
+      </c>
+      <c r="C316" s="5">
+        <v>0</v>
+      </c>
+      <c r="D316" s="33">
+        <v>1200000</v>
+      </c>
+      <c r="E316" s="5">
+        <f t="shared" si="4"/>
+        <v>9837883</v>
+      </c>
+      <c r="F316" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="G316" s="85"/>
+      <c r="I316" s="85"/>
+      <c r="K316" s="85"/>
+      <c r="M316" s="85"/>
+    </row>
+    <row r="317" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="11">
+        <v>43420</v>
+      </c>
+      <c r="B317" s="41" t="s">
+        <v>432</v>
+      </c>
+      <c r="C317" s="5">
+        <v>26000000</v>
+      </c>
+      <c r="D317" s="33">
+        <v>0</v>
+      </c>
+      <c r="E317" s="5">
+        <f t="shared" si="4"/>
+        <v>35837883</v>
+      </c>
+      <c r="F317" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="G317" s="85"/>
+      <c r="I317" s="85"/>
+      <c r="K317" s="85"/>
+      <c r="M317" s="85"/>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A318" s="11">
+        <v>43445</v>
+      </c>
+      <c r="B318" s="101" t="s">
+        <v>497</v>
+      </c>
+      <c r="C318" s="5">
+        <v>0</v>
+      </c>
+      <c r="D318" s="33">
+        <v>797500</v>
+      </c>
+      <c r="E318" s="5">
+        <f t="shared" si="4"/>
+        <v>35040383</v>
+      </c>
+      <c r="F318" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G318" s="85"/>
+      <c r="I318" s="85"/>
+      <c r="K318" s="85"/>
+      <c r="M318" s="85"/>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A319" s="11">
+        <v>43445</v>
+      </c>
+      <c r="B319" s="101" t="s">
+        <v>498</v>
+      </c>
+      <c r="C319" s="5">
+        <v>0</v>
+      </c>
+      <c r="D319" s="33">
+        <v>39000</v>
+      </c>
+      <c r="E319" s="5">
+        <f t="shared" si="4"/>
+        <v>35001383</v>
+      </c>
+      <c r="F319" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G319" s="85"/>
+      <c r="I319" s="85"/>
+      <c r="K319" s="85"/>
+      <c r="M319" s="85"/>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A320" s="11">
+        <v>43445</v>
+      </c>
+      <c r="B320" s="101" t="s">
+        <v>520</v>
+      </c>
+      <c r="C320" s="5">
+        <v>0</v>
+      </c>
+      <c r="D320" s="33">
+        <v>200000</v>
+      </c>
+      <c r="E320" s="5">
+        <f t="shared" si="4"/>
+        <v>34801383</v>
+      </c>
+      <c r="F320" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G320" s="85"/>
+      <c r="I320" s="85"/>
+      <c r="K320" s="85"/>
+      <c r="M320" s="85"/>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A321" s="11">
+        <v>43445</v>
+      </c>
+      <c r="B321" s="101" t="s">
+        <v>499</v>
+      </c>
+      <c r="C321" s="5">
+        <v>0</v>
+      </c>
+      <c r="D321" s="33">
+        <v>1000000</v>
+      </c>
+      <c r="E321" s="5">
+        <f t="shared" si="4"/>
+        <v>33801383</v>
+      </c>
+      <c r="F321" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G321" s="85"/>
+      <c r="I321" s="85"/>
+      <c r="K321" s="85"/>
+      <c r="M321" s="85"/>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A322" s="11">
+        <v>43444</v>
+      </c>
+      <c r="B322" s="101" t="s">
+        <v>501</v>
+      </c>
+      <c r="C322" s="5">
+        <v>0</v>
+      </c>
+      <c r="D322" s="33">
+        <v>1000000</v>
+      </c>
+      <c r="E322" s="5">
+        <f t="shared" si="4"/>
+        <v>32801383</v>
+      </c>
+      <c r="F322" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G322" s="85"/>
+      <c r="I322" s="85"/>
+      <c r="K322" s="85"/>
+      <c r="M322" s="85"/>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A323" s="11">
+        <v>43449</v>
+      </c>
+      <c r="B323" s="101" t="s">
+        <v>509</v>
+      </c>
+      <c r="C323" s="5">
+        <v>0</v>
+      </c>
+      <c r="D323" s="33">
+        <v>672800</v>
+      </c>
+      <c r="E323" s="5">
+        <f t="shared" si="4"/>
+        <v>32128583</v>
+      </c>
+      <c r="F323" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G323" s="85"/>
+      <c r="I323" s="85"/>
+      <c r="K323" s="85"/>
+      <c r="M323" s="85"/>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A324" s="11">
+        <v>43449</v>
+      </c>
+      <c r="B324" s="87" t="s">
+        <v>507</v>
+      </c>
+      <c r="C324" s="5">
+        <v>0</v>
+      </c>
+      <c r="D324" s="33">
+        <v>2000000</v>
+      </c>
+      <c r="E324" s="5">
+        <f t="shared" si="4"/>
+        <v>30128583</v>
+      </c>
+      <c r="F324" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="G324" s="85"/>
+      <c r="I324" s="85"/>
+      <c r="K324" s="85"/>
+      <c r="M324" s="85"/>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A325" s="11">
+        <v>43449</v>
+      </c>
+      <c r="B325" s="87" t="s">
+        <v>508</v>
+      </c>
+      <c r="C325" s="5">
+        <v>0</v>
+      </c>
+      <c r="D325" s="33">
+        <v>1000000</v>
+      </c>
+      <c r="E325" s="5">
+        <f t="shared" ref="E325:E335" si="5">+E324+C325-D325</f>
+        <v>29128583</v>
+      </c>
+      <c r="F325" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="G325" s="85"/>
+      <c r="I325" s="85"/>
+      <c r="K325" s="85"/>
+      <c r="M325" s="85"/>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A326" s="11">
+        <v>43449</v>
+      </c>
+      <c r="B326" s="87" t="s">
+        <v>510</v>
+      </c>
+      <c r="C326" s="5">
+        <v>0</v>
+      </c>
+      <c r="D326" s="106">
+        <v>2022480</v>
+      </c>
+      <c r="E326" s="5">
+        <f t="shared" si="5"/>
+        <v>27106103</v>
+      </c>
+      <c r="F326" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G326" s="85"/>
+      <c r="I326" s="85"/>
+      <c r="K326" s="85"/>
+      <c r="M326" s="85"/>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A327" s="11">
+        <v>43449</v>
+      </c>
+      <c r="B327" s="87" t="s">
+        <v>511</v>
+      </c>
+      <c r="C327" s="5">
+        <v>0</v>
+      </c>
+      <c r="D327" s="33">
+        <v>180000</v>
+      </c>
+      <c r="E327" s="5">
+        <f t="shared" si="5"/>
+        <v>26926103</v>
+      </c>
+      <c r="F327" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G327" s="85"/>
+      <c r="I327" s="85"/>
+      <c r="K327" s="85"/>
+      <c r="M327" s="85"/>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A328" s="11">
+        <v>43449</v>
+      </c>
+      <c r="B328" s="87" t="s">
+        <v>515</v>
+      </c>
+      <c r="C328" s="5">
+        <v>0</v>
+      </c>
+      <c r="D328" s="33">
+        <v>66000</v>
+      </c>
+      <c r="E328" s="5">
+        <f t="shared" si="5"/>
+        <v>26860103</v>
+      </c>
+      <c r="F328" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G328" s="85"/>
+      <c r="I328" s="85"/>
+      <c r="K328" s="85"/>
+      <c r="M328" s="85"/>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A329" s="11">
+        <v>43451</v>
+      </c>
+      <c r="B329" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C329" s="5">
+        <v>0</v>
+      </c>
+      <c r="D329" s="33">
+        <v>333400</v>
+      </c>
+      <c r="E329" s="5">
+        <f t="shared" si="5"/>
+        <v>26526703</v>
+      </c>
+      <c r="F329" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G329" s="85"/>
+      <c r="I329" s="85"/>
+      <c r="K329" s="85"/>
+      <c r="M329" s="85"/>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A330" s="11">
+        <v>43451</v>
+      </c>
+      <c r="B330" s="87" t="s">
+        <v>517</v>
+      </c>
+      <c r="C330" s="5">
+        <v>0</v>
+      </c>
+      <c r="D330" s="33">
+        <v>24725</v>
+      </c>
+      <c r="E330" s="5">
+        <f t="shared" si="5"/>
+        <v>26501978</v>
+      </c>
+      <c r="F330" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G330" s="85"/>
+      <c r="I330" s="85"/>
+      <c r="K330" s="85"/>
+      <c r="M330" s="85"/>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A331" s="11">
+        <v>43451</v>
+      </c>
+      <c r="B331" s="87" t="s">
+        <v>517</v>
+      </c>
+      <c r="C331" s="5">
+        <v>0</v>
+      </c>
+      <c r="D331" s="33">
+        <v>50000</v>
+      </c>
+      <c r="E331" s="5">
+        <f t="shared" si="5"/>
+        <v>26451978</v>
+      </c>
+      <c r="F331" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G331" s="85"/>
+      <c r="I331" s="85"/>
+      <c r="K331" s="85"/>
+      <c r="M331" s="85"/>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A332" s="11">
+        <v>43451</v>
+      </c>
+      <c r="B332" s="87" t="s">
+        <v>516</v>
+      </c>
+      <c r="C332" s="5">
+        <v>0</v>
+      </c>
+      <c r="D332" s="33">
+        <v>400000</v>
+      </c>
+      <c r="E332" s="5">
+        <f t="shared" si="5"/>
+        <v>26051978</v>
+      </c>
+      <c r="F332" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G332" s="85"/>
+      <c r="I332" s="85"/>
+      <c r="K332" s="85"/>
+      <c r="M332" s="85"/>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A333" s="11">
+        <v>43450</v>
+      </c>
+      <c r="B333" s="101" t="s">
+        <v>519</v>
+      </c>
+      <c r="C333" s="5">
+        <v>0</v>
+      </c>
+      <c r="D333" s="33">
+        <v>1400000</v>
+      </c>
+      <c r="E333" s="5">
+        <f t="shared" si="5"/>
+        <v>24651978</v>
+      </c>
+      <c r="F333" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G333" s="85"/>
+      <c r="I333" s="85"/>
+      <c r="K333" s="85"/>
+      <c r="M333" s="85"/>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A334" s="11">
+        <v>43451</v>
+      </c>
+      <c r="B334" s="101" t="s">
+        <v>519</v>
+      </c>
+      <c r="C334" s="5">
+        <v>0</v>
+      </c>
+      <c r="D334" s="33">
+        <v>600000</v>
+      </c>
+      <c r="E334" s="5">
+        <f t="shared" si="5"/>
+        <v>24051978</v>
+      </c>
+      <c r="F334" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G334" s="85"/>
+      <c r="I334" s="85"/>
+      <c r="K334" s="85"/>
+      <c r="M334" s="85"/>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A335" s="11">
+        <v>43451</v>
+      </c>
+      <c r="B335" s="101" t="s">
+        <v>519</v>
+      </c>
+      <c r="C335" s="5">
+        <v>0</v>
+      </c>
+      <c r="D335" s="33">
+        <v>550000</v>
+      </c>
+      <c r="E335" s="5">
+        <f t="shared" si="5"/>
+        <v>23501978</v>
+      </c>
+      <c r="F335" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G335" s="85"/>
+      <c r="I335" s="85"/>
+      <c r="K335" s="85"/>
+      <c r="M335" s="85"/>
+    </row>
+    <row r="336" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B336" s="98"/>
+      <c r="C336" s="99"/>
+      <c r="D336" s="99"/>
+      <c r="E336" s="99"/>
+      <c r="G336" s="100"/>
+      <c r="H336" s="100"/>
+      <c r="I336" s="100"/>
+      <c r="J336" s="100"/>
+      <c r="K336" s="100"/>
+      <c r="L336" s="100"/>
+      <c r="M336" s="100"/>
+    </row>
+    <row r="337" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B337" s="8"/>
+      <c r="C337" s="5"/>
+      <c r="D337" s="5"/>
+      <c r="E337" s="5"/>
+    </row>
+    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B338" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C302" s="10"/>
-      <c r="D302" s="10">
-        <f>SUBTOTAL(9,D24:D299)</f>
-        <v>170802417</v>
-      </c>
-      <c r="E302" s="10">
-        <f>SUM(E299:E301)</f>
-        <v>17468523</v>
-      </c>
-    </row>
-    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E306" s="35"/>
+      <c r="C338" s="10"/>
+      <c r="D338" s="10">
+        <f>SUBTOTAL(9,D24:D300)</f>
+        <v>167795677</v>
+      </c>
+      <c r="E338" s="10">
+        <f>+$E$335</f>
+        <v>23501978</v>
+      </c>
+    </row>
+    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E342" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9741,10 +10769,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9757,17 +10785,17 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="82" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
       <c r="D1" s="83" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="80" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B2" s="81">
         <v>600000</v>
@@ -9778,13 +10806,13 @@
       <c r="D2" s="81">
         <v>200000</v>
       </c>
-      <c r="E2" s="105" t="s">
-        <v>306</v>
+      <c r="E2" s="109" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="80" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B3" s="81">
         <v>600000</v>
@@ -9795,11 +10823,11 @@
       <c r="D3" s="81">
         <v>200000</v>
       </c>
-      <c r="E3" s="105"/>
+      <c r="E3" s="109"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="80" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B4" s="81">
         <v>600000</v>
@@ -9810,11 +10838,11 @@
       <c r="D4" s="81">
         <v>200000</v>
       </c>
-      <c r="E4" s="105"/>
+      <c r="E4" s="109"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="80" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B5" s="81">
         <v>600000</v>
@@ -9825,11 +10853,11 @@
       <c r="D5" s="81">
         <v>200000</v>
       </c>
-      <c r="E5" s="105"/>
+      <c r="E5" s="109"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="80" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B6" s="81">
         <v>600000</v>
@@ -9840,11 +10868,11 @@
       <c r="D6" s="81">
         <v>200000</v>
       </c>
-      <c r="E6" s="105"/>
+      <c r="E6" s="109"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="80" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B7" s="81">
         <v>600000</v>
@@ -9855,11 +10883,11 @@
       <c r="D7" s="81">
         <v>200000</v>
       </c>
-      <c r="E7" s="105"/>
+      <c r="E7" s="109"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="80" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B8" s="81">
         <v>600000</v>
@@ -9870,11 +10898,11 @@
       <c r="D8" s="81">
         <v>200000</v>
       </c>
-      <c r="E8" s="105"/>
+      <c r="E8" s="109"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B9" s="39">
         <v>600000</v>
@@ -9888,7 +10916,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B10" s="39">
         <v>600000</v>
@@ -9903,13 +10931,13 @@
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B11" s="39">
         <v>600000</v>
       </c>
       <c r="C11" s="39">
-        <f t="shared" ref="C11:C19" si="0">15000*4</f>
+        <f t="shared" ref="C11:C14" si="0">15000*4</f>
         <v>60000</v>
       </c>
       <c r="D11" s="81">
@@ -9921,7 +10949,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B12" s="39">
         <v>600000</v>
@@ -9936,7 +10964,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B13" s="39">
         <v>600000</v>
@@ -9951,7 +10979,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B14" s="39">
         <v>600000</v>
@@ -9966,7 +10994,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B15" s="39">
         <v>600000</v>
@@ -9978,12 +11006,12 @@
         <v>200000</v>
       </c>
       <c r="E15" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B16" s="39">
         <v>600000</v>
@@ -9995,12 +11023,12 @@
         <v>200000</v>
       </c>
       <c r="E16" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B17" s="39">
         <v>600000</v>
@@ -10012,110 +11040,95 @@
         <v>200000</v>
       </c>
       <c r="E17" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B18" s="39">
         <v>600000</v>
       </c>
       <c r="C18" s="39">
-        <f t="shared" si="0"/>
-        <v>60000</v>
+        <f>15000*5</f>
+        <v>75000</v>
       </c>
       <c r="D18" s="81">
         <v>200000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="B19" s="101">
-        <v>600000</v>
-      </c>
-      <c r="C19" s="101">
-        <f t="shared" si="0"/>
-        <v>60000</v>
-      </c>
-      <c r="D19" s="102">
-        <v>200000</v>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="108" t="s">
+        <v>281</v>
+      </c>
+      <c r="B23" s="108"/>
+      <c r="C23" s="39">
+        <f>SUM(B2:C22)</f>
+        <v>11065000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="104" t="s">
-        <v>287</v>
-      </c>
-      <c r="B24" s="104"/>
-      <c r="C24" s="39">
-        <f>SUM(B2:C23)</f>
-        <v>11710000</v>
+      <c r="A24" s="110" t="s">
+        <v>302</v>
+      </c>
+      <c r="B24" s="110"/>
+      <c r="C24" s="50">
+        <f>+C23-'Informe Totales Diamante '!L5</f>
+        <v>5497000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="106" t="s">
-        <v>308</v>
-      </c>
-      <c r="B25" s="106"/>
-      <c r="C25" s="50">
-        <f>+C24-'Informe Totales Diamante '!L5-1500000</f>
-        <v>5142000</v>
+      <c r="A25" t="s">
+        <v>303</v>
+      </c>
+      <c r="C25" s="39">
+        <v>6000000</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C26" s="39">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C27" s="39">
-        <v>0</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="C28" s="39">
-        <v>15000000</v>
+        <v>-5000000</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C29" s="39">
-        <v>-5000000</v>
+        <v>-3000000</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>413</v>
-      </c>
       <c r="C30" s="39">
-        <v>-3000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="39">
-        <f>SUM(C25:C30)</f>
-        <v>18142000</v>
+        <f>SUM(C24:C29)</f>
+        <v>18497000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E2:E8"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10126,8 +11139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="B52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10143,32 +11156,32 @@
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1">
         <v>3000000</v>
       </c>
       <c r="G4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I4" s="39">
         <v>68000000</v>
       </c>
       <c r="J4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C5" s="1">
         <v>1000000</v>
@@ -10177,17 +11190,17 @@
         <v>0</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H5" s="42"/>
       <c r="I5" s="50">
         <f ca="1">+C71</f>
-        <v>3960000</v>
+        <v>4120000</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C6" s="1">
         <v>1800000</v>
@@ -10196,7 +11209,7 @@
         <v>1000000</v>
       </c>
       <c r="G6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I6" s="39">
         <f>+C19</f>
@@ -10205,14 +11218,14 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C7" s="43">
         <v>2400000</v>
       </c>
       <c r="D7" s="43"/>
       <c r="G7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I7" s="39">
         <f>28709500*2</f>
@@ -10221,7 +11234,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C8" s="66">
         <v>600000</v>
@@ -10229,7 +11242,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C9" s="1">
         <v>60000</v>
@@ -10243,7 +11256,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1">
         <v>1725000</v>
@@ -10255,17 +11268,17 @@
         <v>6</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H10" s="42"/>
       <c r="I10" s="50">
         <f ca="1">SUM(I4:I9)</f>
-        <v>151624000</v>
+        <v>151784000</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C11" s="1">
         <v>1100000</v>
@@ -10274,19 +11287,19 @@
         <v>800000</v>
       </c>
       <c r="G11" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="I11" s="39">
         <f>+Diamante!K4</f>
-        <v>67065473</v>
+        <v>71538198</v>
       </c>
       <c r="J11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C12" s="43">
         <v>500000</v>
@@ -10295,19 +11308,19 @@
         <v>1430000</v>
       </c>
       <c r="G12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I12" s="39">
         <f>+Diamante!I4</f>
         <v>58838400</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C13" s="1">
         <v>1000000</v>
@@ -10316,19 +11329,19 @@
         <v>500000</v>
       </c>
       <c r="G13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I13" s="39">
         <f ca="1">+I10-I11-I12</f>
-        <v>25720127</v>
+        <v>21407402</v>
       </c>
       <c r="J13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="42" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C14" s="43">
         <v>1000000</v>
@@ -10337,12 +11350,12 @@
         <v>200000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C15" s="67">
         <v>1000000</v>
@@ -10350,7 +11363,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C16" s="1">
         <v>950000</v>
@@ -10359,7 +11372,7 @@
         <v>400000</v>
       </c>
       <c r="G16" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I16" s="39">
         <v>-6000000</v>
@@ -10367,7 +11380,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="I17" s="39">
         <v>-5000000</v>
@@ -10375,7 +11388,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I18" s="39">
         <v>-12000000</v>
@@ -10383,14 +11396,14 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C19" s="1">
         <f>SUM(C3:D16)</f>
         <v>22245000</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I19" s="39">
         <v>-20000000</v>
@@ -10398,7 +11411,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="I20" s="39">
         <v>-5000000</v>
@@ -10406,7 +11419,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C22" s="1">
         <v>1000000</v>
@@ -10414,7 +11427,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C23" s="1">
         <f>1400000+1100000+400000</f>
@@ -10423,7 +11436,7 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C24" s="1">
         <v>2365000</v>
@@ -10431,7 +11444,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C25" s="1">
         <v>400000</v>
@@ -10439,7 +11452,7 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C26" s="1">
         <v>300000</v>
@@ -10447,7 +11460,7 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C27" s="1">
         <f>SUM(C22:C26)</f>
@@ -10456,7 +11469,7 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C28" s="1">
         <f>1500000+2800000</f>
@@ -10465,7 +11478,7 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="42" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C29" s="43">
         <f>((C27-C28)*15%)+(C27-C28)</f>
@@ -10474,13 +11487,13 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="58" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C35" s="56"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C36" s="1">
         <f>300000*5*2</f>
@@ -10493,81 +11506,84 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C37" s="1">
         <f>700000*4</f>
         <v>2800000</v>
       </c>
       <c r="D37" s="1">
-        <v>1000000</v>
+        <v>200000</v>
       </c>
       <c r="E37" s="1"/>
       <c r="G37" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C38" s="1">
         <v>1000000</v>
       </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="G38" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C39" s="1">
         <v>15000000</v>
       </c>
       <c r="D39" s="1">
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
       <c r="E39" s="1"/>
       <c r="G39" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C40" s="1">
         <f>500000*4</f>
         <v>2000000</v>
       </c>
       <c r="D40" s="1">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1"/>
       <c r="G40" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C41" s="1">
         <v>2500000</v>
       </c>
       <c r="D41" s="1">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1"/>
       <c r="G41" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C42" s="1">
         <v>1000000</v>
@@ -10577,12 +11593,12 @@
       </c>
       <c r="E42" s="1"/>
       <c r="G42" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C43" s="1">
         <f>500000*4</f>
@@ -10593,28 +11609,28 @@
       </c>
       <c r="E43" s="1"/>
       <c r="G43" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C44" s="1">
         <f>400000*2*4</f>
         <v>3200000</v>
       </c>
       <c r="D44" s="1">
-        <v>2500000</v>
+        <v>1000000</v>
       </c>
       <c r="E44" s="1"/>
       <c r="G44" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C45" s="1">
         <f>400000*2*4</f>
@@ -10625,29 +11641,28 @@
       </c>
       <c r="E45" s="1"/>
       <c r="G45" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C46" s="1">
         <f>150000*2*4</f>
         <v>1200000</v>
       </c>
       <c r="D46" s="1">
-        <f>160000*3</f>
-        <v>480000</v>
+        <v>1200000</v>
       </c>
       <c r="E46" s="1"/>
       <c r="G46" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C47" s="1">
         <v>1000000</v>
@@ -10657,43 +11672,43 @@
       </c>
       <c r="E47" s="1"/>
       <c r="G47" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C48" s="1">
         <v>2000000</v>
       </c>
       <c r="D48" s="1">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1"/>
       <c r="G48" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C49" s="1">
         <f>700000*3</f>
         <v>2100000</v>
       </c>
       <c r="D49" s="1">
-        <v>2100000</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1"/>
       <c r="G49" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C50" s="1">
         <v>4000000</v>
@@ -10703,12 +11718,12 @@
       </c>
       <c r="E50" s="1"/>
       <c r="G50" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C51" s="1">
         <v>100000</v>
@@ -10720,7 +11735,7 @@
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C52" s="1">
         <v>1000000</v>
@@ -10730,12 +11745,12 @@
       </c>
       <c r="E52" s="1"/>
       <c r="G52" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C53" s="1">
         <v>1000000</v>
@@ -10747,7 +11762,7 @@
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C54" s="1">
         <v>1000000</v>
@@ -10759,32 +11774,32 @@
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C55" s="1">
         <v>1000000</v>
       </c>
       <c r="D55" s="1">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="94" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C56" s="93">
         <f>-(Diamante!U4)</f>
-        <v>-38583141</v>
+        <v>-53910961</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="60" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C57" s="61">
         <f>SUM(C36:C56)</f>
-        <v>11516859</v>
+        <v>-3810961</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
@@ -10794,53 +11809,53 @@
     </row>
     <row r="62" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="74" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C62" s="79">
         <f ca="1">TODAY()</f>
-        <v>43437</v>
+        <v>43453</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C64" s="68">
         <v>1800000</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="107" t="s">
-        <v>297</v>
+      <c r="B65" s="111" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="107"/>
+      <c r="B66" s="111"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="107"/>
+      <c r="B67" s="111"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C68" s="1">
         <f ca="1">(300000/30)*(C62-C61)</f>
-        <v>2160000</v>
+        <v>2320000</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="73" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C71" s="56">
         <f ca="1">SUM(C63:C68)</f>
-        <v>3960000</v>
+        <v>4120000</v>
       </c>
     </row>
   </sheetData>
@@ -10854,10 +11869,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10877,114 +11892,113 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="63">
-        <f ca="1">TODAY()</f>
-        <v>43437</v>
+        <v>43438</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="E3" s="108" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="108"/>
-      <c r="H3" s="108" t="s">
-        <v>183</v>
-      </c>
-      <c r="I3" s="108"/>
-      <c r="K3" s="108" t="s">
-        <v>210</v>
-      </c>
-      <c r="L3" s="108"/>
+      <c r="A3" s="112" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="E3" s="112" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="112"/>
+      <c r="H3" s="112" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="112"/>
+      <c r="K3" s="112" t="s">
+        <v>205</v>
+      </c>
+      <c r="L3" s="112"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C4" s="1">
-        <f ca="1">+'Adicional 2 etapa'!I13</f>
-        <v>25720127</v>
+        <f>+'[1]Gabriel informe'!$B$91+6000000</f>
+        <v>25244402</v>
       </c>
       <c r="E4" s="75" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F4" s="76">
         <f>78000000+2400000-Diamante!S4</f>
         <v>24400000</v>
       </c>
-      <c r="H4" s="107" t="s">
-        <v>184</v>
-      </c>
-      <c r="I4" s="109">
-        <f>Diamante!$E$302</f>
-        <v>17468523</v>
+      <c r="H4" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="113">
+        <f>Diamante!$E$338</f>
+        <v>23501978</v>
       </c>
       <c r="K4" s="64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L4" s="65">
         <f>+Diamante!G4</f>
-        <v>5876463</v>
+        <v>5942463</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C5" s="1">
         <v>110000000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F5" s="1">
         <v>110000000</v>
       </c>
-      <c r="H5" s="107"/>
-      <c r="I5" s="109"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="113"/>
       <c r="K5" s="64" t="s">
         <v>39</v>
       </c>
       <c r="L5" s="65">
         <f>+Diamante!M4</f>
-        <v>5068000</v>
+        <v>5568000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B6" s="59">
         <v>42811</v>
       </c>
       <c r="C6" s="53">
-        <f ca="1">((20000000*2%)/30)*_xlfn.DAYS($C$1,B6)</f>
-        <v>8346666.666666667</v>
+        <f>((20000000*2%)/30)*_xlfn.DAYS($C$1,B6)</f>
+        <v>8360000</v>
       </c>
       <c r="D6" s="1">
         <f>((20000000*2%)/30)*30</f>
         <v>400000</v>
       </c>
       <c r="E6" s="75" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F6" s="77">
         <f>84900000-(SUMIF(Diamante!F:F,"Leidy",Diamante!C:C))-2000000</f>
-        <v>72000000</v>
+        <v>71600000</v>
       </c>
       <c r="I6" s="55"/>
       <c r="K6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L6" s="55">
         <v>3000000</v>
@@ -10992,45 +12006,45 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B7" s="59">
         <v>42885</v>
       </c>
       <c r="C7" s="53">
-        <f ca="1">((10000000*2%)/30)*_xlfn.DAYS($C$1,B7)</f>
-        <v>3680000</v>
+        <f>((10000000*2%)/30)*_xlfn.DAYS($C$1,B7)</f>
+        <v>3686666.666666667</v>
       </c>
       <c r="D7" s="1">
         <f>((10000000*2%)/30)*30</f>
         <v>200000</v>
       </c>
       <c r="E7" s="75" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="F7" s="77">
         <f>74000000-(SUMIF(Diamante!F:F,"Ana",Diamante!C:C))</f>
-        <v>26000000</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" s="59">
+      <c r="A8" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="104">
         <v>43194</v>
       </c>
-      <c r="C8" s="53">
-        <f ca="1">((77000000*1.5%)/30)*_xlfn.DAYS($C$1,B8)</f>
-        <v>9355500</v>
+      <c r="C8" s="105">
+        <f>((77000000*1.5%)/30)*_xlfn.DAYS($C$1,B8)</f>
+        <v>9394000</v>
       </c>
       <c r="D8" s="1">
         <f>((77000000*1.5%)/30)*30</f>
         <v>1155000</v>
       </c>
       <c r="E8" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="F8" s="77">
         <f>84900000-(SUMIF(Diamante!F:F,"Karla",Diamante!C:C))-2000000</f>
@@ -11039,7 +12053,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C9" s="1">
         <f>6000000-Diamante!Q4</f>
@@ -11048,70 +12062,69 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C10" s="1">
-        <f>+'Adicional 2 etapa'!C57</f>
-        <v>11516859</v>
+        <v>0</v>
       </c>
       <c r="F10" s="68"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="C11" s="1">
-        <f>+Jhon!C25</f>
-        <v>5142000</v>
+        <f>+Jhon!C24</f>
+        <v>5497000</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="C14" s="54">
-        <f ca="1">SUM(C4:C13)</f>
-        <v>176561152.66666666</v>
+        <f>SUM(C4:C13)</f>
+        <v>164982068.66666666</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="51" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F14" s="54">
         <f>SUM(F4:F13)</f>
-        <v>310100000</v>
+        <v>283700000</v>
       </c>
       <c r="G14" s="52"/>
       <c r="H14" s="51" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="I14" s="54">
         <f t="shared" ref="I14" si="0">SUM(I4:I13)</f>
-        <v>17468523</v>
+        <v>23501978</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D18" s="1">
-        <f ca="1">+F14+I14-C14</f>
-        <v>151007370.33333334</v>
+        <f>+F14+I14-C14</f>
+        <v>142219909.33333334</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f ca="1">+C8+C7+C6</f>
-        <v>21382166.666666668</v>
+        <f>+C8+C7+C6</f>
+        <v>21440666.666666668</v>
       </c>
       <c r="B19" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D19" s="1">
         <v>90000000</v>
@@ -11120,37 +12133,37 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f ca="1">+'Adicional 2 etapa'!C71+6000000</f>
-        <v>9960000</v>
+        <v>10120000</v>
       </c>
       <c r="B20" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <f>+Diamante!G4</f>
-        <v>5876463</v>
+        <v>5942463</v>
       </c>
       <c r="B21" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
-        <f>+Jhon!C24</f>
-        <v>11710000</v>
+        <f>+Jhon!C23</f>
+        <v>11065000</v>
       </c>
       <c r="B22" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -11158,28 +12171,76 @@
         <v>5000000</v>
       </c>
       <c r="B23" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D23" s="57">
-        <f ca="1">+D18-D20-D19</f>
-        <v>61007370.333333343</v>
+        <f>+D18-D20-D19</f>
+        <v>52219909.333333343</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f ca="1">SUM(A19:A24)</f>
-        <v>53928629.666666672</v>
+        <v>53568129.666666672</v>
       </c>
       <c r="B25" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="39">
+        <v>4000000</v>
+      </c>
+      <c r="B28" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="39">
+        <v>2000000</v>
+      </c>
+      <c r="B29" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="39">
+        <f>84900000-74000000</f>
+        <v>10900000</v>
+      </c>
+      <c r="B30" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="39">
+        <v>2000000</v>
+      </c>
+      <c r="B31" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="39">
+        <f>84900000-78000000</f>
+        <v>6900000</v>
+      </c>
+      <c r="B32" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="39">
+        <f ca="1">SUM(A25:A35)</f>
+        <v>79368129.666666672</v>
       </c>
     </row>
   </sheetData>
@@ -11213,150 +12274,150 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B1" s="71" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B2">
         <v>3217689469</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B3">
         <v>3226128819</v>
       </c>
       <c r="C3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B4">
         <v>3127935199</v>
       </c>
       <c r="C4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B5">
         <v>3127589003</v>
       </c>
       <c r="C5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B7">
         <v>3182147031</v>
       </c>
       <c r="C7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B9">
         <v>3117629003</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C10" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B11">
         <v>3107757393</v>
       </c>
       <c r="C11" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D11" s="68"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B12">
         <v>3148432158</v>
       </c>
       <c r="C12" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -11364,43 +12425,43 @@
         <v>3225327603</v>
       </c>
       <c r="C13" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B14">
         <v>3015172939</v>
       </c>
       <c r="C14" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="86" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C18" s="86" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D18" s="88"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C19" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D19" s="1">
         <v>700000</v>
@@ -11408,10 +12469,10 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C20" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D20" s="1">
         <v>2000000</v>
@@ -11419,10 +12480,10 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C21" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D21" s="1">
         <v>2600000</v>
@@ -11430,10 +12491,10 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>320</v>
+      </c>
+      <c r="C22" t="s">
         <v>326</v>
-      </c>
-      <c r="C22" t="s">
-        <v>332</v>
       </c>
       <c r="D22" s="1">
         <v>250000</v>
@@ -11441,35 +12502,35 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C23" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D23" s="1">
         <v>400000</v>
       </c>
       <c r="E23" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C24" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D24" s="1">
         <v>700000</v>
       </c>
       <c r="E24" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C25" s="89" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D25" s="90">
         <f>SUM(D19:D24)</f>
@@ -11478,10 +12539,10 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C27" t="s">
         <v>325</v>
-      </c>
-      <c r="C27" t="s">
-        <v>331</v>
       </c>
       <c r="D27" s="1">
         <v>500000</v>
@@ -11489,10 +12550,10 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C28" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D28" s="1">
         <v>2900000</v>
@@ -11500,10 +12561,10 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C29" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D29" s="1">
         <v>1000000</v>
@@ -11511,10 +12572,10 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C30" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D30" s="1">
         <v>800000</v>
@@ -11522,10 +12583,10 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C31" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D31" s="1">
         <v>600000</v>
@@ -11533,10 +12594,10 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C32" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D32" s="1">
         <v>1100000</v>
@@ -11544,10 +12605,10 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C33" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D33" s="1">
         <v>600000</v>
@@ -11555,7 +12616,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C35" s="89" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D35" s="90">
         <f>SUM(D27:D34)</f>
@@ -11564,10 +12625,10 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C37" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D37" s="1">
         <v>500000</v>
@@ -11575,10 +12636,10 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C38" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D38" s="1">
         <v>1000000</v>
@@ -11586,10 +12647,10 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C39" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D39" s="1">
         <v>1000000</v>
@@ -11597,10 +12658,10 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C40" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D40" s="1">
         <v>600000</v>
@@ -11608,10 +12669,10 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C41" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D41" s="1">
         <v>1100000</v>
@@ -11619,10 +12680,10 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C42" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D42" s="1">
         <v>600000</v>
@@ -11630,10 +12691,10 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C43" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D43" s="1">
         <v>1200000</v>
@@ -11641,7 +12702,7 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C45" s="89" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D45" s="90">
         <f>SUM(D37:D44)</f>
@@ -11650,7 +12711,7 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C48" s="89" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D48" s="90">
         <f>+D45+D35+D25</f>
@@ -11659,7 +12720,7 @@
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/informe General de pagos 2018.xlsx
+++ b/informe General de pagos 2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Diamante" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Diamante!$A$2:$G$335</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Diamante!$A$2:$G$337</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="533">
   <si>
     <t xml:space="preserve">Tener en cuenta con eduar </t>
   </si>
@@ -1608,6 +1608,42 @@
   </si>
   <si>
     <t>Retiro para gabriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono Gabriel Efectivo amaga que retiro dela tarjeta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono Gabriel Efectivo amaga que retiro dela tarjeta Ditaires </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono Gabriel retiro por pac </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono Gabriel traslado </t>
+  </si>
+  <si>
+    <t>Abono Gabriel retiro transferecnia x 850000</t>
+  </si>
+  <si>
+    <t>Abono gabriel retiro en amaga sabado de nomina  retiro de 400 + 600</t>
+  </si>
+  <si>
+    <t>Abono gabriel retiro en bello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago en notaria por autenticacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilidades Socio Cristian </t>
+  </si>
+  <si>
+    <t>Abono en el deposito hoy 22-12</t>
+  </si>
+  <si>
+    <t>Utilidades Socio yelsid</t>
+  </si>
+  <si>
+    <t>Utilidaes entregadas</t>
   </si>
 </sst>
 </file>
@@ -2153,7 +2189,7 @@
       <sheetData sheetId="0">
         <row r="91">
           <cell r="B91">
-            <v>19244402</v>
+            <v>15594402</v>
           </cell>
         </row>
       </sheetData>
@@ -2428,17 +2464,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W342"/>
+  <dimension ref="A2:Y353"/>
   <sheetViews>
-    <sheetView topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="E335" sqref="E335"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="71.85546875" customWidth="1"/>
     <col min="3" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.28515625" style="13" customWidth="1"/>
@@ -2457,9 +2493,11 @@
     <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="3.140625" customWidth="1"/>
     <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.42578125" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2476,7 +2514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>43194</v>
       </c>
@@ -2523,8 +2561,11 @@
       <c r="W3" s="95" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y3" s="95" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>28</v>
@@ -2544,7 +2585,7 @@
       </c>
       <c r="G4" s="19">
         <f>SUMIF(F:F,"Diamante",D:D)</f>
-        <v>5942463</v>
+        <v>5951263</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="21">
@@ -2554,7 +2595,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="22">
         <f>SUMIF(F:F,"Milagrosa",D:D)</f>
-        <v>71538198</v>
+        <v>75188198</v>
       </c>
       <c r="L4" s="20"/>
       <c r="M4" s="23">
@@ -2575,14 +2616,18 @@
       </c>
       <c r="U4" s="25">
         <f>SUMIF(F:F,"Ultima Etapa ",D:D)+(SUMIF(F:F,"MO Utlima Etapa ",D:D))</f>
-        <v>53910961</v>
+        <v>54268161</v>
       </c>
       <c r="W4" s="96">
         <f>SUMIF(F:F,"Leidy",C:C)</f>
         <v>11300000</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y4" s="96">
+        <f>SUMIF(F:F,"Utilidades",D:D)</f>
+        <v>1555600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>114</v>
@@ -2615,8 +2660,9 @@
       </c>
       <c r="U5" s="25"/>
       <c r="W5" s="96"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y5" s="96"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
         <v>114</v>
@@ -2644,8 +2690,9 @@
       <c r="S6" s="25"/>
       <c r="U6" s="25"/>
       <c r="W6" s="96"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y6" s="96"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
         <v>114</v>
@@ -2673,8 +2720,9 @@
       <c r="S7" s="25"/>
       <c r="U7" s="25"/>
       <c r="W7" s="96"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y7" s="96"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>43295</v>
       </c>
@@ -2704,8 +2752,9 @@
       <c r="S8" s="25"/>
       <c r="U8" s="25"/>
       <c r="W8" s="96"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y8" s="96"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>43295</v>
       </c>
@@ -2735,8 +2784,9 @@
       <c r="S9" s="25"/>
       <c r="U9" s="25"/>
       <c r="W9" s="96"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y9" s="96"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>43195</v>
       </c>
@@ -2755,7 +2805,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>43195</v>
       </c>
@@ -2779,7 +2829,7 @@
       <c r="J11" s="107"/>
       <c r="K11" s="107"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>43195</v>
       </c>
@@ -2803,7 +2853,7 @@
       <c r="J12" s="36"/>
       <c r="K12" s="34"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>43195</v>
       </c>
@@ -2827,7 +2877,7 @@
       <c r="J13" s="36"/>
       <c r="K13" s="34"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>43195</v>
       </c>
@@ -2851,7 +2901,7 @@
       <c r="J14" s="36"/>
       <c r="K14" s="34"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>43195</v>
       </c>
@@ -2875,7 +2925,7 @@
       <c r="J15" s="36"/>
       <c r="K15" s="34"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>43195</v>
       </c>
@@ -8648,7 +8698,7 @@
         <v>220000</v>
       </c>
       <c r="E261" s="5">
-        <f t="shared" ref="E261:E324" si="4">+E260+C261-D261</f>
+        <f t="shared" ref="E261:E325" si="4">+E260+C261-D261</f>
         <v>-1332222</v>
       </c>
       <c r="F261" s="32" t="s">
@@ -10248,7 +10298,7 @@
         <v>1000000</v>
       </c>
       <c r="E325" s="5">
-        <f t="shared" ref="E325:E335" si="5">+E324+C325-D325</f>
+        <f t="shared" si="4"/>
         <v>29128583</v>
       </c>
       <c r="F325" s="32" t="s">
@@ -10273,7 +10323,7 @@
         <v>2022480</v>
       </c>
       <c r="E326" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E326:E346" si="5">+E325+C326-D326</f>
         <v>27106103</v>
       </c>
       <c r="F326" s="32" t="s">
@@ -10336,23 +10386,23 @@
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" s="11">
-        <v>43451</v>
-      </c>
-      <c r="B329" s="87" t="s">
-        <v>94</v>
+        <v>43450</v>
+      </c>
+      <c r="B329" s="101" t="s">
+        <v>519</v>
       </c>
       <c r="C329" s="5">
         <v>0</v>
       </c>
       <c r="D329" s="33">
-        <v>333400</v>
+        <v>1400000</v>
       </c>
       <c r="E329" s="5">
         <f t="shared" si="5"/>
-        <v>26526703</v>
+        <v>25460103</v>
       </c>
       <c r="F329" s="32" t="s">
-        <v>351</v>
+        <v>64</v>
       </c>
       <c r="G329" s="85"/>
       <c r="I329" s="85"/>
@@ -10374,7 +10424,7 @@
       </c>
       <c r="E330" s="5">
         <f t="shared" si="5"/>
-        <v>26501978</v>
+        <v>25435378</v>
       </c>
       <c r="F330" s="32" t="s">
         <v>64</v>
@@ -10399,7 +10449,7 @@
       </c>
       <c r="E331" s="5">
         <f t="shared" si="5"/>
-        <v>26451978</v>
+        <v>25385378</v>
       </c>
       <c r="F331" s="32" t="s">
         <v>64</v>
@@ -10424,7 +10474,7 @@
       </c>
       <c r="E332" s="5">
         <f t="shared" si="5"/>
-        <v>26051978</v>
+        <v>24985378</v>
       </c>
       <c r="F332" s="32" t="s">
         <v>351</v>
@@ -10436,20 +10486,20 @@
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" s="11">
-        <v>43450</v>
+        <v>43451</v>
       </c>
       <c r="B333" s="101" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C333" s="5">
         <v>0</v>
       </c>
       <c r="D333" s="33">
-        <v>1400000</v>
+        <v>600000</v>
       </c>
       <c r="E333" s="5">
         <f t="shared" si="5"/>
-        <v>24651978</v>
+        <v>24385378</v>
       </c>
       <c r="F333" s="32" t="s">
         <v>64</v>
@@ -10463,21 +10513,21 @@
       <c r="A334" s="11">
         <v>43451</v>
       </c>
-      <c r="B334" s="101" t="s">
-        <v>519</v>
+      <c r="B334" s="87" t="s">
+        <v>94</v>
       </c>
       <c r="C334" s="5">
         <v>0</v>
       </c>
       <c r="D334" s="33">
-        <v>600000</v>
+        <v>333400</v>
       </c>
       <c r="E334" s="5">
         <f t="shared" si="5"/>
         <v>24051978</v>
       </c>
       <c r="F334" s="32" t="s">
-        <v>64</v>
+        <v>351</v>
       </c>
       <c r="G334" s="85"/>
       <c r="I334" s="85"/>
@@ -10486,10 +10536,10 @@
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" s="11">
-        <v>43451</v>
+        <v>43452</v>
       </c>
       <c r="B335" s="101" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C335" s="5">
         <v>0</v>
@@ -10509,41 +10559,313 @@
       <c r="K335" s="85"/>
       <c r="M335" s="85"/>
     </row>
-    <row r="336" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B336" s="98"/>
-      <c r="C336" s="99"/>
-      <c r="D336" s="99"/>
-      <c r="E336" s="99"/>
-      <c r="G336" s="100"/>
-      <c r="H336" s="100"/>
-      <c r="I336" s="100"/>
-      <c r="J336" s="100"/>
-      <c r="K336" s="100"/>
-      <c r="L336" s="100"/>
-      <c r="M336" s="100"/>
-    </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B337" s="8"/>
-      <c r="C337" s="5"/>
-      <c r="D337" s="5"/>
-      <c r="E337" s="5"/>
-    </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B338" s="9" t="s">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A336" s="11">
+        <v>43454</v>
+      </c>
+      <c r="B336" s="101" t="s">
+        <v>523</v>
+      </c>
+      <c r="C336" s="5">
+        <v>0</v>
+      </c>
+      <c r="D336" s="33">
+        <v>100000</v>
+      </c>
+      <c r="E336" s="5">
+        <f t="shared" si="5"/>
+        <v>23401978</v>
+      </c>
+      <c r="F336" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G336" s="85"/>
+      <c r="I336" s="85"/>
+      <c r="K336" s="85"/>
+      <c r="M336" s="85"/>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A337" s="11">
+        <v>43454</v>
+      </c>
+      <c r="B337" s="101" t="s">
+        <v>524</v>
+      </c>
+      <c r="C337" s="5">
+        <v>0</v>
+      </c>
+      <c r="D337" s="33">
+        <v>500000</v>
+      </c>
+      <c r="E337" s="5">
+        <f t="shared" si="5"/>
+        <v>22901978</v>
+      </c>
+      <c r="F337" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G337" s="85"/>
+      <c r="I337" s="85"/>
+      <c r="K337" s="85"/>
+      <c r="M337" s="85"/>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A338" s="11">
+        <v>43455</v>
+      </c>
+      <c r="B338" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C338" s="5">
+        <v>0</v>
+      </c>
+      <c r="D338" s="33">
+        <v>73000</v>
+      </c>
+      <c r="E338" s="5">
+        <f t="shared" si="5"/>
+        <v>22828978</v>
+      </c>
+      <c r="F338" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G338" s="85"/>
+      <c r="I338" s="85"/>
+      <c r="K338" s="85"/>
+      <c r="M338" s="85"/>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A339" s="11">
+        <v>43455</v>
+      </c>
+      <c r="B339" s="101" t="s">
+        <v>527</v>
+      </c>
+      <c r="C339" s="5">
+        <v>0</v>
+      </c>
+      <c r="D339" s="33">
+        <v>200000</v>
+      </c>
+      <c r="E339" s="5">
+        <f t="shared" si="5"/>
+        <v>22628978</v>
+      </c>
+      <c r="F339" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G339" s="85"/>
+      <c r="I339" s="85"/>
+      <c r="K339" s="85"/>
+      <c r="M339" s="85"/>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A340" s="11">
+        <v>43456</v>
+      </c>
+      <c r="B340" s="101" t="s">
+        <v>526</v>
+      </c>
+      <c r="C340" s="5">
+        <v>0</v>
+      </c>
+      <c r="D340" s="33">
+        <v>1000000</v>
+      </c>
+      <c r="E340" s="5">
+        <f t="shared" si="5"/>
+        <v>21628978</v>
+      </c>
+      <c r="F340" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G340" s="85"/>
+      <c r="I340" s="85"/>
+      <c r="K340" s="85"/>
+      <c r="M340" s="85"/>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A341" s="11">
+        <v>43456</v>
+      </c>
+      <c r="B341" s="101" t="s">
+        <v>525</v>
+      </c>
+      <c r="C341" s="5">
+        <v>0</v>
+      </c>
+      <c r="D341" s="33">
+        <v>850000</v>
+      </c>
+      <c r="E341" s="5">
+        <f t="shared" si="5"/>
+        <v>20778978</v>
+      </c>
+      <c r="F341" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G341" s="85"/>
+      <c r="I341" s="85"/>
+      <c r="K341" s="85"/>
+      <c r="M341" s="85"/>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A342" s="11">
+        <v>43456</v>
+      </c>
+      <c r="B342" s="87" t="s">
+        <v>528</v>
+      </c>
+      <c r="C342" s="5">
+        <v>0</v>
+      </c>
+      <c r="D342" s="33">
+        <v>8800</v>
+      </c>
+      <c r="E342" s="5">
+        <f t="shared" si="5"/>
+        <v>20770178</v>
+      </c>
+      <c r="F342" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G342" s="85"/>
+      <c r="I342" s="85"/>
+      <c r="K342" s="85"/>
+      <c r="M342" s="85"/>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A343" s="11">
+        <v>43456</v>
+      </c>
+      <c r="B343" s="87" t="s">
+        <v>529</v>
+      </c>
+      <c r="C343" s="5">
+        <v>0</v>
+      </c>
+      <c r="D343" s="33">
+        <v>1500000</v>
+      </c>
+      <c r="E343" s="5">
+        <f t="shared" si="5"/>
+        <v>19270178</v>
+      </c>
+      <c r="F343" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="G343" s="85"/>
+      <c r="I343" s="85"/>
+      <c r="K343" s="85"/>
+      <c r="M343" s="85"/>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A344" s="11">
+        <v>43456</v>
+      </c>
+      <c r="B344" s="87" t="s">
+        <v>531</v>
+      </c>
+      <c r="C344" s="5">
+        <v>0</v>
+      </c>
+      <c r="D344" s="33">
+        <v>55600</v>
+      </c>
+      <c r="E344" s="5">
+        <f t="shared" si="5"/>
+        <v>19214578</v>
+      </c>
+      <c r="F344" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="G344" s="85"/>
+      <c r="I344" s="85"/>
+      <c r="K344" s="85"/>
+      <c r="M344" s="85"/>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A345" s="11">
+        <v>43456</v>
+      </c>
+      <c r="B345" s="101" t="s">
+        <v>530</v>
+      </c>
+      <c r="C345" s="5">
+        <v>0</v>
+      </c>
+      <c r="D345" s="33">
+        <v>1000000</v>
+      </c>
+      <c r="E345" s="5">
+        <f t="shared" si="5"/>
+        <v>18214578</v>
+      </c>
+      <c r="F345" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G345" s="85"/>
+      <c r="I345" s="85"/>
+      <c r="K345" s="85"/>
+      <c r="M345" s="85"/>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A346" s="11">
+        <v>43455</v>
+      </c>
+      <c r="B346" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C346" s="5">
+        <v>0</v>
+      </c>
+      <c r="D346" s="33">
+        <v>284200</v>
+      </c>
+      <c r="E346" s="5">
+        <f t="shared" si="5"/>
+        <v>17930378</v>
+      </c>
+      <c r="F346" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G346" s="85"/>
+      <c r="I346" s="85"/>
+      <c r="K346" s="85"/>
+      <c r="M346" s="85"/>
+    </row>
+    <row r="347" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B347" s="98"/>
+      <c r="C347" s="99"/>
+      <c r="D347" s="99"/>
+      <c r="E347" s="99"/>
+      <c r="G347" s="100"/>
+      <c r="H347" s="100"/>
+      <c r="I347" s="100"/>
+      <c r="J347" s="100"/>
+      <c r="K347" s="100"/>
+      <c r="L347" s="100"/>
+      <c r="M347" s="100"/>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B348" s="8"/>
+      <c r="C348" s="5"/>
+      <c r="D348" s="5"/>
+      <c r="E348" s="5"/>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B349" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C338" s="10"/>
-      <c r="D338" s="10">
-        <f>SUBTOTAL(9,D24:D300)</f>
-        <v>167795677</v>
-      </c>
-      <c r="E338" s="10">
-        <f>+$E$335</f>
-        <v>23501978</v>
-      </c>
-    </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E342" s="35"/>
+      <c r="C349" s="10"/>
+      <c r="D349" s="10"/>
+      <c r="E349" s="10">
+        <f>SUM(E346:E348)</f>
+        <v>17930378</v>
+      </c>
+    </row>
+    <row r="353" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E353" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11195,7 +11517,7 @@
       <c r="H5" s="42"/>
       <c r="I5" s="50">
         <f ca="1">+C71</f>
-        <v>4120000</v>
+        <v>4150000</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -11273,7 +11595,7 @@
       <c r="H10" s="42"/>
       <c r="I10" s="50">
         <f ca="1">SUM(I4:I9)</f>
-        <v>151784000</v>
+        <v>151814000</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -11291,7 +11613,7 @@
       </c>
       <c r="I11" s="39">
         <f>+Diamante!K4</f>
-        <v>71538198</v>
+        <v>75188198</v>
       </c>
       <c r="J11" t="s">
         <v>135</v>
@@ -11333,7 +11655,7 @@
       </c>
       <c r="I13" s="39">
         <f ca="1">+I10-I11-I12</f>
-        <v>21407402</v>
+        <v>17787402</v>
       </c>
       <c r="J13" t="s">
         <v>137</v>
@@ -11790,7 +12112,7 @@
       </c>
       <c r="C56" s="93">
         <f>-(Diamante!U4)</f>
-        <v>-53910961</v>
+        <v>-54268161</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
@@ -11799,7 +12121,7 @@
       </c>
       <c r="C57" s="61">
         <f>SUM(C36:C56)</f>
-        <v>-3810961</v>
+        <v>-4168161</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
@@ -11813,7 +12135,7 @@
       </c>
       <c r="C62" s="79">
         <f ca="1">TODAY()</f>
-        <v>43453</v>
+        <v>43456</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
@@ -11846,7 +12168,7 @@
       </c>
       <c r="C68" s="1">
         <f ca="1">(300000/30)*(C62-C61)</f>
-        <v>2320000</v>
+        <v>2350000</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -11855,7 +12177,7 @@
       </c>
       <c r="C71" s="56">
         <f ca="1">SUM(C63:C68)</f>
-        <v>4120000</v>
+        <v>4150000</v>
       </c>
     </row>
   </sheetData>
@@ -11871,8 +12193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11924,7 +12246,7 @@
       </c>
       <c r="C4" s="1">
         <f>+'[1]Gabriel informe'!$B$91+6000000</f>
-        <v>25244402</v>
+        <v>21594402</v>
       </c>
       <c r="E4" s="75" t="s">
         <v>295</v>
@@ -11937,15 +12259,15 @@
         <v>179</v>
       </c>
       <c r="I4" s="113">
-        <f>Diamante!$E$338</f>
-        <v>23501978</v>
+        <f>Diamante!$E$349</f>
+        <v>17930378</v>
       </c>
       <c r="K4" s="64" t="s">
         <v>62</v>
       </c>
       <c r="L4" s="65">
         <f>+Diamante!G4</f>
-        <v>5942463</v>
+        <v>5951263</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -12084,7 +12406,7 @@
       </c>
       <c r="C14" s="54">
         <f>SUM(C4:C13)</f>
-        <v>164982068.66666666</v>
+        <v>161332068.66666666</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="51" t="s">
@@ -12100,7 +12422,7 @@
       </c>
       <c r="I14" s="54">
         <f t="shared" ref="I14" si="0">SUM(I4:I13)</f>
-        <v>23501978</v>
+        <v>17930378</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -12112,7 +12434,7 @@
       </c>
       <c r="D18" s="1">
         <f>+F14+I14-C14</f>
-        <v>142219909.33333334</v>
+        <v>140298309.33333334</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -12133,7 +12455,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f ca="1">+'Adicional 2 etapa'!C71+6000000</f>
-        <v>10120000</v>
+        <v>10150000</v>
       </c>
       <c r="B20" t="s">
         <v>425</v>
@@ -12145,7 +12467,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <f>+Diamante!G4</f>
-        <v>5942463</v>
+        <v>5951263</v>
       </c>
       <c r="B21" t="s">
         <v>426</v>
@@ -12178,16 +12500,32 @@
       </c>
       <c r="D23" s="57">
         <f>+D18-D20-D19</f>
-        <v>52219909.333333343</v>
+        <v>50298309.333333343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D24" s="1">
+        <f>+Diamante!Y4</f>
+        <v>1555600</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f ca="1">SUM(A19:A24)</f>
-        <v>53568129.666666672</v>
+        <v>53606929.666666672</v>
       </c>
       <c r="B25" t="s">
         <v>429</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D25" s="1">
+        <f>+D23+D24</f>
+        <v>51853909.333333343</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -12240,7 +12578,7 @@
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <f ca="1">SUM(A25:A35)</f>
-        <v>79368129.666666672</v>
+        <v>79406929.666666672</v>
       </c>
     </row>
   </sheetData>

--- a/informe General de pagos 2018.xlsx
+++ b/informe General de pagos 2018.xlsx
@@ -2189,13 +2189,13 @@
       <sheetData sheetId="0">
         <row r="91">
           <cell r="B91">
-            <v>15594402</v>
+            <v>21594402</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11517,7 +11517,7 @@
       <c r="H5" s="42"/>
       <c r="I5" s="50">
         <f ca="1">+C71</f>
-        <v>4150000</v>
+        <v>4160000</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -11595,7 +11595,7 @@
       <c r="H10" s="42"/>
       <c r="I10" s="50">
         <f ca="1">SUM(I4:I9)</f>
-        <v>151814000</v>
+        <v>151824000</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -11655,7 +11655,7 @@
       </c>
       <c r="I13" s="39">
         <f ca="1">+I10-I11-I12</f>
-        <v>17787402</v>
+        <v>17797402</v>
       </c>
       <c r="J13" t="s">
         <v>137</v>
@@ -12135,7 +12135,7 @@
       </c>
       <c r="C62" s="79">
         <f ca="1">TODAY()</f>
-        <v>43456</v>
+        <v>43457</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
@@ -12168,7 +12168,7 @@
       </c>
       <c r="C68" s="1">
         <f ca="1">(300000/30)*(C62-C61)</f>
-        <v>2350000</v>
+        <v>2360000</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -12177,7 +12177,7 @@
       </c>
       <c r="C71" s="56">
         <f ca="1">SUM(C63:C68)</f>
-        <v>4150000</v>
+        <v>4160000</v>
       </c>
     </row>
   </sheetData>
@@ -12246,7 +12246,7 @@
       </c>
       <c r="C4" s="1">
         <f>+'[1]Gabriel informe'!$B$91+6000000</f>
-        <v>21594402</v>
+        <v>27594402</v>
       </c>
       <c r="E4" s="75" t="s">
         <v>295</v>
@@ -12406,7 +12406,7 @@
       </c>
       <c r="C14" s="54">
         <f>SUM(C4:C13)</f>
-        <v>161332068.66666666</v>
+        <v>167332068.66666666</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="51" t="s">
@@ -12434,7 +12434,7 @@
       </c>
       <c r="D18" s="1">
         <f>+F14+I14-C14</f>
-        <v>140298309.33333334</v>
+        <v>134298309.33333334</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -12455,7 +12455,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f ca="1">+'Adicional 2 etapa'!C71+6000000</f>
-        <v>10150000</v>
+        <v>10160000</v>
       </c>
       <c r="B20" t="s">
         <v>425</v>
@@ -12500,7 +12500,7 @@
       </c>
       <c r="D23" s="57">
         <f>+D18-D20-D19</f>
-        <v>50298309.333333343</v>
+        <v>44298309.333333343</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -12515,7 +12515,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f ca="1">SUM(A19:A24)</f>
-        <v>53606929.666666672</v>
+        <v>53616929.666666672</v>
       </c>
       <c r="B25" t="s">
         <v>429</v>
@@ -12525,7 +12525,7 @@
       </c>
       <c r="D25" s="1">
         <f>+D23+D24</f>
-        <v>51853909.333333343</v>
+        <v>45853909.333333343</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -12578,7 +12578,7 @@
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <f ca="1">SUM(A25:A35)</f>
-        <v>79406929.666666672</v>
+        <v>79416929.666666672</v>
       </c>
     </row>
   </sheetData>

--- a/informe General de pagos 2018.xlsx
+++ b/informe General de pagos 2018.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Diamante" sheetId="1" r:id="rId1"/>
-    <sheet name="Papa" sheetId="2" r:id="rId2"/>
+    <sheet name="Papa" sheetId="2" r:id="rId1"/>
+    <sheet name="Diamante" sheetId="1" r:id="rId2"/>
     <sheet name="Jhon" sheetId="4" r:id="rId3"/>
     <sheet name="Adicional 2 etapa" sheetId="3" r:id="rId4"/>
     <sheet name="Informe Totales Diamante " sheetId="5" r:id="rId5"/>
@@ -18,7 +18,7 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Diamante!$A$2:$G$337</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Diamante!$F$2:$F$368</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="549">
   <si>
     <t xml:space="preserve">Tener en cuenta con eduar </t>
   </si>
@@ -1442,9 +1442,6 @@
     <t>Jhon Nomina</t>
   </si>
   <si>
-    <t>Prestamo Yelsid</t>
-  </si>
-  <si>
     <t>4xmil hasta el 2 de diciembre</t>
   </si>
   <si>
@@ -1644,6 +1641,57 @@
   </si>
   <si>
     <t>Utilidaes entregadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compra de helicoptero stiven </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilidades Socio Jhon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nomina Jhon Urgencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 x mil hasta el 26 de diciembre y cueta d emanejo </t>
+  </si>
+  <si>
+    <t>Pago de escrituras de maria soledad</t>
+  </si>
+  <si>
+    <t>Abono gabriel J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abono Gabriel para pago de nomina </t>
+  </si>
+  <si>
+    <t>tranferencia de 2100.000</t>
+  </si>
+  <si>
+    <t>Pgo de nomina tarjeta que se le entrego con 2900.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheque de maria soledad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abno Karla Giraldo </t>
+  </si>
+  <si>
+    <t>Jhon para gastos de viajes amaga</t>
+  </si>
+  <si>
+    <t>Jhon Gastos para ir amaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jhon Abono para ir amaga </t>
+  </si>
+  <si>
+    <t>Tengo</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nomina Jhon Prestamo a yelsid </t>
   </si>
 </sst>
 </file>
@@ -2189,13 +2237,13 @@
       <sheetData sheetId="0">
         <row r="91">
           <cell r="B91">
-            <v>21594402</v>
+            <v>7264402</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2464,10 +2512,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Y353"/>
+  <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>900000</v>
+      </c>
+      <c r="K5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
+        <v>210000</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2526850</v>
+      </c>
+      <c r="K8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>325000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2308000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1067000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="10">
+        <f>SUM(C3:C22)</f>
+        <v>20896850</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Y368"/>
+  <sheetViews>
+    <sheetView topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="E361" sqref="E361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2585,7 +2846,7 @@
       </c>
       <c r="G4" s="19">
         <f>SUMIF(F:F,"Diamante",D:D)</f>
-        <v>5951263</v>
+        <v>6261263</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="21">
@@ -2595,16 +2856,16 @@
       <c r="J4" s="20"/>
       <c r="K4" s="22">
         <f>SUMIF(F:F,"Milagrosa",D:D)</f>
-        <v>75188198</v>
+        <v>86388198</v>
       </c>
       <c r="L4" s="20"/>
       <c r="M4" s="23">
         <f>SUMIF(F:F,"NominaJhon",D:D)</f>
-        <v>5568000</v>
+        <v>9668000</v>
       </c>
       <c r="O4" s="92">
         <f>SUMIF(F:F,"Karla",C:C)</f>
-        <v>5200000</v>
+        <v>6500000</v>
       </c>
       <c r="Q4" s="25">
         <f>SUMIF(F:F,"Cristian",D:D)</f>
@@ -2612,7 +2873,7 @@
       </c>
       <c r="S4" s="25">
         <f>SUMIF(F:F,"Maria Soledad",C:C)</f>
-        <v>56000000</v>
+        <v>81500000</v>
       </c>
       <c r="U4" s="25">
         <f>SUMIF(F:F,"Ultima Etapa ",D:D)+(SUMIF(F:F,"MO Utlima Etapa ",D:D))</f>
@@ -2624,7 +2885,7 @@
       </c>
       <c r="Y4" s="96">
         <f>SUMIF(F:F,"Utilidades",D:D)</f>
-        <v>1555600</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -2656,7 +2917,7 @@
       <c r="Q5" s="25"/>
       <c r="S5" s="25">
         <f>+S4-82400000</f>
-        <v>-26400000</v>
+        <v>-900000</v>
       </c>
       <c r="U5" s="25"/>
       <c r="W5" s="96"/>
@@ -3133,7 +3394,7 @@
         <v>43203</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5">
@@ -3482,7 +3743,7 @@
         <v>43203</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="30">
@@ -3794,7 +4055,7 @@
         <v>43203</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C52" s="30"/>
       <c r="D52" s="30">
@@ -5017,7 +5278,7 @@
         <v>43253</v>
       </c>
       <c r="B99" s="45" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C99" s="30"/>
       <c r="D99" s="46">
@@ -5277,7 +5538,7 @@
         <v>43248</v>
       </c>
       <c r="B109" s="45" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C109" s="30"/>
       <c r="D109" s="46">
@@ -5381,7 +5642,7 @@
         <v>43248</v>
       </c>
       <c r="B113" s="45" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C113" s="30"/>
       <c r="D113" s="46">
@@ -6557,7 +6818,7 @@
         <v>43300</v>
       </c>
       <c r="B166" s="41" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="33">
@@ -7224,7 +7485,7 @@
         <v>602000</v>
       </c>
       <c r="E197" s="5">
-        <f t="shared" ref="E197:E260" si="3">+E196+C197-D197</f>
+        <f t="shared" ref="E197:E261" si="3">+E196+C197-D197</f>
         <v>8528504</v>
       </c>
       <c r="F197" s="32" t="s">
@@ -7631,7 +7892,7 @@
         <v>43379</v>
       </c>
       <c r="B215" s="101" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="33">
@@ -8068,7 +8329,7 @@
         <v>43393</v>
       </c>
       <c r="B234" s="101" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C234" s="30"/>
       <c r="D234" s="46">
@@ -8091,7 +8352,7 @@
         <v>43393</v>
       </c>
       <c r="B235" s="87" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="33">
@@ -8114,7 +8375,7 @@
         <v>43393</v>
       </c>
       <c r="B236" s="87" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C236" s="5"/>
       <c r="D236" s="33">
@@ -8137,7 +8398,7 @@
         <v>43393</v>
       </c>
       <c r="B237" s="87" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="33">
@@ -8298,7 +8559,7 @@
         <v>43393</v>
       </c>
       <c r="B244" s="87" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C244" s="5"/>
       <c r="D244" s="33">
@@ -8367,7 +8628,7 @@
         <v>43400</v>
       </c>
       <c r="B247" s="87" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C247" s="5"/>
       <c r="D247" s="33">
@@ -8698,7 +8959,7 @@
         <v>220000</v>
       </c>
       <c r="E261" s="5">
-        <f t="shared" ref="E261:E325" si="4">+E260+C261-D261</f>
+        <f t="shared" si="3"/>
         <v>-1332222</v>
       </c>
       <c r="F261" s="32" t="s">
@@ -8723,7 +8984,7 @@
         <v>0</v>
       </c>
       <c r="E262" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E262:E326" si="4">+E261+C262-D262</f>
         <v>-32222</v>
       </c>
       <c r="F262" s="32" t="s">
@@ -9264,7 +9525,7 @@
         <v>43428</v>
       </c>
       <c r="B284" s="87" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C284" s="5">
         <v>0</v>
@@ -9364,7 +9625,7 @@
         <v>43428</v>
       </c>
       <c r="B288" s="87" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C288" s="5">
         <v>0</v>
@@ -9414,7 +9675,7 @@
         <v>43430</v>
       </c>
       <c r="B290" s="87" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C290" s="5">
         <v>0</v>
@@ -9514,7 +9775,7 @@
         <v>43433</v>
       </c>
       <c r="B294" s="87" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C294" s="5">
         <v>0</v>
@@ -9539,20 +9800,20 @@
         <v>43434</v>
       </c>
       <c r="B295" s="87" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C295" s="5">
         <v>0</v>
       </c>
       <c r="D295" s="33">
-        <v>500000</v>
+        <v>516318</v>
       </c>
       <c r="E295" s="5">
         <f t="shared" si="4"/>
-        <v>23173421</v>
+        <v>23157103</v>
       </c>
       <c r="F295" s="32" t="s">
-        <v>63</v>
+        <v>351</v>
       </c>
       <c r="G295" s="85"/>
       <c r="I295" s="85"/>
@@ -9561,23 +9822,23 @@
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="11">
-        <v>43434</v>
+        <v>43435</v>
       </c>
       <c r="B296" s="87" t="s">
-        <v>460</v>
+        <v>548</v>
       </c>
       <c r="C296" s="5">
         <v>0</v>
       </c>
       <c r="D296" s="33">
-        <v>516318</v>
+        <v>500000</v>
       </c>
       <c r="E296" s="5">
         <f t="shared" si="4"/>
         <v>22657103</v>
       </c>
       <c r="F296" s="32" t="s">
-        <v>351</v>
+        <v>63</v>
       </c>
       <c r="G296" s="85"/>
       <c r="I296" s="85"/>
@@ -9589,7 +9850,7 @@
         <v>43435</v>
       </c>
       <c r="B297" s="87" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C297" s="5">
         <v>0</v>
@@ -9614,7 +9875,7 @@
         <v>43435</v>
       </c>
       <c r="B298" s="87" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C298" s="5">
         <v>0</v>
@@ -9639,7 +9900,7 @@
         <v>43435</v>
       </c>
       <c r="B299" s="87" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C299" s="5">
         <v>0</v>
@@ -9664,7 +9925,7 @@
         <v>43436</v>
       </c>
       <c r="B300" s="87" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C300" s="5">
         <v>0</v>
@@ -9689,7 +9950,7 @@
         <v>43437</v>
       </c>
       <c r="B301" s="97" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C301" s="5">
         <v>0</v>
@@ -9714,7 +9975,7 @@
         <v>43437</v>
       </c>
       <c r="B302" s="97" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C302" s="5">
         <v>0</v>
@@ -9739,7 +10000,7 @@
         <v>43438</v>
       </c>
       <c r="B303" s="101" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C303" s="5">
         <v>0</v>
@@ -9764,7 +10025,7 @@
         <v>43438</v>
       </c>
       <c r="B304" s="97" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C304" s="5">
         <v>0</v>
@@ -9789,7 +10050,7 @@
         <v>43438</v>
       </c>
       <c r="B305" s="101" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C305" s="5">
         <v>0</v>
@@ -9814,7 +10075,7 @@
         <v>43439</v>
       </c>
       <c r="B306" s="97" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C306" s="5">
         <v>0</v>
@@ -9839,7 +10100,7 @@
         <v>43439</v>
       </c>
       <c r="B307" s="97" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C307" s="5">
         <v>0</v>
@@ -9864,7 +10125,7 @@
         <v>43439</v>
       </c>
       <c r="B308" s="97" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C308" s="5">
         <v>0</v>
@@ -9889,7 +10150,7 @@
         <v>43440</v>
       </c>
       <c r="B309" s="87" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C309" s="5">
         <v>0</v>
@@ -9914,7 +10175,7 @@
         <v>43440</v>
       </c>
       <c r="B310" s="101" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C310" s="5">
         <v>0</v>
@@ -9939,7 +10200,7 @@
         <v>43440</v>
       </c>
       <c r="B311" s="101" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C311" s="5">
         <v>0</v>
@@ -9964,7 +10225,7 @@
         <v>43441</v>
       </c>
       <c r="B312" s="101" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C312" s="5">
         <v>0</v>
@@ -9989,7 +10250,7 @@
         <v>43441</v>
       </c>
       <c r="B313" s="101" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C313" s="5">
         <v>0</v>
@@ -10014,7 +10275,7 @@
         <v>43442</v>
       </c>
       <c r="B314" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C314" s="5">
         <v>0</v>
@@ -10039,7 +10300,7 @@
         <v>43442</v>
       </c>
       <c r="B315" s="87" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C315" s="5">
         <v>0</v>
@@ -10064,7 +10325,7 @@
         <v>43442</v>
       </c>
       <c r="B316" s="87" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C316" s="5">
         <v>0</v>
@@ -10114,7 +10375,7 @@
         <v>43445</v>
       </c>
       <c r="B318" s="101" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C318" s="5">
         <v>0</v>
@@ -10139,7 +10400,7 @@
         <v>43445</v>
       </c>
       <c r="B319" s="101" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C319" s="5">
         <v>0</v>
@@ -10164,7 +10425,7 @@
         <v>43445</v>
       </c>
       <c r="B320" s="101" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C320" s="5">
         <v>0</v>
@@ -10189,7 +10450,7 @@
         <v>43445</v>
       </c>
       <c r="B321" s="101" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C321" s="5">
         <v>0</v>
@@ -10214,7 +10475,7 @@
         <v>43444</v>
       </c>
       <c r="B322" s="101" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C322" s="5">
         <v>0</v>
@@ -10239,7 +10500,7 @@
         <v>43449</v>
       </c>
       <c r="B323" s="101" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C323" s="5">
         <v>0</v>
@@ -10264,7 +10525,7 @@
         <v>43449</v>
       </c>
       <c r="B324" s="87" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C324" s="5">
         <v>0</v>
@@ -10289,7 +10550,7 @@
         <v>43449</v>
       </c>
       <c r="B325" s="87" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C325" s="5">
         <v>0</v>
@@ -10314,7 +10575,7 @@
         <v>43449</v>
       </c>
       <c r="B326" s="87" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C326" s="5">
         <v>0</v>
@@ -10323,7 +10584,7 @@
         <v>2022480</v>
       </c>
       <c r="E326" s="5">
-        <f t="shared" ref="E326:E346" si="5">+E325+C326-D326</f>
+        <f t="shared" si="4"/>
         <v>27106103</v>
       </c>
       <c r="F326" s="32" t="s">
@@ -10339,7 +10600,7 @@
         <v>43449</v>
       </c>
       <c r="B327" s="87" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C327" s="5">
         <v>0</v>
@@ -10348,7 +10609,7 @@
         <v>180000</v>
       </c>
       <c r="E327" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E327:E361" si="5">+E326+C327-D327</f>
         <v>26926103</v>
       </c>
       <c r="F327" s="32" t="s">
@@ -10364,7 +10625,7 @@
         <v>43449</v>
       </c>
       <c r="B328" s="87" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C328" s="5">
         <v>0</v>
@@ -10389,7 +10650,7 @@
         <v>43450</v>
       </c>
       <c r="B329" s="101" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C329" s="5">
         <v>0</v>
@@ -10414,7 +10675,7 @@
         <v>43451</v>
       </c>
       <c r="B330" s="87" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C330" s="5">
         <v>0</v>
@@ -10439,7 +10700,7 @@
         <v>43451</v>
       </c>
       <c r="B331" s="87" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C331" s="5">
         <v>0</v>
@@ -10464,20 +10725,20 @@
         <v>43451</v>
       </c>
       <c r="B332" s="87" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="C332" s="5">
         <v>0</v>
       </c>
       <c r="D332" s="33">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="E332" s="5">
         <f t="shared" si="5"/>
-        <v>24985378</v>
+        <v>25185378</v>
       </c>
       <c r="F332" s="32" t="s">
-        <v>351</v>
+        <v>63</v>
       </c>
       <c r="G332" s="85"/>
       <c r="I332" s="85"/>
@@ -10488,21 +10749,21 @@
       <c r="A333" s="11">
         <v>43451</v>
       </c>
-      <c r="B333" s="101" t="s">
-        <v>521</v>
+      <c r="B333" s="87" t="s">
+        <v>515</v>
       </c>
       <c r="C333" s="5">
         <v>0</v>
       </c>
       <c r="D333" s="33">
-        <v>600000</v>
+        <v>400000</v>
       </c>
       <c r="E333" s="5">
         <f t="shared" si="5"/>
-        <v>24385378</v>
+        <v>24785378</v>
       </c>
       <c r="F333" s="32" t="s">
-        <v>64</v>
+        <v>351</v>
       </c>
       <c r="G333" s="85"/>
       <c r="I333" s="85"/>
@@ -10513,21 +10774,21 @@
       <c r="A334" s="11">
         <v>43451</v>
       </c>
-      <c r="B334" s="87" t="s">
-        <v>94</v>
+      <c r="B334" s="101" t="s">
+        <v>520</v>
       </c>
       <c r="C334" s="5">
         <v>0</v>
       </c>
       <c r="D334" s="33">
-        <v>333400</v>
+        <v>600000</v>
       </c>
       <c r="E334" s="5">
         <f t="shared" si="5"/>
-        <v>24051978</v>
+        <v>24185378</v>
       </c>
       <c r="F334" s="32" t="s">
-        <v>351</v>
+        <v>64</v>
       </c>
       <c r="G334" s="85"/>
       <c r="I334" s="85"/>
@@ -10536,23 +10797,23 @@
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" s="11">
-        <v>43452</v>
-      </c>
-      <c r="B335" s="101" t="s">
-        <v>522</v>
+        <v>43451</v>
+      </c>
+      <c r="B335" s="87" t="s">
+        <v>94</v>
       </c>
       <c r="C335" s="5">
         <v>0</v>
       </c>
       <c r="D335" s="33">
-        <v>550000</v>
+        <v>333400</v>
       </c>
       <c r="E335" s="5">
         <f t="shared" si="5"/>
-        <v>23501978</v>
+        <v>23851978</v>
       </c>
       <c r="F335" s="32" t="s">
-        <v>64</v>
+        <v>351</v>
       </c>
       <c r="G335" s="85"/>
       <c r="I335" s="85"/>
@@ -10561,20 +10822,20 @@
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" s="11">
-        <v>43454</v>
+        <v>43452</v>
       </c>
       <c r="B336" s="101" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C336" s="5">
         <v>0</v>
       </c>
       <c r="D336" s="33">
-        <v>100000</v>
+        <v>550000</v>
       </c>
       <c r="E336" s="5">
         <f t="shared" si="5"/>
-        <v>23401978</v>
+        <v>23301978</v>
       </c>
       <c r="F336" s="32" t="s">
         <v>64</v>
@@ -10589,17 +10850,17 @@
         <v>43454</v>
       </c>
       <c r="B337" s="101" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C337" s="5">
         <v>0</v>
       </c>
       <c r="D337" s="33">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="E337" s="5">
         <f t="shared" si="5"/>
-        <v>22901978</v>
+        <v>23201978</v>
       </c>
       <c r="F337" s="32" t="s">
         <v>64</v>
@@ -10611,23 +10872,23 @@
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" s="11">
-        <v>43455</v>
-      </c>
-      <c r="B338" s="87" t="s">
-        <v>94</v>
+        <v>43454</v>
+      </c>
+      <c r="B338" s="101" t="s">
+        <v>523</v>
       </c>
       <c r="C338" s="5">
         <v>0</v>
       </c>
       <c r="D338" s="33">
-        <v>73000</v>
+        <v>500000</v>
       </c>
       <c r="E338" s="5">
         <f t="shared" si="5"/>
-        <v>22828978</v>
+        <v>22701978</v>
       </c>
       <c r="F338" s="32" t="s">
-        <v>351</v>
+        <v>64</v>
       </c>
       <c r="G338" s="85"/>
       <c r="I338" s="85"/>
@@ -10636,10 +10897,10 @@
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" s="11">
-        <v>43455</v>
+        <v>43454</v>
       </c>
       <c r="B339" s="101" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="C339" s="5">
         <v>0</v>
@@ -10649,10 +10910,10 @@
       </c>
       <c r="E339" s="5">
         <f t="shared" si="5"/>
-        <v>22628978</v>
+        <v>22501978</v>
       </c>
       <c r="F339" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G339" s="85"/>
       <c r="I339" s="85"/>
@@ -10661,23 +10922,23 @@
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" s="11">
-        <v>43456</v>
-      </c>
-      <c r="B340" s="101" t="s">
-        <v>526</v>
+        <v>43455</v>
+      </c>
+      <c r="B340" s="87" t="s">
+        <v>94</v>
       </c>
       <c r="C340" s="5">
         <v>0</v>
       </c>
       <c r="D340" s="33">
-        <v>1000000</v>
+        <v>73000</v>
       </c>
       <c r="E340" s="5">
         <f t="shared" si="5"/>
-        <v>21628978</v>
+        <v>22428978</v>
       </c>
       <c r="F340" s="32" t="s">
-        <v>64</v>
+        <v>351</v>
       </c>
       <c r="G340" s="85"/>
       <c r="I340" s="85"/>
@@ -10686,20 +10947,20 @@
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" s="11">
-        <v>43456</v>
+        <v>43455</v>
       </c>
       <c r="B341" s="101" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C341" s="5">
         <v>0</v>
       </c>
       <c r="D341" s="33">
-        <v>850000</v>
+        <v>200000</v>
       </c>
       <c r="E341" s="5">
         <f t="shared" si="5"/>
-        <v>20778978</v>
+        <v>22228978</v>
       </c>
       <c r="F341" s="32" t="s">
         <v>64</v>
@@ -10713,21 +10974,21 @@
       <c r="A342" s="11">
         <v>43456</v>
       </c>
-      <c r="B342" s="87" t="s">
-        <v>528</v>
+      <c r="B342" s="101" t="s">
+        <v>525</v>
       </c>
       <c r="C342" s="5">
         <v>0</v>
       </c>
       <c r="D342" s="33">
-        <v>8800</v>
+        <v>1000000</v>
       </c>
       <c r="E342" s="5">
         <f t="shared" si="5"/>
-        <v>20770178</v>
+        <v>21228978</v>
       </c>
       <c r="F342" s="32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G342" s="85"/>
       <c r="I342" s="85"/>
@@ -10738,21 +10999,21 @@
       <c r="A343" s="11">
         <v>43456</v>
       </c>
-      <c r="B343" s="87" t="s">
-        <v>529</v>
+      <c r="B343" s="101" t="s">
+        <v>524</v>
       </c>
       <c r="C343" s="5">
         <v>0</v>
       </c>
       <c r="D343" s="33">
-        <v>1500000</v>
+        <v>850000</v>
       </c>
       <c r="E343" s="5">
         <f t="shared" si="5"/>
-        <v>19270178</v>
+        <v>20378978</v>
       </c>
       <c r="F343" s="32" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="G343" s="85"/>
       <c r="I343" s="85"/>
@@ -10764,20 +11025,20 @@
         <v>43456</v>
       </c>
       <c r="B344" s="87" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C344" s="5">
         <v>0</v>
       </c>
       <c r="D344" s="33">
-        <v>55600</v>
+        <v>8800</v>
       </c>
       <c r="E344" s="5">
         <f t="shared" si="5"/>
-        <v>19214578</v>
+        <v>20370178</v>
       </c>
       <c r="F344" s="32" t="s">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="G344" s="85"/>
       <c r="I344" s="85"/>
@@ -10788,21 +11049,21 @@
       <c r="A345" s="11">
         <v>43456</v>
       </c>
-      <c r="B345" s="101" t="s">
-        <v>530</v>
+      <c r="B345" s="87" t="s">
+        <v>528</v>
       </c>
       <c r="C345" s="5">
         <v>0</v>
       </c>
       <c r="D345" s="33">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E345" s="5">
         <f t="shared" si="5"/>
-        <v>18214578</v>
+        <v>18870178</v>
       </c>
       <c r="F345" s="32" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="G345" s="85"/>
       <c r="I345" s="85"/>
@@ -10811,61 +11072,437 @@
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" s="11">
-        <v>43455</v>
+        <v>43456</v>
       </c>
       <c r="B346" s="87" t="s">
-        <v>94</v>
+        <v>530</v>
       </c>
       <c r="C346" s="5">
         <v>0</v>
       </c>
       <c r="D346" s="33">
-        <v>284200</v>
+        <v>55600</v>
       </c>
       <c r="E346" s="5">
         <f t="shared" si="5"/>
-        <v>17930378</v>
+        <v>18814578</v>
       </c>
       <c r="F346" s="32" t="s">
-        <v>351</v>
+        <v>182</v>
       </c>
       <c r="G346" s="85"/>
       <c r="I346" s="85"/>
       <c r="K346" s="85"/>
       <c r="M346" s="85"/>
     </row>
-    <row r="347" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B347" s="98"/>
-      <c r="C347" s="99"/>
-      <c r="D347" s="99"/>
-      <c r="E347" s="99"/>
-      <c r="G347" s="100"/>
-      <c r="H347" s="100"/>
-      <c r="I347" s="100"/>
-      <c r="J347" s="100"/>
-      <c r="K347" s="100"/>
-      <c r="L347" s="100"/>
-      <c r="M347" s="100"/>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A347" s="11">
+        <v>43456</v>
+      </c>
+      <c r="B347" s="87" t="s">
+        <v>530</v>
+      </c>
+      <c r="C347" s="5">
+        <v>0</v>
+      </c>
+      <c r="D347" s="33">
+        <f>1500000-D346</f>
+        <v>1444400</v>
+      </c>
+      <c r="E347" s="5">
+        <f t="shared" si="5"/>
+        <v>17370178</v>
+      </c>
+      <c r="F347" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="G347" s="85"/>
+      <c r="I347" s="85"/>
+      <c r="K347" s="85"/>
+      <c r="M347" s="85"/>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B348" s="8"/>
-      <c r="C348" s="5"/>
-      <c r="D348" s="5"/>
-      <c r="E348" s="5"/>
+      <c r="A348" s="11">
+        <v>43456</v>
+      </c>
+      <c r="B348" s="101" t="s">
+        <v>529</v>
+      </c>
+      <c r="C348" s="5">
+        <v>0</v>
+      </c>
+      <c r="D348" s="33">
+        <v>1000000</v>
+      </c>
+      <c r="E348" s="5">
+        <f t="shared" si="5"/>
+        <v>16370178</v>
+      </c>
+      <c r="F348" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G348" s="85"/>
+      <c r="I348" s="85"/>
+      <c r="K348" s="85"/>
+      <c r="M348" s="85"/>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B349" s="9" t="s">
+      <c r="A349" s="11">
+        <v>43455</v>
+      </c>
+      <c r="B349" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C349" s="5">
+        <v>0</v>
+      </c>
+      <c r="D349" s="33">
+        <v>284200</v>
+      </c>
+      <c r="E349" s="5">
+        <f t="shared" si="5"/>
+        <v>16085978</v>
+      </c>
+      <c r="F349" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G349" s="85"/>
+      <c r="I349" s="85"/>
+      <c r="K349" s="85"/>
+      <c r="M349" s="85"/>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A350" s="11">
+        <v>43455</v>
+      </c>
+      <c r="B350" s="87" t="s">
+        <v>532</v>
+      </c>
+      <c r="C350" s="5">
+        <v>0</v>
+      </c>
+      <c r="D350" s="33">
+        <v>200000</v>
+      </c>
+      <c r="E350" s="5">
+        <f t="shared" si="5"/>
+        <v>15885978</v>
+      </c>
+      <c r="F350" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G350" s="85"/>
+      <c r="I350" s="85"/>
+      <c r="K350" s="85"/>
+      <c r="M350" s="85"/>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A351" s="11">
+        <v>43464</v>
+      </c>
+      <c r="B351" s="87" t="s">
+        <v>540</v>
+      </c>
+      <c r="C351" s="5">
+        <v>0</v>
+      </c>
+      <c r="D351" s="33">
+        <v>2900000</v>
+      </c>
+      <c r="E351" s="5">
+        <f t="shared" si="5"/>
+        <v>12985978</v>
+      </c>
+      <c r="F351" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G351" s="85"/>
+      <c r="I351" s="85"/>
+      <c r="K351" s="85"/>
+      <c r="M351" s="85"/>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A352" s="11">
+        <v>43464</v>
+      </c>
+      <c r="B352" s="87" t="s">
+        <v>533</v>
+      </c>
+      <c r="C352" s="5">
+        <v>0</v>
+      </c>
+      <c r="D352" s="33">
+        <v>1500000</v>
+      </c>
+      <c r="E352" s="5">
+        <f t="shared" si="5"/>
+        <v>11485978</v>
+      </c>
+      <c r="F352" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="G352" s="85"/>
+      <c r="I352" s="85"/>
+      <c r="K352" s="85"/>
+      <c r="M352" s="85"/>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A353" s="11">
+        <v>43464</v>
+      </c>
+      <c r="B353" s="87" t="s">
+        <v>534</v>
+      </c>
+      <c r="C353" s="5">
+        <v>0</v>
+      </c>
+      <c r="D353" s="33">
+        <v>3500000</v>
+      </c>
+      <c r="E353" s="5">
+        <f t="shared" si="5"/>
+        <v>7985978</v>
+      </c>
+      <c r="F353" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G353" s="85"/>
+      <c r="I353" s="85"/>
+      <c r="K353" s="85"/>
+      <c r="M353" s="85"/>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A354" s="11">
+        <v>43464</v>
+      </c>
+      <c r="B354" s="87" t="s">
+        <v>537</v>
+      </c>
+      <c r="C354" s="5">
+        <v>0</v>
+      </c>
+      <c r="D354" s="33">
+        <v>6000000</v>
+      </c>
+      <c r="E354" s="5">
+        <f t="shared" si="5"/>
+        <v>1985978</v>
+      </c>
+      <c r="F354" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G354" s="85"/>
+      <c r="I354" s="85"/>
+      <c r="K354" s="85"/>
+      <c r="M354" s="85"/>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A355" s="11">
+        <v>43464</v>
+      </c>
+      <c r="B355" s="87" t="s">
+        <v>538</v>
+      </c>
+      <c r="C355" s="5">
+        <v>0</v>
+      </c>
+      <c r="D355" s="33">
+        <v>0</v>
+      </c>
+      <c r="E355" s="5">
+        <f t="shared" si="5"/>
+        <v>1985978</v>
+      </c>
+      <c r="F355" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G355" s="85"/>
+      <c r="I355" s="85"/>
+      <c r="K355" s="85"/>
+      <c r="M355" s="85"/>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A356" s="11">
+        <v>43464</v>
+      </c>
+      <c r="B356" s="87" t="s">
+        <v>535</v>
+      </c>
+      <c r="C356" s="5">
+        <v>0</v>
+      </c>
+      <c r="D356" s="33">
+        <v>150000</v>
+      </c>
+      <c r="E356" s="5">
+        <f t="shared" si="5"/>
+        <v>1835978</v>
+      </c>
+      <c r="F356" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G356" s="85"/>
+      <c r="I356" s="85"/>
+      <c r="K356" s="85"/>
+      <c r="M356" s="85"/>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A357" s="11">
+        <v>43464</v>
+      </c>
+      <c r="B357" s="87" t="s">
+        <v>536</v>
+      </c>
+      <c r="C357" s="5">
+        <v>0</v>
+      </c>
+      <c r="D357" s="33">
+        <v>160000</v>
+      </c>
+      <c r="E357" s="5">
+        <f t="shared" si="5"/>
+        <v>1675978</v>
+      </c>
+      <c r="F357" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G357" s="85"/>
+      <c r="I357" s="85"/>
+      <c r="K357" s="85"/>
+      <c r="M357" s="85"/>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A358" s="11">
+        <v>43470</v>
+      </c>
+      <c r="B358" s="87" t="s">
+        <v>543</v>
+      </c>
+      <c r="C358" s="5">
+        <v>0</v>
+      </c>
+      <c r="D358" s="33">
+        <v>200000</v>
+      </c>
+      <c r="E358" s="5">
+        <f t="shared" si="5"/>
+        <v>1475978</v>
+      </c>
+      <c r="F358" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G358" s="85"/>
+      <c r="I358" s="85"/>
+      <c r="K358" s="85"/>
+      <c r="M358" s="85"/>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A359" s="11">
+        <v>43470</v>
+      </c>
+      <c r="B359" s="87" t="s">
+        <v>539</v>
+      </c>
+      <c r="C359" s="5">
+        <v>0</v>
+      </c>
+      <c r="D359" s="33">
+        <v>2100000</v>
+      </c>
+      <c r="E359" s="5">
+        <f t="shared" si="5"/>
+        <v>-624022</v>
+      </c>
+      <c r="F359" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G359" s="85"/>
+      <c r="I359" s="85"/>
+      <c r="K359" s="85"/>
+      <c r="M359" s="85"/>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A360" s="11">
+        <v>43470</v>
+      </c>
+      <c r="B360" s="87" t="s">
+        <v>541</v>
+      </c>
+      <c r="C360" s="5">
+        <v>25500000</v>
+      </c>
+      <c r="D360" s="33">
+        <v>0</v>
+      </c>
+      <c r="E360" s="5">
+        <f t="shared" si="5"/>
+        <v>24875978</v>
+      </c>
+      <c r="F360" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="G360" s="85"/>
+      <c r="I360" s="85"/>
+      <c r="K360" s="85"/>
+      <c r="M360" s="85"/>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A361" s="11">
+        <v>43470</v>
+      </c>
+      <c r="B361" s="87" t="s">
+        <v>542</v>
+      </c>
+      <c r="C361" s="69">
+        <v>1300000</v>
+      </c>
+      <c r="D361" s="33">
+        <v>0</v>
+      </c>
+      <c r="E361" s="5">
+        <f t="shared" si="5"/>
+        <v>26175978</v>
+      </c>
+      <c r="F361" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G361" s="85"/>
+      <c r="I361" s="85"/>
+      <c r="K361" s="85"/>
+      <c r="M361" s="85"/>
+    </row>
+    <row r="362" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B362" s="98"/>
+      <c r="C362" s="99"/>
+      <c r="D362" s="99"/>
+      <c r="E362" s="99"/>
+      <c r="G362" s="100"/>
+      <c r="H362" s="100"/>
+      <c r="I362" s="100"/>
+      <c r="J362" s="100"/>
+      <c r="K362" s="100"/>
+      <c r="L362" s="100"/>
+      <c r="M362" s="100"/>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B363" s="8"/>
+      <c r="C363" s="5"/>
+      <c r="D363" s="5"/>
+      <c r="E363" s="5"/>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B364" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C349" s="10"/>
-      <c r="D349" s="10"/>
-      <c r="E349" s="10">
-        <f>SUM(E346:E348)</f>
-        <v>17930378</v>
-      </c>
-    </row>
-    <row r="353" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E353" s="35"/>
+      <c r="C364" s="10"/>
+      <c r="D364" s="10"/>
+      <c r="E364" s="10">
+        <f>SUM(E361)</f>
+        <v>26175978</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E368" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10876,225 +11513,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5">
-        <v>900000</v>
-      </c>
-      <c r="K5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2000000</v>
-      </c>
-      <c r="K6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5">
-        <v>210000</v>
-      </c>
-      <c r="K7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2526850</v>
-      </c>
-      <c r="K8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="5">
-        <v>325000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5">
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2308000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="5">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="5">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="5">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="5">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="5">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1067000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="10">
-        <f>SUM(C3:C22)</f>
-        <v>20896850</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11380,37 +11804,43 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="108" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19" s="39">
+        <v>600000</v>
+      </c>
+      <c r="C19" s="39">
+        <v>60000</v>
+      </c>
+      <c r="D19" s="81">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="108" t="s">
         <v>281</v>
       </c>
-      <c r="B23" s="108"/>
-      <c r="C23" s="39">
-        <f>SUM(B2:C22)</f>
-        <v>11065000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="110" t="s">
+      <c r="B24" s="108"/>
+      <c r="C24" s="39">
+        <f>SUM(B2:C23)</f>
+        <v>11725000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="110" t="s">
         <v>302</v>
       </c>
-      <c r="B24" s="110"/>
-      <c r="C24" s="50">
-        <f>+C23-'Informe Totales Diamante '!L5</f>
-        <v>5497000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>303</v>
-      </c>
-      <c r="C25" s="39">
-        <v>6000000</v>
+      <c r="B25" s="110"/>
+      <c r="C25" s="50">
+        <f>+C24-'Informe Totales Diamante '!L5</f>
+        <v>2057000</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C26" s="39">
         <v>0</v>
@@ -11418,39 +11848,47 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C27" s="39">
-        <v>15000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>404</v>
+        <v>305</v>
       </c>
       <c r="C28" s="39">
-        <v>-5000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>404</v>
+      </c>
+      <c r="C29" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>405</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C30" s="39">
         <v>-3000000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="39">
-        <f>SUM(C24:C29)</f>
-        <v>18497000</v>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="39">
+        <f>SUM(C25:C30)</f>
+        <v>14057000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="E2:E8"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11517,7 +11955,7 @@
       <c r="H5" s="42"/>
       <c r="I5" s="50">
         <f ca="1">+C71</f>
-        <v>4160000</v>
+        <v>4340000</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -11595,7 +12033,7 @@
       <c r="H10" s="42"/>
       <c r="I10" s="50">
         <f ca="1">SUM(I4:I9)</f>
-        <v>151824000</v>
+        <v>152004000</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -11613,7 +12051,7 @@
       </c>
       <c r="I11" s="39">
         <f>+Diamante!K4</f>
-        <v>75188198</v>
+        <v>86388198</v>
       </c>
       <c r="J11" t="s">
         <v>135</v>
@@ -11655,7 +12093,7 @@
       </c>
       <c r="I13" s="39">
         <f ca="1">+I10-I11-I12</f>
-        <v>17797402</v>
+        <v>6777402</v>
       </c>
       <c r="J13" t="s">
         <v>137</v>
@@ -12135,7 +12573,7 @@
       </c>
       <c r="C62" s="79">
         <f ca="1">TODAY()</f>
-        <v>43457</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
@@ -12168,7 +12606,7 @@
       </c>
       <c r="C68" s="1">
         <f ca="1">(300000/30)*(C62-C61)</f>
-        <v>2360000</v>
+        <v>2540000</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -12177,7 +12615,7 @@
       </c>
       <c r="C71" s="56">
         <f ca="1">SUM(C63:C68)</f>
-        <v>4160000</v>
+        <v>4340000</v>
       </c>
     </row>
   </sheetData>
@@ -12193,8 +12631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12218,7 +12656,8 @@
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="63">
-        <v>43438</v>
+        <f ca="1">TODAY()</f>
+        <v>43475</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -12245,29 +12684,28 @@
         <v>172</v>
       </c>
       <c r="C4" s="1">
-        <f>+'[1]Gabriel informe'!$B$91+6000000</f>
-        <v>27594402</v>
+        <f>+'[1]Gabriel informe'!$B$91</f>
+        <v>7264402</v>
       </c>
       <c r="E4" s="75" t="s">
         <v>295</v>
       </c>
       <c r="F4" s="76">
-        <f>78000000+2400000-Diamante!S4</f>
-        <v>24400000</v>
+        <v>0</v>
       </c>
       <c r="H4" s="111" t="s">
         <v>179</v>
       </c>
       <c r="I4" s="113">
-        <f>Diamante!$E$349</f>
-        <v>17930378</v>
+        <f>Diamante!$E$364</f>
+        <v>26175978</v>
       </c>
       <c r="K4" s="64" t="s">
         <v>62</v>
       </c>
       <c r="L4" s="65">
         <f>+Diamante!G4</f>
-        <v>5951263</v>
+        <v>6261263</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -12293,7 +12731,7 @@
       </c>
       <c r="L5" s="65">
         <f>+Diamante!M4</f>
-        <v>5568000</v>
+        <v>9668000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -12304,8 +12742,8 @@
         <v>42811</v>
       </c>
       <c r="C6" s="53">
-        <f>((20000000*2%)/30)*_xlfn.DAYS($C$1,B6)</f>
-        <v>8360000</v>
+        <f ca="1">((20000000*2%)/30)*_xlfn.DAYS($C$1,B6)</f>
+        <v>8853333.333333334</v>
       </c>
       <c r="D6" s="1">
         <f>((20000000*2%)/30)*30</f>
@@ -12334,15 +12772,15 @@
         <v>42885</v>
       </c>
       <c r="C7" s="53">
-        <f>((10000000*2%)/30)*_xlfn.DAYS($C$1,B7)</f>
-        <v>3686666.666666667</v>
+        <f ca="1">((10000000*2%)/30)*_xlfn.DAYS($C$1,B7)</f>
+        <v>3933333.3333333335</v>
       </c>
       <c r="D7" s="1">
         <f>((10000000*2%)/30)*30</f>
         <v>200000</v>
       </c>
       <c r="E7" s="75" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F7" s="77">
         <f>74000000-(SUMIF(Diamante!F:F,"Ana",Diamante!C:C))</f>
@@ -12358,19 +12796,19 @@
         <v>43194</v>
       </c>
       <c r="C8" s="105">
-        <f>((77000000*1.5%)/30)*_xlfn.DAYS($C$1,B8)</f>
-        <v>9394000</v>
+        <f ca="1">((77000000*1.5%)/30)*_xlfn.DAYS($C$1,B8)</f>
+        <v>10818500</v>
       </c>
       <c r="D8" s="1">
         <f>((77000000*1.5%)/30)*30</f>
         <v>1155000</v>
       </c>
       <c r="E8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F8" s="77">
         <f>84900000-(SUMIF(Diamante!F:F,"Karla",Diamante!C:C))-2000000</f>
-        <v>77700000</v>
+        <v>76400000</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -12393,20 +12831,20 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C11" s="1">
-        <f>+Jhon!C24</f>
-        <v>5497000</v>
+        <f>+Jhon!C25</f>
+        <v>2057000</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C14" s="54">
-        <f>SUM(C4:C13)</f>
-        <v>167332068.66666666</v>
+        <f ca="1">SUM(C4:C13)</f>
+        <v>145726568.66666666</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="51" t="s">
@@ -12414,7 +12852,7 @@
       </c>
       <c r="F14" s="54">
         <f>SUM(F4:F13)</f>
-        <v>283700000</v>
+        <v>258000000</v>
       </c>
       <c r="G14" s="52"/>
       <c r="H14" s="51" t="s">
@@ -12422,10 +12860,27 @@
       </c>
       <c r="I14" s="54">
         <f t="shared" ref="I14" si="0">SUM(I4:I13)</f>
-        <v>17930378</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26175978</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>546</v>
+      </c>
+      <c r="I16" s="1">
+        <v>25400000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>547</v>
+      </c>
+      <c r="I17" s="1">
+        <f>+I16-I14</f>
+        <v>-775978</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>423</v>
       </c>
@@ -12433,14 +12888,14 @@
         <v>180</v>
       </c>
       <c r="D18" s="1">
-        <f>+F14+I14-C14</f>
-        <v>134298309.33333334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <f ca="1">+F14+I14-C14</f>
+        <v>138449409.33333334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f>+C8+C7+C6</f>
-        <v>21440666.666666668</v>
+        <f ca="1">+C8+C7+C6</f>
+        <v>23605166.666666668</v>
       </c>
       <c r="B19" t="s">
         <v>424</v>
@@ -12452,10 +12907,10 @@
         <v>90000000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f ca="1">+'Adicional 2 etapa'!C71+6000000</f>
-        <v>10160000</v>
+        <v>10340000</v>
       </c>
       <c r="B20" t="s">
         <v>425</v>
@@ -12464,10 +12919,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <f>+Diamante!G4</f>
-        <v>5951263</v>
+        <v>6261263</v>
       </c>
       <c r="B21" t="s">
         <v>426</v>
@@ -12476,10 +12931,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
-        <f>+Jhon!C23</f>
-        <v>11065000</v>
+        <f>+Jhon!C24</f>
+        <v>11725000</v>
       </c>
       <c r="B22" t="s">
         <v>427</v>
@@ -12488,7 +12943,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>5000000</v>
       </c>
@@ -12499,86 +12954,86 @@
         <v>182</v>
       </c>
       <c r="D23" s="57">
-        <f>+D18-D20-D19</f>
-        <v>44298309.333333343</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <f ca="1">+D18-D20-D19</f>
+        <v>48449409.333333343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D24" s="1">
         <f>+Diamante!Y4</f>
-        <v>1555600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f ca="1">SUM(A19:A24)</f>
-        <v>53616929.666666672</v>
+        <v>56931429.666666672</v>
       </c>
       <c r="B25" t="s">
         <v>429</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="43" t="s">
         <v>340</v>
       </c>
-      <c r="D25" s="1">
-        <f>+D23+D24</f>
-        <v>45853909.333333343</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="43">
+        <f ca="1">+D23+D24</f>
+        <v>52949409.333333343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <v>4000000</v>
       </c>
       <c r="B28" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>2000000</v>
       </c>
       <c r="B29" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <f>84900000-74000000</f>
         <v>10900000</v>
       </c>
       <c r="B30" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <v>2000000</v>
       </c>
       <c r="B31" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <f>84900000-78000000</f>
         <v>6900000</v>
       </c>
       <c r="B32" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <f ca="1">SUM(A25:A35)</f>
-        <v>79416929.666666672</v>
+        <v>82731429.666666672</v>
       </c>
     </row>
   </sheetData>
